--- a/Notebooks/df_comp_excel.xlsx
+++ b/Notebooks/df_comp_excel.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1327"/>
+  <dimension ref="A1:B1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17480,6 +17480,7403 @@
         </is>
       </c>
     </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,¼ cup gin,2 Tbsp. tonic syrup, such as Jack Rudy,1 cucumber slice (optional, for garnish),Combine gin, tonic syrup, and 1 cup ice in a blender and blend until smooth. Pour into serving glass and garnish with cucumber if desired.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Ribs, grilled chicken, and corn galore.,Make your summer better with recipes for breezy side dishes, desserts, cocktails, grilled mains, and simple weeknight dinners.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2003 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 oz (2 tablespoons) dark rum,1 oz (2 tablespoons) aged rum,2 tablespoons fresh orange juice,½ oz (1 tablespoon) Cointreau or triple sec,1 tablespoon fresh lime juice,1 teaspoon orgeat syrup or 1 drop pure almond extract,1 teaspoon superfine granulated sugar,Dash of grenadine,Garnish: an orange slice,Shake all ingredients in a cocktail shaker with 1 cup ice cubes, then strain into an old-fashioned glass filled with ice cubes.,Can you guess the most popular recipe on Epicurious?,Cool off—and get a little tipsy—with these refreshing summer favorites.,Light the torches. Lay on the leis. It's tiki time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 strawberries, hulled,½ oz. (15 ml) 1:1 simple syrup (see headnote),2 oz (60 ml) bourbon,¾ oz (22 ml) fresh lemon juice,2 dashes Angostura bitters,3 oz (90 ml) ginger beer,Strawberry, to garnish,Gently muddle the strawberries with the Simple Syrup in a cocktail shaker. Add the bourbon, lemon juice, and Angostura bitters, then fill with ice and shake vigorously for 10–15 seconds. Double strain into a highball glass filled with fresh ice and top with the ginger beer. Garnish with a fresh strawberry.,Reprinted fromSpirited: Cocktails from Around the World, by Adrienne Stillman. © 2020 Phaidon Press
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,There are many, many ways to enjoy whiskey season.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1⅓ cups chilled mezcal,1⅓ cups chilled Lillet blanc,⅔ cup chilled 1:1 simple syrup (see Note),2¼ teaspoons celery bitters,¾ cup plus 2 tablespoons water,1⅓ cups fresh celery juice (from about 12 celery stalks),1 cup fresh lemon juice,Garnish: Smoked sea salt and thinly sliced lemon wheels,Up to 1 day before serving, make the batch. Pour chilled mezcal, chilled Lillet blanc, chilled simple syrup, celery bitters, and water into a 2-quart pitcher and stir to mix. Seal well, covering with plastic wrap if needed, and refrigerate.,Up to 2 hours before serving, prepare celery and lemon juices and stir into pitcher mix. Reseal and return to refrigerator if not serving immediately.,To serve, stir mixture well. Place a large ice cube in each rocks glass, then pour in cocktail and garnish with a small pinch of smoked salt and a lemon wheel, if desired.,FromBatch Cocktails: Make-Ahead Pitcher Drinks for Every Occasion© 2019 by Maggie Hoffman. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Not that there's anything wrong with a simple snack.,Make better cocktails at home by cracking open a bottle of mezcal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces chinotto soda, such asSan PellegrinoorLurisia,1½ ouncesred verjus,1 ounce soda water,1 orange twist, for garnish,1 green pitted olive, for garnish,Fill a spritz or wine glass with 2 or 3 ice cubes. Add the chinotto, red verjus, and soda water and stir gently. Garnish with the orange twist and olive.,Fill a pitcher with ice. Add 1½ cups chinotto, 1 cup plus 2 tablespoons verjus, and 3⁄4 cup soda water. Gently stir, then divide among 6 wine glasses. Garnish each with an orange slice and an olive.,Excerpted fromGood Drinks: Alcohol-Free Recipes for When You're Not Drinking for Whatever Reasonby Julia Bainbridge, copyright © 2020. Published by Ten Speed Press, an imprint of Penguin Random House. Photography copyright: Alex Lau © 2020.
+Buy the full book fromAmazonorBookshop.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Taking a break from booze? You can still make great drinks.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Two booze-free recipes—and more suggestions—from the author of *Good Drinks: Alcohol-Free Recipes for When You’re Not Drinking for Whatever Reason.*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ ounces cream of coconut (such as Coco Lopez),1½ ounces pineapple juice,1 ounce aged rum,1 ounce coconut rum,Splash of coconut milk (optional),Pineapple wedge, for garnish,Combine all the ingredients in a blender cup. Add 1 cup of ice. Blend on High until smooth. Pour into a hurricane glass, goblet, or tall glass. Garnish with the pineapple wedge.,Reprinted with permission from the publisher, Houghton Mifflin Harcourt, from101 Tropical Drinksby Kim Haasarud. Copyright 2013. Buy the full book fromAmazonorThrift Books.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,This make-ahead method is the best way to make frozen cocktails at home.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,Including cakes, cream pies, and drinks both boozy and refreshing.,Rich, versatile canned coconut milk plays a central role in many curries—but that's just the beginning of what this pantry superstar can do.,Whether it's served for dinner, drinks, breakfast, or dessert, pineapple will brighten any meal.,Light the torches. Lay on the leis. It's tiki time.,How to make like Laura Ingalls Wilder during that long winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,4 navel oranges, halved,Kosher salt (optional),1 lime, cut into 6 wheels,1 1/4 cups añejo tequila,6 tablespoons fresh lime juice (from about 2 limes),Pour salt onto a small plate, if using. Rub rim of an old-fashioned or rocks glass with lime wheel, then dip into salt.,Stir orange juice, tequila, lime juice, and 8 cups ice in a pitcher. Divide cocktails among glasses and garnish with lime wheels.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,A curated list of the best grilling recipes for your Memorial Day cookout.,Tequila is just the beginning.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.,From smoky, chile–laced enchiladas to creamy, coffee-spiked desserts, these are the Mexican (and Mexican-inspired) recipes we keep coming back to.,Waited until the last minute to plan your cookout menu? Don't panic. Labor Day is all about casual, grillable eats that you can throw together easily.,Chinese barbecue, Greek shrimp, and nine more recipes you need to kick back and relax this weekend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,8 black tea bags, preferably English breakfast,5 tablespoons sugar,3 1/2 cups store-bought or homemade lemonade, divided,1 cup vodka, divided,Lemon wheels (for garnish),Special Equipment,4 ice cube trays,Bring 3 1/2 cups water to a boil in a medium saucepan. Remove from heat and add tea bags and sugar. Let steep 4 minutes. Discard tea bags and let cool slightly (you should have about 3 1/2 cups tea).,Divide 3 cups tea between 2 ice cube trays; chill remaining 1/2 cup tea. Divide 3 cups lemonade between remaining 2 ice cube trays; chill remaining 1/2 cup lemonade. Freeze until solid, 3–4 hours.,Blend lemonade ice cubes, 1/2 cup vodka, and 1/2 cup lemonade in a blender until smooth. Transfer to a spouted liquid measuring cup or pitcher. Rinse blender jar and add tea ice cubes and remaining 1/2 cup tea and 1/2 cup vodka; blend until smooth.,Tilt a large glass to one side and fill halfway with lemonade mixture. While slowly returning glass to upright position, pour in frozen tea mixture to fill glass and create a swirl. Garnish with lemon wheels.,Ice cubes can be made 3 months ahead. Transfer to resealable plastic bags and keep frozen.,Pucker up for these lemony sweets.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Pucker up—these recipes put lemon front and center.,Make dad drinks, not dad jokes.,Discover game-day food to fuel your favorite fans.,Grilled corn? Check. Sweet berries? Check. Ripe Tomatoes? Big check.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces Letherbee gin,2 ounces sweet vermouth,2 ounces Luxardo Bitter,1 1⁄2 ounces fresh grapefruit juice,1 1⁄2 ounces fresh orange juice,1 1⁄2 cups crushed ice,Garnish: frozen orange half wheels,Put all the ingredients in a blender and process at high speed, stopping occasionally to stir the ingredients together. Continue blending at high speed, adding more crushed ice to achieve the desired consistency. Serve garnished with the frozen orange half wheels.,Reprinted with permission fromThe NegroniCopyright 2013, 2015 by Gary Regan. Photographs © 2015 by Kelly Puleio. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. (60 ml) gin,1 oz. (30 ml) fresh lime juice,¾ oz. (22 ml) simple syrup (1:1, see headnote),8–10 fresh mint leaves,2 dashes Angostura bitters (optional),Mint leaf, to garnish,Combine all the ingredients in a cocktail shaker filled with ice and shake vigorously for 15–20 seconds, or until frosted on the outside. Double strain into a coupe. Garnish with a mint leaf.,For an East Side, muddle a few cucumber slices with the mint and garnish with a fresh cucumber slice.,Substitute vodka or tequila for the gin.,Serve in a highball glass over fresh ice and top with club soda.,Add 1–2 dashes of absinthe to make the French Pearl cocktail.,Reprinted fromSpirited: Cocktails from Around the World, by Adrienne Stillman. © 2020 Phaidon Press
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces blanco tequila,1 ½ ounces pineapple juice (preferably freshly juiced and strained),¾ ounce freshly squeezed lemon juice,¾ ounce simple syrup,2 dashes of orange bitters,1 dash of Angostura bitters (optional),Pineapple slice, for garnish,Combine the first six ingredients in a chilled cocktail shaker. Shake and strain over fresh ice into a glass. Garnish with the pineapple slice.,Excerpted fromEAT. COOK. L.A.: Recipes from the City of Angels© 2019 by Aleksandra Crapanzano. Photography by Ray Kachatorian. Reproduced by permission of Ten Speed Press, a division of Penguin Random House, Inc.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 strawberries, hulled, sliced,1 teaspoon sugar,2 ounces tequila blanco,1 ounce fresh lemon juice,3/4 ounce dry rosé,Muddle strawberries and sugar in a cocktail shaker until lightly crushed. Add tequila, lemon juice, rosé, and a single large ice cube. Cover and shake until outside of the shaker is frosty, about 30 seconds. Pour drink with ice cube into a rocks glass (do not strain).,Cool off—and get a little tipsy—with these refreshing summer favorites.,Tequila is just the beginning.,Take those berries and pickle them, salad them, shortcake them, and more.,37 tequila drinks to make at home.,Make a big batch of this simple strawberry dish for quick and easy breakfasts, desserts, and snacks all week long.,Toss out the OJ and Prosecco. You don't need them anymore.,Dinner, dessert, and even cocktails are easier when you tap into this underrated tool.,Not sure what to make with that pallet of berries you brought home? We have 19 ideas.,The reason for the season is berries. Boozy berries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 large ice cube, plus more ice cubes for the cocktail shaker,1 slice serrano chile, seeded,5 or 6 fresh cilantro leaves,2 oz. [60 ml] mezcal,1 oz. [30 ml] fresh pineapple juice,3/4 oz. [22.5 ml] rich simple syrup (see note),1/2 oz. [15 ml] fresh lime juice,1 pineapple leaf for garnish,Put the large ice cube in an old-fashioned glass. Muddle the serrano chile with the cilantro leaves in a cocktail shaker. Add the mezcal, pineapple juice, simple syrup, lime juice, and ice cubes. Shake vigorously and strain over the large ice cube in the glass. Garnish with the pineapple leaf.,FromAmáby Josef Centeno and Betty Hallock, copyright © 2019. Reprinted with permission from Chronicle Books.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,Make better cocktails at home by cracking open a bottle of mezcal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 lemon wheel,1 orange wheel,¾ oz. simple syrup (1:1 sugar:water),3 oz. amontillado sherry,Garnish: berries in season, citrus, mint, a Lego minifig—anything, really,In a mixing glass or cocktail shaker, add the lemon, orange, and simple syrup, and muddle. Add the sherry, fill with ice, and shake. Finely strain into a Collins glass over crushed ice. Top up with additional crushed ice and garnish like there’s no tomorrow.,FromSherry: A Modern Guide to the Wine World's Best-Kept Secret, with Cocktails and Recipesby Talia Baiocchi. Copyright © 2014 by Talia Baiocchi. Published by Ten Speed Press, a division of Random House LLC. Photography copyright © 2014 by Ed Anderson.
+Buy the full book fromAmazonorBookshop.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. mezcal, such as Vago Espadín,½ oz. fresh lime juice,½ oz. fresh ginger juice,1 oz. agave nectar,1½ oz. sparkling water,Add all ingredients to a cocktail shaker and dry shake. Careful—the bubbles in the soda water will give a little pushback, but don’t sweat it! Strain into a copper mule mug and add fresh rocks. Garnish with a sprig of mint and a quartered lime (optional).,Excerpted fromMezcal© 2017 by Emma Janzen. Reprinted with permission of Voyageur Press.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make better cocktails at home by cracking open a bottle of mezcal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. (75 ml) white port,Tonic water,Garnish: Slice or wedge of lemon, sprig of rosemary,Pour the white port into a tall glass over ice. Top up with tonic water, to taste, and garnish with the lemon and rosemary.,Reprinted with permission fromAperitif: A Spirited Guide to the
+Drinks, History and Culture of the Aperitif, copyright © 2018 by Kate Hawkings. Published by Quadrille Publishing.
+Buy the full book fromAmazonorBookshop.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Wheel of English cucumber,½ oz. Cynar,1½ oz. Pimm’s No. 1,4 oz. tonic water, such as Fever-Tree,Garnish: long English cucumber spear and lemon wedge,Muddle the cucumber wheel and Cynar in the bottom of a highball glass. Add ice cubes, Pimm's, and tonic water. Stir gently, then add the cucumber spear and the lemon wedge.,Reprinted fromThe New Craft of the Cocktail: Everything You Need to Know to Think Like a Master Mixologist, with 500 Recipesby Dale DeGroff. Copyright © 2020. Photographs by Daniel Krieger. Published by Clarkson Potter, a division of Penguin Random House, LLC. Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Get a head start on spring cooking, even if you don’t have spring produce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. dry white vermouth,¾ oz. fresh lemon juice,¾ oz. simple syrup (see note),3 orange slices,Combine the vermouth, lemon juice, simple syrup, and 2 of the orange slices in a cocktail shaker and muddle to break down the orange. Add ice cubes to fill the shaker three-quarters full, cover, and shake to chill, about 15 seconds.,Fill a rocks glass with ice cubes and strain the cocktail over the ice. Garnish with the remaining orange slice.,FromDay Drinking: 50 Cocktails for a Mellow Buzz, © 2017 by Kat Odell. Reprinted by permission of Workman Publishing Company.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,¾ ounce Aperol,¾ ounce Martini &amp; Rossi Sweet Vermouth,1 ounce fresh orange juice,2 ounces Prosecco, such as Mionetto Prosecco Brut Valdobbiadene,Half orange wheel, for garnish,Build the Aperol, vermouth, and orange juice in a highball glass filled three-quarters full with ice cubes. Stir and top with the prosecco. Garnish with the half orange wheel.,Reprinted fromThe New Craft of the Cocktail: Everything You Need to Know to Think Like a Master Mixologist, with 500 Recipesby Dale DeGroff. Copyright © 2020. Photographs by Daniel Krieger. Published by Clarkson Potter, a division of Penguin Random House, LLC. Buy the full book fromAmazon.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 (12-oz.) can ginger beer,2 1/2 oz. gin,1 1/2 oz. fresh lemon juice,4–5 dashes Angostura bitters,Pour off or drink 5 oz. from ginger beer so that 7 oz. remain in can. Combine gin, lemon juice, and bitters in a measuring glass or cocktail shaker. Fill with ice and stir or shake well to combine, about 20 seconds. Strain into can.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Making delicious cocktails doesn't have to be fussy.,A Lebanese pepper dip, a buttery-but-light pound cake, and imminently dippable chicken fingers.,Grilled chicken legs, soda can cocktails, strawberry shortcake pops, and more for a sunny, summery weekend.,These cocktails can be taken with you to the park, to the beach, to your backyard, and anywhere else you don't want to be caught carrying a cocktail glass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 large or 2 small ripe strawberries, halved,3/4 ounce fresh lemon juice,1/2 ounce undiluted honey,2 ounces gin,1 heaping teaspoon plain Greek yogurt,GARNISH: freshly ground black pepper and a vertical slice of strawberry,Combine strawberries, lemon juice, and honey in a cocktail shaker and muddle until well broken up. Add gin and Greek yogurt and fill shaker with ice. Shake until well chilled, about 15 seconds. Fill a rocks glass with crushed ice, then double-strain cocktail into it. Grind black pepper on top and garnish with the strawberry slice.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Tangy yogurt goes savory and sweet—here are our favorite recipes to use up the rest of that tub in your fridge.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Take those berries and pickle them, salad them, shortcake them, and more.,Make dad drinks, not dad jokes.,Making delicious cocktails doesn't have to be fussy.,Easy appetizers that transition to full meals, strawberries two ways, and an iced-tea take on a hot toddy.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 fresh pineapple (about 4 pounds),1 cup white rum,1/4 cup fresh lime juice,1/3 cup mint leaves, plus more for garnish,1 tablespoon (or more) sugar (optional),Cocktail umbrellas, sliced fruit, flowers, maraschino cherries, and/or any other tiki drink decoration (optional),Trim top of pineapple to remove leaves, but leave top in tact. Cut pineapple in half crosswise. Run a knife in a circle around inside of halves 1/2" away from the skin. Cut across core of pineapple twice, creating 4 pieces and loosening the fruit. Using a big spoon or ice cream scoop, scoop out inside of each pineapple half. Place pineapple "cups" in freezer.,Discard core and finely chop pineapple (you should have about 4 cups). Place in a single layer on a parchment-lined sheet tray and freeze at least 1 hour.,Blend frozen pineapple, rum, lime juice, 1/3 cup mint, and 2 cups ice in a blender until smooth. Taste and add sugar, if needed.,Fill pineapple "cups" with mojito mixture, reserving extra for refills. Garnish with mint sprigs and tiki drink decoration, if using. Reserve remaining mojito mixture in freezer for second serving or serve in alternate glasses.,Pineapple "cups" can be hollowed out 3 days ahead; keep frozen. Pineapple chunks can be frozen up to 3 months ahead.,Ribs, grilled chicken, and corn galore.,Make your summer better with recipes for breezy side dishes, desserts, cocktails, grilled mains, and simple weeknight dinners.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,Including cakes, cream pies, and drinks both boozy and refreshing.,Make dad drinks, not dad jokes.,Easy recipes for the grill, frosty frozen cocktails, and a breakfast buffet that will totally stun.,Whether it's served for dinner, drinks, breakfast, or dessert, pineapple will brighten any meal.,Light the torches. Lay on the leis. It's tiki time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the cocktail:,1 1/2 cups fresh or frozen red berries,3/4 cup sugar,1 1/4 cups vodka,3/4 cup fresh lemon juice,1 teaspoon rose water,For the ice cube garnish (optional):,Fresh or frozen red berries,Small roses or rose petals,Bring berries, sugar, and 1/2 cup water to a simmer in a small saucepan over medium-low heat. Remove from heat and let steep 15 minutes.,Strain syrup through a fine-mesh sieve into a pitcher. Add vodka, lemon juice, rose water, and 5 cups water and stir to combine.,Divide cocktail among ice-filled glasses.,If using, fill 2 ice cube trays one-quarter full with water. Add berries and roses to your liking. Freeze until beginning to set, about 1 hour. Fill ice cube trays the rest of the way with water and freeze until solid, 3–4 hours.,Berry syrup can be made 3 days ahead. Cover and chill. Ice cubes can be made 1 month ahead. Keep frozen.,Celebrate the warmer weather with these refreshing spring drinks.,Packed with fresh herbs and bright flavors, these Easter brunch recipes include our favorite egg dishes, sweet buns, and cheeky brunch cocktails.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Pucker up—these recipes put lemon front and center.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Waited until the last minute to plan your cookout menu? Don't panic. Labor Day is all about casual, grillable eats that you can throw together easily.,Embrace the height of summer with tomato salad, grilled steak with citrus, coconut lime pops, and more.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 (12-oz.) can Pamplemousse La Croix,2 oz. tequila blanco,1 oz. fresh lime juice,1 oz. triple sec,Lime wedge (for serving),Kosher salt,Pour off or drink 5 oz. from pamplemousse so that 7 oz. remain in can. Combine tequila, lime juice, and triple sec in a measuring glass or cocktail shaker. Fill with ice and stir or shake well to combine, about 20 seconds. Strain into can. Rub outside rim of can with lime wedge, then sprinkle with salt.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.,Waited until the last minute to plan your cookout menu? Don't panic. Labor Day is all about casual, grillable eats that you can throw together easily.,We polled our staff and these are the tried-and-true recipes we can't get enough of.,Crack open a can for the easiest cocktail you'll make all summer.,The 4th of July is over, but the weekend is just beginning. Keep the party going with soda can cocktails, coconut-lime popsicles, and smoky wedge salads.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. Prosecco or other sparkling wine, chilled,1½ oz. Aperol,1 oz. club soda, chilled,Orange wheel (for serving),Fill a wine glass halfway with ice, then slowly pour in3 oz. Prosecco,1½ oz. Aperol, and1 oz. club soda.Gently stir once and garnish with an orange wheel.,Looking for June recipes? Find our most popular quick dinners, super easy drinks, and all the best main dishes for your barbecue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. Prosecco or other sparkling wine, chilled,1½ oz. Aperol,1 oz. club soda, chilled,Orange wheel (for serving),Fill a wine glass halfway with ice, then slowly pour in3 oz. Prosecco,1½ oz. Aperol, and1 oz. club soda.Gently stir once and garnish with an orange wheel.,Looking for June recipes? Find our most popular quick dinners, super easy drinks, and all the best main dishes for your barbecue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Kosher salt, optional,4 thin slices cucumber, plus a ¼-inch-thick slice for garnish,2 sprigs fresh cilantro,½ cup ice cubes,2 ounces (¼ cup) silver tequila,1 ounce (2 tablespoons) fresh lime juice,½ ounce (1 tablespoon) agave syrup,½ ounce (1 tablespoon) Bols Triple Sec,To salt the rim of your glass, fill a shallow bowl with water. On a small plate, pour a circle of salt. Dip the rim of a rocks glass or margarita glass in the water, then dip it into the salt and set it aside.,In the bottom of a cocktail shaker, muddle the 4 cucumber slices with 1 cilantro sprig until the cucumber releases most of its juices and the cilantro is smashed and fragrant. Add the ice cubes, tequila, lime juice, agave syrup, and triple sec. Cover and shake vigorously for 4 seconds. Pour the drink, including the ice, into the glass. Serve the margarita garnished with the remaining cucumber slice and cilantro sprig.,FromTrejo's Tacos: Recipes and Stories from L.A.. Copyright © 2020 by Danny Trejo and Larchmont Hospitality Group LLC. Photographs copyright © 2020 by Ed Anderson. Published by Clarkson Potter, an imprint of Penguin Random House.
+Order the full book fromAmazon.,Ribs, grilled chicken, and corn galore.,Make your summer better with recipes for breezy side dishes, desserts, cocktails, grilled mains, and simple weeknight dinners.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Tequila is just the beginning.,Nothing's cooler than a cucumber.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. amaro (such as Nonino),3 oz. Lambrusco,Cherry soda (for serving),1 maraschino cherry,Pour amaro and Lambrusco into a rocks glass filled with ice. Top off with a splash of soda, stir gently to combine, and garnish with cherry.,Celebrate summer's ruby-red stone fruit with our best recipes for cherry pies, cakes, salads, relishes, and more.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Classic blueberry muffins, tomato toast, a summery pizza—and more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 fennel bulb with fronds,1/4 cup packed arugula leaves,3/4 ounce fresh lime juice,3/4 ounce 1:1 simple syrup (see note),2 ounces gin,GARNISH: lime wheel, arugula leaf, or peppery flower (such as nasturtium; optional),Using a mandoline or vegetable peeler, thinly slice enough of the fennel bulb to yield 1/4 cup (about 1/2 small bulb). Add a pinch of the fennel fronds to a cocktail shaker along with sliced fennel and arugula leaves. Add lime juice and simple syrup and muddle until the fennel is bruised. Add gin and fill with ice. Shake vigorously until chilled, about 12 seconds. Double-strain into a chilled coupe glass and garnish with lime wheel, arugula leaf, or nasturtium if desired.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Spring is in the air...and in this weekend-welcoming cocktail.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Make-ahead dishes for Thanksgiving and a few easy, satisfying meals for the days leading up to it.,When you combine them with a bottle of booze, of course.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 thin slice peeled ginger,2 oz. Lillet,3 oz. cava,Splash of ginger beer,Place ginger slice against the inside of a rocks glass, fill with ice, and add Lillet and cava. Top off with ginger beer and stir gently to combine.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Making delicious cocktails doesn't have to be fussy.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,A weekend that starts with cheese, ends with cheese.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 (12-oz.) can Dr. Brown’s Cherry Soda,1 1/2 oz. bourbon,1 oz. Campari,1 oz. fresh lemon juice,Pour off or drink 5 oz. from cherry soda so that 7 oz. remain in can. Combine bourbon, Campari, and lemon juice in a measuring glass or cocktail shaker. Fill with ice and stir or shake well to combine, about 20 seconds. Strain into can.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,There are many, many ways to enjoy whiskey season.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,These classics—and new drinks—will keep you warm all winter.,Make dad drinks, not dad jokes.,Making delicious cocktails doesn't have to be fussy.,Cheesy stuffed tomatoes, frozen margarita pie, and the only salsa you'll ever need.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 ripe blackberries,2 cucumber slices, 1/4 inch thick,10 fresh mint leaves,2 ounces vodka,3/4 ounce fresh lemon juice,1/2 ounce 1:1 simple syrup (see note),2 1/2 ounces ginger beer,GARNISH: mint sprig and cucumber wheel,Muddle blackberries, cucumber, and mint in the smaller half of a cocktail shaker. Add vodka, lemon juice, and simple syrup and fill with ice. Shake until well chilled, about 12 seconds. Double-strain into an ice-filled collins glass, pour the ginger beer down the side of the glass, and give it a brief, gentle stir. Garnish with mint sprig and cucumber wheel, plus a straw if you have one.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,These luscious tarts, cobblers, and cocktails are worth any thorns you might encounter in the blackberry patch.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Nothing's cooler than a cucumber.,Make dad drinks, not dad jokes.,Grilled chicken, grilled steak, grilled corn...and, fine, some recipes you *don't* need the grill for. (Happy Labor Day!),Taste the rainbow.,When you combine them with a bottle of booze, of course.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 cups gin, tequila, or mezcal,1 1/2 cups Aperol,1 (16-ounce) bottle chilled kombucha, preferably ginger or lemon flavored,4 (12-ounce) cans chilled club soda,2 tangerines or oranges, halved through stem ends, thinly sliced,Combine your chosen spirit with Aperol and kombucha in a large pitcher or glass jar and stir well.,To make each cocktail, fill a small glass with ice and pour in gin mixture to come up halfway. Top off with club soda and finish with a few dashes of bitters and a tangerine slice or 2.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Make better cocktails at home by cracking open a bottle of mezcal.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Getting into autumn with squash, soup, and cinnamon buns.,Toss out the OJ and Prosecco. You don't need them anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 cup Campari,1/4 cup fresh lemon juice,1/4 cup fresh orange juice,1/4 cup gin,1/4 cup (or more)simple syrup,4 orange wheels,Blend Campari, lemon juice, orange juice, gin, simple syrup, and 6 cups ice in a blender until smooth. Taste and add more simple syrup, if desired. Divide among 4 rocks glasses and garnish with orange wheels.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes will make for a pretty good weekend wherever you are.,Make dad drinks, not dad jokes.,Toss out the OJ and Prosecco. You don't need them anymore.,Our guide to this essential cocktail ingredient.,This weekend is all about getting into a relaxed, summer frame of mind. Start with a sophisticated take on a frozen cocktail and move on to poolside short-rib kebabs and a spicy rice noodle chicken salad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 or 3 slices fresh jalapeño,¾ oz. grade B maple syrup,½ oz. fresh lemon juice,2 oz. reposado tequila,Kosher salt for rim,Rim half of a rocks glass with kosher salt. Muddle jalapeño in base of cocktail shaker. Add maple syrup, lemon, and tequila. Shake vigorously with ice.,Fill rimmed glass with fresh ice. Double strain cocktail (to remove any pepper bits) into prepared glass. Garnish with lemon slice.,FromI'm Just Here for the Drinks: A Guide to Spirits, Drinking and More Than 100 Extraordinary Cocktails. Copyright © 2018 by Sother Teague. Reprinted with permission from Media Lab Books.
+Order the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Tequila is just the beginning.,37 tequila drinks to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,June 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Syrup:,1/2 cup chopped mint,1/2 cup chopped peeled ginger,1 cup sugar,Cocktail and assembly:,1 (750-ml) bottle lemon-flavored vodka,2 cups fresh lemon juice,Lemon wheels and mint leaves (for serving),Bring mint, ginger, sugar, and 2 cups water to a simmer in a small saucepan over medium heat, whisking to dissolve sugar. Remove from heat and let sit 1 hour. Strain through a fine-mesh sieve into a large measuring glass or a small bowl; let ginger-mint syrup cool completely. Cover and chill until cold, at least 30 minutes.,Combine vodka, lemon juice, ginger-mint syrup, and 4 cups water in a punch bowl and stir well.,Ladle spiked lemonade into ice-filled glasses and garnish with lemon wheels and mint leaves.,Syrup can be made 1 month ahead. Keep chilled.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Pucker up—these recipes put lemon front and center.,Celebrate this holiday weekend with ice cream French toast, umami-packed burgers, and spiked mint lemonade.,This prep-in-advance spread will leave you plenty of time to hunt for Easter eggs.,Barbecued pork, a lemony tomato tart, cantaloupe granita, and more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Coarse salt,2 lime wedges,2 ounces tomato juice (canned, bottled, or fresh),1 ounce fresh lime juice,1/2 ounce hot sauce,1/4 ounce Worcestershire sauce,1/2 teaspoon Tajín Clásico,1 bottle (12 ounces) pale lager, such as Corona Extra, chilled,Place about 1/4 cup salt on a small plate. Rub the rim of a Collins or pint glass (or a 16-ounce Solo cup—no need to get fancy) with one of the lime wedges to moisten it, then dip the rim in the salt to coat.,Combine the tomato juice, lime juice, hot sauce, Worcestershire sauce, Tajín, and a pinch of salt in a small bowl and mix.,Fill the prepared glass about three-quarters full with ice cubes and add the tomato juice mixture. Top with beer and garnish with the remaining lime wedge.,FromDay Drinking: 50 Cocktails for a Mellow Buzz, © 2017 by Kat Odell. Reprinted by permission of Workman Publishing Company.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,From smoky, chile–laced enchiladas to creamy, coffee-spiked desserts, these are the Mexican (and Mexican-inspired) recipes we keep coming back to.,Discover game-day food to fuel your favorite fans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the Pomegranate Syrup:,1/2 cup pomegranate juice,1/2 cup sugar,For the cocktail:,1 ounce mezcal,1 ounce dry sparkling white wine,2 ounces orange juice, preferably fresh squeezed and strained,Cook pomegranate juice and sugar in a small pot over medium-high heat, stirring occasionally, until sugar is dissolved and liquid is slightly reduced, about 5 minutes. Remove from heat, transfer to a heatproof container, and chill until cool, about 30 minutes.,Pour mezcal, sparkling wine, and orange juice into a rocks glass filled with ice. Top with 1 Tbsp. Pomegranate Syrup.,Pomegranate Syrup can be made 7 days ahead; chill in an airtight container.,It's time to pop some bottles.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make better cocktails at home by cracking open a bottle of mezcal.,Make dad drinks, not dad jokes.,Toss out the OJ and Prosecco. You don't need them anymore.,A new version of the classic cocktail, made with mezcal and DIY grenadine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,March 2019 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ cups chilled fino or manzanilla sherry,1½ cups Campari,To serve:,1 (750 ml) bottle chilled dry sparkling wine,18 orange wheels,Up to 24 hours before serving, make the batch. Pour sherry and Campari into a 2½- or 3-quart pitcher and stir to mix. Seal well, covering with plastic wrap if needed, and refrigerate if not serving immediately.,To serve, stir 1 cup ice and 6 orange wheels into pitcher mix, then carefully add chilled sparkling wine and stir again gently to mix. Pour into ice-filled wine glasses or rocks glasses and garnish each glass with an orange wheel.,FromBatch Cocktails: Make-Ahead Pitcher Drinks for Every Occasion© 2019 by Maggie Hoffman. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,It's time to pop some bottles.,No matter your skill level or available time, these simple recipes will help you pull off the meal of the year.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ ounces tequila blanco,1 ounce Aperol,1 ounce lime juice,½ ounce orange juice,½ ounce agave nectar,Salt for glass rim,Orange twist to garnish,Add the tequila, Aperol, juices, and syrup to a cocktail shaker with ice. Shake for approximately 30 seconds to chill and combine the ingredients.,Rim your glass with salt.,Double strain into a wine glass over fresh ice. Garnish with an orange twist.,Excerpted fromBeautiful Booze: Stylish Cocktails to Make at Home© Copyright 2020 by Natalie Migliarini and James Stevenson. The Countryman Press. All rights reserved.
+Buy the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Tequila is just the beginning.,37 tequila drinks to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 cup dried hibiscus flowers,1/2 cup sugar,3 cups cilantro leaves with tender stems, divided,1/2 cup mezcal,1/4 cup fresh lime juice,Cilantro flowers or sprigs (for serving),Bring 3 cups water to a simmer in a medium saucepan. Remove from heat and add hibiscus; let steep 10 minutes. Strain hibiscus tea into a medium bowl; let cool.,Bring 1 cup water to a simmer in a small saucepan. Add sugar and cook, stirring, until dissolved. Remove from heat; add 2 cups cilantro. Let steep 20 minutes. Strain syrup into a small bowl; let cool.,To make cocktail, muddle remaining 1 cup cilantro in a large pitcher. Add mezcal, lime juice, hibiscus tea, and 1¼ cups cilantro syrup and stir to combine. Taste and add more syrup if desired, keeping in mind that the flavor will be diluted once you add ice.,Divide cocktail among ice-filled glasses. Garnish with cilantro flowers.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make better cocktails at home by cracking open a bottle of mezcal.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,This refreshing, citrusy herb improves just about everything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,9 ounces fresh blackberries (about 1 1/2 cups),1 cup sugar,2 cups chilled dry gin,3/4 cup fresh lemon juice,2 cups chilled club soda,Lemon wheels (for serving),Bring blackberries, sugar, and 1/2 cup water to a boil in a medium saucepan, stirring until sugar is dissolved. Reduce heat so that liquid is at a simmer and cook, stirring occasionally, until fruit is very soft, 20–25 minutes. Let blackberry syrup cool, then strain through a fine-mesh sieve into a large pitcher, pressing on fruit to extract as much liquid as you possibly can; discard solids.,Add gin and lemon juice to syrup in pitcher. Add ice to fill and stir until chilled, about 3 minutes.,Fill Collins glasses with ice cubes and divide cocktail among glasses. Top each with ¼ cup club soda and garnish with lemon wheels.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toss out the OJ and Prosecco. You don't need them anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Campari,3 oz. dry rosé,Splash of lemon soda,1 lemon wheel,Pour Campari and rosé into a rocks glass filled with ice. Top off with soda, stir gently to combine, and add lemon wheel.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Making delicious cocktails doesn't have to be fussy.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Smoked trout flatbread. Grilled chicken. This is June.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Vegetable oil (for grill),2 peaches, halved, pitted,2 plums, halved, pitted,1 nectarine, halved, pitted,12 cherries, 6 halved, pitted, 6 left whole for serving,1 (750ml) bottle red wine,1/2 cup orange juice,1/4 cup brandy,1/4 cupsimple syrup,Prepare a grill or grill pan for medium heat; oil grates. Grill peach, plum, and nectarine halves, flipping once, until lightly charred and tender, 8–10 minutes. Transfer to a cutting board and let cool, then cut into 1" chunks.,Muddle grilled fruit and 6 halved cherries in a large pitcher with a wooden spoon. Top with wine, orange juice, brandy, and simple syrup; stir to incorporate. Chill at least 1 hour.,Fill glasses with ice. Add sangria and muddled fruit and top each with a cherry.,Celebrate summer's ruby-red stone fruit with our best recipes for cherry pies, cakes, salads, relishes, and more.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Because meat shouldn't get to hog the fire.,When the late-summer fruit is in season, we're eating it every way we can.,Make dad drinks, not dad jokes.,A stone fruit cocktail *and* dessert, some grilling, some frying, some salads, and cold brew for the last weekend of June.,Add a squeeze of summer produce to your cocktails, mocktails, and even your coffee.,Getting a grill into the mix when it comes to summer cocktails adds a whole new dimension of flavor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,8 lemons, halved,16 sprigs of thyme,Ice cubes,4 cups ice water,1 1⁄2 cups vodka,1⁄2 cup agave or simple syrup  (see Note),Wipe the grill grates with oil to prevent sticking. Build a high-heat fire. Your high-heat zone should have embers 1 to 2 inches from the cooking surface, with occasional flames licking it.,Place the lemons, cut side down, over high heat until they are charred and soft, about 3 minutes. While the lemons char, using tongs, hold 8 of the thyme sprigs over high heat just until they start to color and give off wisps of smoke.,Add the remaining 8 thyme sprigs to a cocktail shaker, squeeze in the lemon juice, and add a couple ice cubes. Shake very well and strain into a pitcher. Add the ice water, vodka, and agave, and stir until the agave is dissolved.,Serve the drinks in ice-filled glasses garnished with a charred thyme sprig.,Reprinted with permission fromThe Outdoor Kitchen: Live-Fire Cooking from the Grillby Eric Werner, copyright © 2020. Photographs by Gentl and Hyers. Published by Ten Speed Press, a division of Penguin Random House, Inc.
+Buy the full book fromAmazon.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Barbecue season has officially begun—but you’ll want to customize your grilling for spring.,Pucker up—these recipes put lemon front and center.,Late summer is here and the time is right for basking in perfect produce for as long as you possibly can.,Blackened, charred, scorched: Sometimes, it's the burning that brings the best flavor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Chamomile syrup:,3 cups water,2½ cups sugar,8 chamomile tea bags,Punch:,4 cups fresh grapefruit juice,1 pint fresh strawberries, hulled and sliced,3 cups bourbon,A few good dashes of bitters,Ice cubes or an ice mold, for serving,Fresh chamomile flowers, for garnish (optional),Combine the water and sugar in a small saucepan set over medium heat. Bring to a simmer, stirring until the sugar is dissolved. Remove the pan from the heat, add the tea bags, and stir. Cover and let steep for 15 minutes. Remove the tea bags and discard. Refrigerate until room temperature or chilled, at least 1 hour.,In a blender, combine the grapefruit juice and half of the strawberries. Blend until smooth. Pour the mixture into a large punch bowl. Add the chamomile syrup, bourbon, and bitters. Add the remaining strawberry slices and ice.,To serve, put a few ice cubes into serving cups, garnish with fresh flowers, if available, and ladle the punch into glasses.,Celebrate the warmer weather with these refreshing spring drinks.,Packed with fresh herbs and bright flavors, these Easter brunch recipes include our favorite egg dishes, sweet buns, and cheeky brunch cocktails.,There are many, many ways to enjoy whiskey season.,Cool off—and get a little tipsy—with these refreshing summer favorites.,These classics—and new drinks—will keep you warm all winter.,Take those berries and pickle them, salad them, shortcake them, and more.,Bring the taste of Kentucky home with these masterful cocktails.,Toss out the OJ and Prosecco. You don't need them anymore.,Start freezing that ice ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 cups frozen raspberries,1 cup tequila blanco,3/4 cup fresh lime juice,1/4 cup agave syrup,1 1/2 teaspoons finely grated ginger,4 (1/4-inch-thick) lime wheels (optional),Kosher salt (optional),Blend raspberries, tequila, lime juice, agave, ginger, and 2 cups ice in a blender until smooth.,If desired, rub rims of old-fashioned or rocks glasses with lime; dip rims in salt. Divide cocktail among glasses and serve with lime wheels, if using.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Tequila is just the beginning.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.,Discover game-day food to fuel your favorite fans.,Add tart, sweet raspberries to quick breads, cakes, cocktails, and more.,41 recipes worthy of a Mexican fiesta.,Here's what to know about turmeric's less trendy but still potent cousin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Pimm’s No. 1,3 oz. Prosecco,Splash ofDr. Brown's Cel-Raysoda,1 sprig celery leaves,Pour Pimm's and Prosecco into a rocks glass filled with ice. Top off with soda, stir gently to combine, and garnish with celery leaves.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Jalapeño-infused tequila:,4 jalapeños,750 ml blanco tequila (I prefer tequila from the Tequila valley, such as Siembra Valles, Fortaleza, Arette, etc.),Watermelon syrup:,2 cups cubed seedless watermelon,¾ cup superfine sugar,Say Anything cocktail:,1 oz jalapeño-infused Siembra Valles Blanco Tequila (see below),½ oz Novo Fogo Silver Cachaça,½ oz Aperol,1 oz Watermelon Syrup (see below),¾ oz lime juice,5 to 7 mint leaves,Lime wheel for garnish,Salt for garnish,Remove the stems from the jalapeños. Cut the jalapeños in half and scrape the core (seeds and membranes) of two into a food-safe container. Dice the remaining jalapeños and place into the food-safe container. Add the tequila and allow to infuse for 12 to 20 minutes, depending on spice level desired. Rebottle.,Note:The recipe for the jalapeño tequila will vary because not all jalapeños are equally spicy. You need to taste it frequently to make sure it’s right. Ensure your tequila is not cold, as cold tequila will not infuse properly.,Blend the watermelon in a blender to yield about 12 ounces of juice. Add the sugar and blend again until fully dissolved. Transfer to an airtight container. Store in the refrigerator for up to 2 weeks.,Add all the ingredients, except for 1 mint leaf, the lime wheel, and salt, to a cocktail shaker with ice. Wet the outside of a coupe glass with the lime wheel and roll the glass in salt for a salted rim. Shake and fine-strain into the glass. Garnish with the mint leaf—first pressed lightly to express its oils—by floating it on top of the drink.,FromSpirits of Latin America: A Celebration of Culture &amp; Cocktails, with 100 Recipes from Leyenda &amp; Beyondby Ivy Mix, copyright © 2020. Photographs by Shannon Sturgis. Published by Ten Speed Press, a division of Penguin Random House, Inc.
+Pre-order the full book fromAmazon.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,A juicy slice and the seed spitting contest that follows are great. These recipes are better.,37 tequila drinks to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/4 ounces Highwest Campfire whiskey or blended Scotch,3/4 ounce fresh lemon juice,3/4 ounce simple syrup,8 ounces chilled lager,Lemon twist (for serving),Combine whiskey, lemon juice, and simple syrup in an ice-filled cocktail shaker. Cover and shake vigorously until the outside of the shaker is very cold, about 20 seconds. Strain into a pint glass partly filled with ice. Top with beer and stir gently to combine. Garnish with lemon twist.,There are many, many ways to enjoy whiskey season.,Ribs, grilled chicken, and corn galore.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 tablespoon kosher salt,2 teaspoons paprika,1 teaspoon chipotle chile powder,2 cups fresh grapefruit juice,1 1/2 cups tequila,1/2 cup pomegranate juice,1/3 cup fresh lime juice,1/4 teaspoon rose water,1 1/2 cups (or more) ginger beer,Grapefruit wedges (for serving),Combine salt, paprika, and chile powder in a small bowl. Moisten half of each rim of 8 rocks glasses and dip into chile salt. Set glasses aside.,Combine grapefruit juice, tequila, pomegranate juice, lime juice, and rose water in a large pitcher or 8-cup measuring glass. Add 1 cup ice and stir until ice is melted and cocktail is very cold. Stir in ginger beer. Fill prepared glasses with ice and divide cocktail among glasses. Garnish with grapefruit wedges and top off with more ginger beer, if desired.,Grapefruit mixture can be made 8 hours ahead. Stir in ice, then cover and chill. Add ginger beer and prepare glasses just before serving.,Cool off—and get a little tipsy—with these refreshing summer favorites.,37 tequila drinks to make at home.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,It's technically still summer—so don't put away your grill just yet.,Toss out the OJ and Prosecco. You don't need them anymore.,Start freezing that ice ring.,Move over, oranges and lemons: these 23 recipes show that the grapefruit deserves its time in the citrus spotlight, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/4 cups sugar,1 pineapple, peeled, cut into 1 1/2-inch pieces,6 tablespoons distilled white vinegar,1/4 cup dried hibiscus flowers,1 jalapeño, thinly sliced into rounds,5 sprigs mint,1 lime, thinly sliced into wheels,2 cups tequila,1 cup fresh lime juice,Bring sugar and 1 cup water to a boil in a medium saucepan and cook, stirring, until sugar dissolves, about 3 minutes. Add pineapple, reduce heat, and simmer 10 minutes. Remove from heat and let sit 30 minutes to infuse syrup with pineapple flavor. Strain into a small bowl; stir in vinegar. Cover and chill shrub until cold, about 30 minutes. Cover and chill pineapple pieces until ready to use.,Meanwhile, place hibiscus in a small bowl and pour 1 1/4 cups boiling water over. Cover and let steep 10 minutes. Strain tea into an airtight container; discard flowers. Cover tea and chill until cold, about 30 minutes.,Set aside 8 slices jalapeño and 8 pieces pineapple for serving. Stir mint, lime wheels, tequila, lime juice, remaining jalapeño and pineapple, 1 cup shrub, and 1 cup tea in a large pitcher and chill at least 1 hour.,Serve in ice-filled rocks glasses garnished with reserved jalapeño slices and pineapple pieces.,Cocktail can be mixed 6 hours ahead. Keep chilled.,Make your summer better with recipes for breezy side dishes, desserts, cocktails, grilled mains, and simple weeknight dinners.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Effortless lunches, summer grilling and everything you need wind down—including a big batch pancake mix to last you through the weekend.,Whether it's served for dinner, drinks, breakfast, or dessert, pineapple will brighten any meal.,What to cook for Memorial Day and beyond including grilled buffalo wings, a hot dog that's definitely a sandwich, and smashed cukes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 medium cantaloupe,1/2 cup unsweetened coconut milk,1/2 cup tequila,1/4 cup Midori or tequila,1/4 cup fresh lime juice,1/4 cup agave nectar,Mint sprigs and lime wheels (for serving),Slice a thin piece of rind off both ends of cantaloupe; cut in half crosswise and remove seeds. Scoop out flesh; set aside cantaloupe halves.,Transfer half of flesh to a blender; reserve remaining flesh for another use. Add coconut milk, tequila, Midori, lime juice, agave nectar, and 1/2 cup ice to blender and blend until smooth.,Divide cocktail between reserved melon halves and add ice to fill. Garnish with mint sprigs and lime wheels and serve each with 2 straws.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Rich, versatile canned coconut milk plays a central role in many curries—but that's just the beginning of what this pantry superstar can do.,37 tequila drinks to make at home.,Light the torches. Lay on the leis. It's tiki time.,You'll lose your mind over these tequila recipes—for drinks and food!,Fragrant, ripe cantaloupe stars in these sweet and savory recipes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces Cocchi Americano,4 ounces Lini Lambrusco Rosato,1 ounce fresh grapefruit juice,1 ounce soda water,1 grapefruit wheel, for garnish,Build the ingredients in a rocks or wine glass over ice and add the garnish.,Text excerpted from SPRITZ © 2016 by Talia Baiocchi and Leslie Pariseau. Reproduced by permission of Ten Speed Press. All rights reserved.,Packed with fresh herbs and bright flavors, these Easter brunch recipes include our favorite egg dishes, sweet buns, and cheeky brunch cocktails.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toss out the OJ and Prosecco. You don't need them anymore.,It wouldn't be a proper party with a Champagne cocktail (or three).,Move over, oranges and lemons: these 23 recipes show that the grapefruit deserves its time in the citrus spotlight, too.,It's just not worth the risk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/4 ounces gin,3/4 ounce fresh lemon juice,1 1/2 teaspoons honey,8 ounces chilled Pilsner,Dash of Angostura bitters (optional),Lemon slice (for serving),Vigorously stir gin, lemon juice, and honey in a pint glass until honey is dissolved. Fill glass partway with ice. Top with beer and stir gently to combine. Top with bitters, if using, and garnish with a lemon slice.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Making delicious cocktails doesn't have to be fussy.,From pastries to vegetable glazes, here are all of the best ways to cook with our favorite sweetener.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the simple syrup:,1 cup Demerara sugar,1 cup water,For the cocktail:,2 ounces gin (such as Beefeater),1 ounce fresh lemon juice,⅔ ounce simple syrup,Small bunch basil leaves (about 10),Basil sprig, for garnish,Heat the sugar and water in a saucepan over medium heat. Do not boil. Stir until sugar dissolves, about 3 to 5 minutes, then remove the pan from the stove. Cool. Transfer the syrup to a clean bottle or jar. Cover and refrigerate.,Muddle basil leaves with lemon juice and simple syrup. Add ice and gin and shake. Double-strain into a chilled cocktail glass with ice. Garnish with a basil sprig.,Text excerpted from THE NEW COCKTAIL HOUR © 2016 by André Darlington and Tenaya Darlington. Reproduced by permission of Running Press. All rights reserved.,Celebrate the warmer weather with these refreshing spring drinks.,Grills on, ovens off—unless you're baking dessert.,Aromatic, bright, and bursting with flavor, basil isn't just a garnish—it makes the dish.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Toss out the OJ and Prosecco. You don't need them anymore.,Most cookbooks just feature a chapter on making cocktails. We philosophize on the five best cocktail books for spring and summer entertaining.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ½ oz. reposado tequila (El Tesoro preferred),½ oz. mezcal (Del Maguey San Luis del Rio preferred),1 bar spoon agave nectar,2 dashes Angostura bitters,Flamed orange twist, for garnish,Mix the tequila, mezcal, agave nectar, and bitters in a mixing glass with ice. Strain over a fresh rock in an Old Fashioned glass. Flame an orange peel over the top of the drink, and rest the twist in the glass as a garnish.,Excerpted fromMezcal© 2017 by Emma Janzen. Reprinted with permission of Voyageur Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make better cocktails at home by cracking open a bottle of mezcal.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,December 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces gin (preferably Plymouth),1 1/2 ounces Lillet Blanc,1/2 ounce Suze liqueur,Lemon twist (for serving),Combine gin, Lillet, and Suze in an old-fashioned glass filled with ice and stir until very cold, about 30 seconds. Garnish with a lemon twist.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces gin,1 ounce Carpano Antica Formula vermouth,3/4 ounce Campari,1 orange,Stir 1 1/2 ounces gin, 1 ounce Carpano Antica Formula vermouth, and 3/4 ounce Campari in an ice-filled mixing glass until very cold, about 30 seconds. Strain cocktail through a Hawthorne strainer or a slotted spoon into an ice-filled rocks glass.,Using a small serrated knife, remove a 1" strip of peel from an orange (some white pith is okay); it should be stiff enough to provide some resistance when bent. Twist over drink to express oils; discard. Garnish with 3 very thin orange slices.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the Mint Simple Syrup:,15 mint sprigs (1 bunch),1 cup raw sugar,For the cocktail:,3 large fresh mint leaves, plus 3 mint sprigs for garnish,2 cups crushed ice, divided,1 1/2 ounces 100-proof bourbon (such as Four Roses), divided,Special equipment:,12-ounce julep cup,Combine mint, sugar, and 1 cup water in a medium saucepan over medium-high heat. Bring to a boil, then reduce heat to low and simmer, stirring occasionally, 5 minutes. Let cool to room temperature. Using a fine-mesh sieve or a colander lined with cheesecloth, strain mixture into a heatproof container and chill at least 25 minutes.,Using your hands, lightly slap mint leaves, being careful not to bruise them, and place in a julep cup. Add 1/3 cup ice, then 2 tsp. Mint Simple Syrup. Pack another 1/3 cup ice on top. Add 1 oz. bourbon and stir. Add another 1/3 cup ice and remaining 1/2 oz. bourbon. Top with remaining 1 cup ice, tightly packing into a dome. Insert a straw into ice and garnish with mint sprigs.,The Mint Simple Syrup can be made up to 5 days in advance and stored in the refrigerator.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,We're not saying you should stop pounding a butterflied chicken breast, we're just saying there's so many more things your “meat” mallet can do.,Old Fashioneds are just the beginning.,Bring the taste of Kentucky home with these masterful cocktails.,The easy, breezy herb can enhance so many sweet and savory dishes.,Some people think this common herb doesn't differ enough from plain old peppermint to deserve its own name. Others disagree.,Start crushing your ice: We broke the code on the official cocktail of the Kentucky Derby.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the tomato juice:,4 pounds yellow or Sun Gold tomatoes, quartered, halved if small,1 tablespoon plus 1 teaspoon kosher salt,1 cup dill pickle juice,1/4 cup fresh lemon juice,1 tablespoon finely grated fresh horseradish or prepared horseradish,2 teaspoons Worcestershire sauce,1 teaspoon freshly ground black pepper,1/2 teaspoon Old Bay seasoning,3 dashes Tabasco sauce,For the cocktails:,8 ounces vodka,1 pint Sun Gold tomatoes,8 small celery stalks with leaves,Tabasco sauce (for serving),Purée yellow tomatoes and salt in a food processor, in batches if needed, until smooth. Transfer to a large pitcher, cover, and chill at least 1 hour or up to 4 hours.,Strain mixture through a food mill or medium-mesh sieve into a large bowl, pressing on solids to extract as much liquid as possible (you'll have about 5 cups juice); discard solids. Skim off and discard foam. Add pickle juice, lemon juice, horseradish, Worcestershire, pepper, Old Bay, and Tabasco; stir to combine. Chill until ready to serve.,Stir tomato juice just to combine. Fill each glass with ice and 1 oz. vodka, then top off with about 2/3 cup juice. Garnish each with Sun Gold tomatoes and 1 celery stalk and serve with Tabasco alongside.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Toss out the OJ and Prosecco. You don't need them anymore.,Overdid things a bit last night? Here are the best dishes you can throw together the morning after to get you through the pain and suffering.,The week's over—You've earned a weekend of simple deliciousness.,Taking advantage of tomato season, one cocktail/pizza/toast at a time.,The key: Ditch the bottled mix and make your own.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the vanilla syrup:,1 cup sugar,1 cup water,1 vanilla bean,For the cocktail:,1 ounce gin,1/2 ounce Cappelletti,3/4 ounce fresh blood orange juice,1/2 ounce fresh lemon juice,1/2  ounce vanilla syrup,2 ounces Prosecco,1 blood orange wheel, for garnish,Combine the sugar and water in a saucepan. Split open the vanilla bean with a small knife and scrape the contents into the pan; add the bean pod. Turn the heat on low and stir until the sugar is dissolved. Remove from the heat and let sit for at least 30 minutes. Strain, bottle, and store in the refrigerator for up to one month.,Add the gin, Cappelletti, orange juice, lemon juice, and vanilla syrup to a cocktail shaker. Add ice and shake until chilled. Strain over fresh ice, top with the Prosecco, and add the garnish.,Text excerpted from SPRITZ © 2016 by Talia Baiocchi and Leslie Pariseau. Reproduced by permission of Ten Speed Press. All rights reserved.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Feel that? That's a little warmth in the air—and it's the perfect reason to enjoy your meals alfresco.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toss out the OJ and Prosecco. You don't need them anymore.,It wouldn't be a proper party with a Champagne cocktail (or three).,Most cookbooks just feature a chapter on making cocktails. We philosophize on the five best cocktail books for spring and summer entertaining.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,15ml (3 teaspoons) Champagne or sparkling wine (this can be flat, left over from a party),15g (about 3 1/4 teaspoons) caster or superfine sugar,25ml (5 teaspoons) Cocchi Vermouth di Torino,15ml (3 teaspoons) Campari,35ml (about 2 tablespoons plus 1 teaspoon) soda water,2 scoops of orange sorbet, preferably blood orange,A slice of orange (use blood orange, if in season),Put the Champagne or sparkling wine in a small pan and simmer until reduced by a third. Add the caster sugar and stir until dissolved, then leave to cool. (It’s worth making a much larger quantity of this syrup and storing it in the fridge to make other drinks.),Pour the vermouth, Campari, Champagne syrup, and soda water into a small shaker and shake for 10-15 seconds. Scoop the sorbet into a chilled float glass. Pour the liquid ingredients on top and garnish with the slice of orange.,FromFortnum &amp; Mason: The Cookbook© 2017 by Tom Parker Bowles. Reprinted by permission of Fourth Estate, an imprint of HarperCollins Publishers.
+Buy the full book fromHarperCollinsor fromAmazon.,These stunning desserts feel even more festive than a bottle of Champagne.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Cool off—and get a little tipsy—with these refreshing summer favorites.,These cool and creamy desserts are the sweetest way to beat the heat.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,These desserts, weeknight dinners, and main-course party dishes showcase winter's sunniest, sweetest citrus fruit.,It wouldn't be a proper party with a Champagne cocktail (or three).,Lemons and grapefruits and oranges, oh my!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 quarts low-sodium tomato juice,1/2 cup fresh lemon juice,1/2 cup pickled okra brine,1/2 cup Spanish olive brine,1/3 cup plus 1 tablespoon prepared horseradish,1/3 cup soy sauce,2 tablespoons celery seeds,2 tablespoons Worcestershire sauce,1 tablespoon plus 1 teaspoon Tabasco Chipotle sauce,2 teaspoons freshly ground black pepper,1/2 teaspoon Zatarain's powdered crab boil,4 cups vodka (preferably Tito's),Pickled green beans, pickled okra, and celery stalks (for garnish),Whisk tomato juice, lemon juice, okra brine, olive brine, horseradish, soy sauce, celery seeds, Worcestershire sauce, Tabasco Chipotle sauce, pepper, and crab boil in a large bowl or pitcher. Chill at least 2 hours or up to overnight.,Add vodka to tomato juice mixture; stir well. Serve cocktail in glasses over ice and garnish with green beans, okra, and celery.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,Toss out the OJ and Prosecco. You don't need them anymore.,Including a wild idea for a savory waffle!,Serve cornmeal-bacon waffles with tons of kid-friendly toppings for a meal that'll please everyone.,This coconut-based condiment adds a rich, savory flavor to a range of dishes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 English hothouse cucumber,5 makrut lime leaves or four 2-inch strips lime zest,2 teaspoons raw sugar,4 lemon wheels, divided,4 ounces gin,1 ounce fresh lime juice,Club soda (for serving),Using a vegetable peeler, shave 4 long, thin ribbons from cucumber; set aside. Cut a 4" piece from remaining cucumber and coarsely chop. Muddle with makrut lime leaves, sugar, and 2 lemon slices in a cocktail shaker. Add gin and lime juice and fill shaker with ice. Cover and shake until outside of shaker is frosty, about 20 seconds.,Strain into 2 ice-filled Collins glasses. Top off each with club soda. Gently stir to combine; garnish each with 2 reserved cucumber ribbons and remaining lemon slices.Editor’s note: As a part ofour archive repair project, this recipe has been updated to remove an offensive term for makrut lime.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Nothing's cooler than a cucumber.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toss out the OJ and Prosecco. You don't need them anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 tablespoon kosher salt,Pinch of cayenne pepper,3/4 ounce fresh lime juice,2 dashes hot sauce (preferably Cholula),1 dash Worcestershire sauce,8 ounces chilled Mexican beer (such as Negra Modelo),Lime wedge (for serving),Mix salt and cayenne on a small plate. Moisten rim of a pint glass and press into chile salt to lightly coat.,Combine lime juice, hot sauce, and Worcestershire sauce in glass. Partly fill glass with ice and top with beer. Stir gently to mix. Garnish with lime wedge.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces Suze,1 ounce club soda,1 ounce fresh orange juice,3 ounces Champagne or dry sparkling wine,Orange wheel and sage sprig (for serving),Combine Suze, club soda, and orange juice in an ice-filled rocks glass. Stir gently to combine. Top with Champagne; garnish with an orange wheel and a sage sprig.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Essential at Thanksgiving, fragrant sage also plays well with cocktails, soups, pork braises, and more.,Toss out the OJ and Prosecco. You don't need them anymore.,It wouldn't be a proper party with a Champagne cocktail (or three).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ounce Plymouth gin,1⁄4 ounce Campari,1⁄2 ounce fresh lemon juice,1⁄2 ounce simple syrup (1:1 sugar:water),Champagne,Garnish: 1 grapefruit twist,Shake the gin, Campari, lemon juice, and simple syrup with ice, then strain into a chilled champagne flute. Top with champagne. Squeeze the grapefruit twist over the drink, then discard.,Reprinted with permission fromThe NegroniCopyright 2013, 2015 by Gary Regan. Photographs © 2015 by Kelly Puleio. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 cups frozen sliced peaches (about 14 ounces),2 cups ice,6 ounces whiskey,2 ounces honey,1 ounce fresh lemon juice,1 ounce fresh lime juice,1/8 teaspoon ground cardamom,Blend peaches, ice, whiskey, honey, lemon juice, lime juice, cardamom, and 1 oz. water in a blender until smooth. Divide among 4 glasses and serve.,These slushy frozen cocktails are all about fresh fruit and big flavors, not bottled mixes.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Discover game-day food to fuel your favorite fans.,It's summer's last cook-out, so make the most of it with bundles of bright, crunchy, sweet vegetables from the farmer's market. (Also: booze. Lots of booze.),Just peachy.,Who says farmers' market produce doesn't belong in a cocktail?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,August 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3/4 cup sugar,1/2 cup water,1 1/2 pounds ripe fruit (such as peaches, strawberries, plums, or pineapple) cut into medium pieces,3 tablespoons distilled white vinegar,1 1/2 ounces spirit of choice,1/2 ounce lemon juice,Bring 3/4 cup sugar and 1/2 cup water to a boil in a medium saucepan. Slice 1 1/2 pounds ripe fruit (such as peaches, strawberries, plums, or pineapple) into medium pieces. Reserve a few pieces for serving and add remaining to pan. Reduce heat; simmer 10 minutes. Remove from heat and let sit 30 minutes. Strain syrup into a bowl; stir in 3 tablespoons distilled white vinegar. Cover and chill shrub.,For each cocktail, shake 2 ounces shrub, 1 1/2 ounces spirit of choice, and 1/2 ounce lemon juice in an ice-filled cocktail shaker until frosty. Strain into an ice-filled Collins glass; top with some reserved fruit.,Cool off—and get a little tipsy—with these refreshing summer favorites.,When the late-summer fruit is in season, we're eating it every way we can.,It's summer's last cook-out, so make the most of it with bundles of bright, crunchy, sweet vegetables from the farmer's market. (Also: booze. Lots of booze.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ripe strawberries, divided,1 1/2 ounces aquavit (such as Krogstad),3/4 ounce fresh lemon juice,3/4 ounceSimple Syrup,1/4 ounce Campari,4 drops orange-blossom water,Muddle 1 strawberry in a cocktail shaker. Add aquavit, lemon juice, simple syrup, Campari, orange-blossom water, and 3 large ice cubes; cover and shake well.,Fill a double rocks glass with crushed ice until mound forms over rim, then strain cocktail into glass. Garnish with remaining strawberry.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Toss out the OJ and Prosecco. You don't need them anymore.,Want a cocktail without quite as much booze? Good news: You don't have to go light on flavor or personality.,Summer’s most thirst-quenching cocktails all have one thing in common.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,4 fresh sweet cherries, halved, pitted,1/4 of a lemon,1/4 of a lime,5–6 fresh mint leaves,1/2 ounce simple syrup,1 dash Angostura bitters,2 ounces dark rum,Mint sprigs (for garnish),Using a muddler or the handle of a wooden spoon, muddle cherries, lemon and lime wedges, mint leaves, simple syrup, and bitters in a mixing glass or cocktail shaker. Add rum and stir to combine.,Celebrate summer's ruby-red stone fruit with our best recipes for cherry pies, cakes, salads, relishes, and more.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Including cakes, cream pies, and drinks both boozy and refreshing.,Make dad drinks, not dad jokes.,This might shock you, but dads are into more than just steak and whiskey.,Toss out the OJ and Prosecco. You don't need them anymore.,They're everywhere now. So do something about it!,A mix of rich rum, fresh citrus, and our favorite seasonal fruit makes this cocktail a winner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,6 lemons, halved plus 1 lemon, sliced into 6 rounds,1/2 cup simple syrup (see Note),1 3/4 cups ice water,Six 12-ounce pilsners,Light a grill and set it up for direct heat or preheat a grill pan. Oil the grates and grill the halved lemons cut side down over high heat until nicely browned, 4 to 5 minutes. Meanwhile, grill the lemon slices, turning once, until nicely charred on both sides, 4 to 5 minutes. Transfer to a plate and let cool slightly. Squeeze the juice from the halved lemons into a liquid measuring cup until you have about 3/4 cup.,In a pitcher, combine the grilled lemon juice with the simple syrup and the ice water. Stir until the lemonade is well chilled.,Pour the beers into six large glasses and top each with about ½ cup of lemonade. Garnish with a grilled lemon slice and serve.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Start the season with some exciting new grilling ideas.,Pucker up—these recipes put lemon front and center.,Make dad drinks, not dad jokes.,Why should skirt steak get all the fun?,No road trip required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,July 2012 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 6-ounce container blackberries,1/2 cup sugar,2 cups gin,1 cup fresh lime juice,Club soda,8 sprigs Thai basil or sweet basil,Purée blackberries and sugar in a blender. Let stand, stirring occasionally, until sugar is dissolved, about 10 minutes. Strain purée through a fine-mesh sieve into a pitcher (there will be about 3/4 cup); discard seeds in sieve. Stir gin and lime juice into pitcher.,Divide drink among ice-filled glasses; top with soda. Garnish each with a basil sprig.,These luscious tarts, cobblers, and cocktails are worth any thorns you might encounter in the blackberry patch.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The reason for the season is berries. Boozy berries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 ounces red wine,1/2 ounce sherry (preferably Amontillado) or sweet vermouth,1/2 ounce orange curaçao (or triple sec if you like it sweeter),1/2 ounce fresh lemon juice,2 ounces soda water,Cucumber slices, for garnish,Orange slices, for garnish,Stir ingredients, except soda, with ice and strain into an ice-filled highball glass. Top with soda and garnish with cucumber and orange slices in the glass.,Text excerpted from THE NEW COCKTAIL HOUR © 2016 by André Darlington and Tenaya Darlington. Reproduced by permission of Running Press. All rights reserved.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Toss out the OJ and Prosecco. You don't need them anymore.,Sweet, salty, savory Sherry is a wonderful way to balance cocktails, but it can also be the star of the show in it's own right. These 12 drinks show off all of the fortified wine's many facets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,6 mint leaves, plus sprig for serving,3/4 ounce simple syrup,3 ounces Champagne or dry sparkling wine,1/2 ounce cognac,1 dash bitters (such as Angostura),Lemon twist (for serving),Muddle mint leaves and simple syrup in a julep cup or rocks glass. Add Champagne, cognac, and bitters. Fill glass partway with crushed ice and stir gently to combine. Mound more crushed ice on top and garnish with a mint sprig and a lemon twist.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,It wouldn't be a proper party with a Champagne cocktail (or three).,The easy, breezy herb can enhance so many sweet and savory dishes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 medium to large yellow or pink grapefruit, halved,2 limes, halved,Kosher salt or coarse sea salt, for the glass,Ice,4 ounces (1/2 cup) tequila,1 ounce agave nectar or simple syrup (see Note),2 ounces club soda,Light a grill and arrange it for direct heat or preheat a grill pan. Grill the grapefruit and the limes over high heat until well browned on the bottoms, 4 to 5 minutes. Let cool slightly.,Arrange some salt on a small plate. Moisten the rims of 2 high ball glasses and coat with salt.,For each cocktail: Fill a shaker with ice and add 2 ounces of squeezed grapefruit juice, 1 ounce of squeezed lime juice, 2 ounces tequila and ½ ounce agave nectar. Close the shaker and shake well. Fill one of the prepared glasses with ice and strain the drink into the glasses. Top with 1 ounce of club soda and serve. Fill the shaker with clean ice to make the second cocktail.,Cool off—and get a little tipsy—with these refreshing summer favorites.,From smoky, chile–laced enchiladas to creamy, coffee-spiked desserts, these are the Mexican (and Mexican-inspired) recipes we keep coming back to.,You'll lose your mind over these tequila recipes—for drinks and food!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces tequila made from 100 percent agave, preferably reposado orblanco,1 ounce Cointreau,1 ounce freshly squeezed lime juice,Salt for garnish,Combine tequila, Cointreau, and lime juice in cocktail shaker filled with ice. Moisten rim of stemmed glass or rocks glass with lime juice or water. Holding glass upside down, dip rim into salt. If serving in a rocks glass, fill with ice. Shake and strain drink into prepared glass.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Tequila is just the beginning.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.,Step one: put down the bottle of store-bought sour mix.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,August 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 cup sugar,1 oz. Aperol,1 oz. overproof rum,1 oz. pineapple juice,1/2 oz. fresh lime juice,1 pineapple leaf (optional, for garnish),Combine sugar and 1/4 cup water in a jar, cover, and shake until sugar is dissolved.,Combine Aperol, rum, pineapple juice, lime juice, and 1/4 oz. syrup in a cocktail shaker filled with ice. Cover and shake vigorously 30 seconds. Strain into a glass filled to the brim with crushed ice and garnish with a pineapple leaf, if desired.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Including cakes, cream pies, and drinks both boozy and refreshing.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/4 ounces Aperol,1 1/4 ounces vermouth (such as Dolin Blanc),3/4 ounce fresh lemon juice,2 dashes Angostura bitters,Bitter lemon soda (such as San Pellegrino Limonata or Fever-Tree Bitter Lemon),1/2 orange wheel,Combine Aperol, vermouth, lemon juice, and bitters in a cocktail shaker. Fill shaker with ice and shake until outside of shaker is frosty, about 30 seconds. Strain into an ice-filled Old-Fashioned glass. Top with lemon soda and garnish with orange wheel.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,All the dinners, desserts, and make-ahead foil pack meals you need for an unforgettable foray into the great outdoors.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toss out the OJ and Prosecco. You don't need them anymore.,Want a cocktail without quite as much booze? Good news: You don't have to go light on flavor or personality.,Summer’s most thirst-quenching cocktails all have one thing in common.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces gin,1 ounce Carpano Antica Formula vermouth,3/4 ounce Campari,1 orange,Stir 1 1/2 ounces gin, 1 ounce Carpano Antica Formula vermouth, and 3/4 ounce Campari in an ice-filled mixing glass until very cold, about 30 seconds. Strain cocktail through a Hawthorne strainer or a slotted spoon into an ice-filled rocks glass.,Using a small serrated knife, remove a 1" strip of peel from an orange (some white pith is okay); it should be stiff enough to provide some resistance when bent. Twist over drink to express oils; discard. Garnish with 3 very thin orange slices.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,August 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 lb. very ripe yellow tomatoes, cored, coarsely chopped,1 celery stalk, coarsely chopped, plus celery heart stalks with leaves for serving,6 Tbsp. fresh lemon juice,1/4 cup Castelvetrano olive brine, plus olives for serving,1/4 cup finely grated peeled horseradish,3 Tbsp. hot sauce (preferably Cholula),2 tsp. Worcestershire sauce,2 tsp. sugar,4 tsp. kosher salt, divided, plus more,1 lemon wedge,6 oz. gin,1 tsp. freshly ground black pepper,1 tsp. mild red pepper flakes,Sun Gold tomatoes (for serving),Blend yellow tomatoes and chopped celery in a blender until smooth, about 1 minute. Strain through a medium-mesh sieve into a large pitcher, pressing on solids to extract as much juice as possible. Whisk in lemon juice, olive brine, horseradish, hot sauce, Worcestershire sauce, sugar, and 3 tsp. salt. Taste and season with more salt if needed. Cover and chill at least 1 hour and up to 3 days.,Combine black pepper, red pepper flakes, and remaining 1 tsp. salt in a shallow bowl.,To make each cocktail, rub the rim of a 12-oz. glass with a lemon wedge, then dip into spicy salt. Fill glass with ice and pour in 1½ oz. gin. Top with 5 oz. Bloody Mary mix; garnish with cherry tomatoes, celery heart stalks, and olives.,Here's your plan for making the most of peak tomato season.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2010 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,10 green grapes, halved,4 fresh strawberries, hulled and sliced,1 peach, pitted and sliced,1 bottle (750 milliliters) Cava (or dry sparkling wine),1 1/2 cups white grape juice,1/2 cup Licor 43 (found at liquor stores),2 sprigs fresh mint,Fill a large glass pitcher halfway with ice; add fruit. Tilt pitcher and pour Cava very slowly down side (to preserve bubbles). Add juice and liquor; stir gently. Stir in mint.,Per serving: 167 calories,0.1 g fat,(0 g saturated),18.1 g carbohydrates,0.5 g fiber,0.3 g protein. Nutritional analysis provided by Self,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The reason for the season is berries. Boozy berries.,Making cocktails for a group can be a tall order, but only if you overcomplicate things. Do yourself a favor and skip the fancy, 10-ingredient cocktails. Instead, master a few punches and drinks that scale up to pitcher size easily.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 bar spoon (or 1 teaspoon) superfine sugar,1 3/4 ounces white rum,3/4 ounce fresh lime juice,1/2 ounce simple syrup,1 lime,Combine 1 bar spoon (or 1 teaspoon) superfine sugar, 1/2 ounce simple syrup, 3/4 ounce fresh lime juice, and 1 3/4 ounces white rum in a cocktail shaker; stir until sugar dissolves, about 20 seconds. Fill shaker with ice, cover, and shake vigorously until outside of shaker is very cold, about 20 seconds. Place a large ice cube in a coupe glass; strain cocktail through a Hawthorne strainer or a slotted spoon into glass.,Using a small serrated knife, remove a 1" strip of peel from a lime (some white pith is okay); it should be stiff enough to provide some resistance when bent. Twist over drink to express oils; discard. Garnish with a lime twist.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3/4 ounce Campari,3/4 ounce tequila blanco,3/4 ounce fresh lime juice,1/2 ounce agave nectar,8 ounces chilled American IPA,Lime wheel (for serving),Combine Campari, tequila, lime juice, and agave nectar in an ice-filled cocktail shaker. Cover and shake vigorously until the outside of the shaker is very cold, about 20 seconds. Strain into a pint glass and top with beer. Garnish with lime wheel.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Cool off—and get a little tipsy—with these refreshing summer favorites.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 tablespoons (1 ounce) fresh lime juice,2 heaping teaspoons superfine sugar,1 cup crushed ice,12 fresh mint leaves, plus 5 small sprigs for garnish,¼ cup (2 ounces) white rum,2 tablespoons (1 ounce) club soda,In 10-ounce glass (such as Collins or highball), stir together lime juice and sugar until sugar dissolves. Add ¼ cup crushed ice. Rub mint leaves over rim of glass, then tear leaves in half and add to glass. Gently stir for 15 seconds, then add rum, remaining crushed ice, and club soda. Gently stir for 5 seconds, then tuck mint sprigs into top of glass and insert tall straw.Click here for more of our best rum cocktail recipes→,Including cakes, cream pies, and drinks both boozy and refreshing.,Minty and punchy with limes, the mojito has it going on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3/4 ounce fresh lime juice,3/4 ounce crème de banana (preferably Giffard),8 ounces chilled lager,Lime wedge (for serving),Fill a pint glass partway with ice. Add lime juice, crème de banana, and beer. Stir gently to combine. Garnish with a lime wedge.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 1⁄4 ounces gin or vodka,3⁄4 ounce dry vermouth,Olives,Combine the liquid ingredients in a rocks glass filled with a few sizable pieces of ice. Stir briefly, about 5 seconds, to chill. Add an olive or two. Your work is done.,Excerpted fromThe Martini Cocktail: A Meditation on the World's Greatest Drink, with Recipes© 2019 by Robert Simonson. Photography by Lizzie Munro. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House. All rights reserved.
+Buy the full book fromAmazon.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes,Sweet, smoky, fiery, and fruity, jerk has a flavor that is as nuanced as its history.,A tale of lobster rolls, mango chow, and beastly-cold Carib beer.,Meet your new favorite easy summer drink.,We're living in a golden age of small-batch vermouth. So just pour it in your glass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 Tbsp. plus 1 ½ tsp. honey,1 1/2 cups mezcal,1/4 cup orange liqueur (preferably Pierre Ferrand Dry Curaçao),2 1/2 tsp. chocolate bitters, such asFee Brothers,8 orange twists,Mix honey and 2 Tbsp. boiling water in a quart-size jar. Stir to dissolve honey; let cool. Stir in mezcal, orange liqueur, bitters, and 1/2 cup plus 1 Tbsp. water. Seal and freeze at least 2 hours and up to 2 weeks.,To serve, turn jar gently to mix. Place ice in a rocks glass and pour in cocktail. Squeeze oils from orange twist over, rub peel around rim of glass, then garnish glass with peel.,The Love Industrial Complex is telling you to buy a dozen roses. We're telling you to buy mezcal instead.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,The best recipes for Thanksgiving turkey, stuffing, green beans, and more.,Make better cocktails at home by cracking open a bottle of mezcal.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,While you're prepping for Thanksgiving, make an extra pie and invite everyone over.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,¾ oz (22 ml) London Dry gin,1½ oz (45 ml) Cynar,1½ oz (45 ml) Fino sherry,Orange twist, to garnish,Combine all the ingredients in a chilled rocks glass. Add one large ice cube and stir for 10 seconds. Garnish with an orange twist.,Reprinted fromSpirited: Cocktails from Around the World, by Adrienne Stillman. © 2020 Phaidon Press
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,We’ve all been cooking comfort food.,It's time to start deploying the pumpkins.,This sherry and amaro drink is softer, richer, and just as easy to make.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the Cran-Rosemary Juice:,1 cupR.W. Knudsen Just Cranberry Juice(or other unsweetened 100% cranberry juice),2 Tbsp. sugar,2 rosemary sprigs,For the cocktail:,2½ oz. dry sparkling wine,1½ oz. Campari,1 oz. Cran-Rosemary Juice,Garnish: Rosemary sprig, torched if desired,To make Cran-Rosemary Juice, combine unsweetened cranberry juice, 2 Tbsp. water, and sugar in a small saucepan. Bring to a simmer over medium high heat, stirring to dissolve sugar, then immediately remove from heat. Add 2 rosemary sprigs and let steep 4 minutes. Strain into a liquid measuring cup or 12-ounce resealable jar. Let cool to room temperature and use immediately, or seal and refrigerate up to 2 weeks.,To make the cocktail, add sparkling wine to a Collins glass, being careful to let fizz settle to get an accurate measurement. Add Campari and Cran-Rosemary Juice, then fill with ice. If you’d like to torch the rosemary sprig, hold it next to the burner of a gas stove or near a match for a few seconds, just to warm a bit. Give the cocktail a very brief, gentle stir, then garnish with rosemary.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,It's time to pop some bottles.,Cranberry sauce is a classic Thanksgiving side dish, but there's more than one way to spotlight those tart little orbs (or cans if that's the way you go) and these recipes for fresh, frozen, and canned cranberries prove it.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,If, for you, the best part of Thanksgiving is the tang of cranberry sauce, this super-easy, super-tart Campari-laced drink is for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. Grand Marnier,1 oz. Amaro Averna,Small pat salted butter (about ½ teaspoon),1 cup hot apple cider,1½ to 3 tsp. fresh lemon juice (to taste, depending on the sweetness of your cider),Garnish: freshly ground pink peppercorns, plus 2 lemon wheels (optional),Add3 oz. Grand Marnier,1 oz. Amaro Averna, and asmall pat of salted butterto a 16-ounce travel mug or large heatproof measuring cup. Add1 cup hot apple ciderand stir until butter melts.,Add1½ tsp. fresh lemon juiceand taste for sweetness, adding additional if needed. If serving in travel mug, garnish withground pink peppercornsand seal. If serving in mugs, divide drink between two warmed mugs and garnish each with apink peppercorn-dusted lemon wheel.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,We’re also thinking it might be a good idea to eat a vegetable.,2020 is the year to move beyond the basic hot toddy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 cup rye whiskey,¾ cup Campari,¾ cup sweet vermouth, such as Carpano Antica,½ cup scotch,8 orange twists,Combine rye, Campari, vermouth, scotch, and ½ cup plus 1 Tbsp. water in a quart-size jar. Seal and freeze at least 2 hours and up to 2 weeks.,To serve, gently turn jar to mix. Place ice in a rocks glass and pour in cocktail. Squeeze oils from orange twist over, rub peel around rim of glass, then garnish glass with peel.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,No matter your skill level or available time, these simple recipes will help you pull off the meal of the year.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Make dad drinks, not dad jokes.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,There are an infinite number of drinks you can shake or stir with ice. Why can’t the same be true of hot cocktails?,Because an autumnal palette of yellow, orange, and red makes us feel cozy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For a crowd:,12 ounces [360 ml] amaro, chilled,12 ounces [360 ml] sweet vermouth, chilled,6 to 8 dashes Angostura bitters,4 lemon peels,Sparkling water, chilled, for topping,For a party of 1:,2 ounces [60 ml] amaro, chilled,2 ounces [60 ml] sweet vermouth, chilled,2 dashes Angostura bitters,Sparkling water, for topping,Lemon peel,In a punch bowl or pitcher, combine the amaro, sweet vermouth, and bitters. Working one by one, hold the lemon peels by their long edges with the peel facing down into the bowl. Pinch the peel to express the citrus oils and drop the peel into the bowl. Serve in ice-filled punch or lowball glasses and top each drink with sparkling water just before serving.,In an ice-filled punch or lowball glass, combine the amaro, sweet vermouth, and bitters. Top with sparkling water. Hold the lemon peel by its long edges with the peel facing down into the glass. Pinch the peel to express the citrus oils, drop the peel into the glass, and serve.,Excerpted with permission fromÀ Table: Recipes for Cooking and Eating the French Way© 2021 by Rebekah Peppler. Reprinted with permission by Chronicle Books.
+Buy the full book fromChronicle Books,Amazon, orBookshop.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,When you want to gather on a weeknight, you could absolutely order in. Or, you could make a fancy-ish dinner that’s even easier than figuring out what kind of pizza everyone is into.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the ginger-honey syrup:,½ cup roughly chopped peeled ginger (70 g / 2½ oz.),½ cup honey,For the cocktail:,1½ oz. blended Scotch,¾ oz. fresh lemon juice,¾ oz. Ginger-Honey Syrup,2 oz. chilled sparkling wine,To serve:,½ tsp. smoky Scotch, such as Laphroaig,Lemon twist and candied ginger on a pick,Combine ginger and ½ cup water in a blender and blend until smooth, about 1 minute. Strain through a fine-mesh strainer into a liquid measuring cup, pressing on solids to extract juice. Pour ½ cup of the ginger juice into a large resealable jar and stir in honey. (If you’d like to tone down the ginger a bit, add additional ¼ cup honey and ¼ cup water.) Seal jar tightly and shake until honey is completely dissolved (or rinse out blender and blend ginger juice and honey together to mix.) Makes enough for 10 cocktails. Syrup will keep 2 weeks in the refrigerator; shake well before using.,Combine blended Scotch, lemon juice, and Ginger-Honey Syrup in a cocktail shaker. Fill with ice and shake until well chilled. Add sparkling wine to a flute glass, then strain cocktail into glass. Gently float smoky Scotch on top of drink. Garnish with lemon twist and candied ginger.,It's time to pop some bottles.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Pucker up—these recipes put lemon front and center.,The spicy, honey-sweetened Penicillin gets the Royale treatment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the Fig-Infused Honey Syrup,2 Tbsp. honey,4 dried figs, halved,For the Cocktail,1 oz. bourbon,¾ oz. dry riesling,½ oz. St-Germain Elderflower liqueur,½ oz. apple cider,½ oz. fresh lemon juice,¼ oz. Fig-Infused Honey Syrup,Garnish: Apple slice or dehydrated apple slice,To make the fig-infused honey syrup, warm honey, dried figs, and ½ cup water in a small saucepan over medium-low heat, stirring to completely dissolve honey. Keep warm 10 minutes, lowering heat if needed to avoid coming to a simmer. Do not let boil. Remove from heat, let cool, covered, 10 minutes. Pour fig mixture into a blender and blend until smooth, about 1 minute. Strain through a fine-mesh strainer into a resealable jar. Makes enough syrup for about 10 drinks; store refrigerated for up to 2 weeks.,To make the cocktail, add bourbon, riesling, St-Germain, apple cider, lemon juice, and fig-infused honey syrup to a cocktail shaker and fill with ice. Shake until well chilled, about 15 seconds. Strain into a stemmed cocktail glass, coupe, or small wine glass. Garnish with apple slice (or dehydrated apple slice) and serve up.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,The best recipes for Thanksgiving turkey, stuffing, green beans, and more.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Riesling meets apple cider and bourbon in a sophisticated cocktail that goes well with turkey, stuffing, and more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. bourbon,¾ oz. fresh grapefruit juice,½ oz. honey syrup (1:1, see headnote),Garnish: Grapefruit twist,Combine bourbon, grapefruit juice, and honey syrup in a cocktail shaker and fill with ice. Shake until well chilled, about 20 seconds. Strain into a chilled stemmed cocktail glass. Pinch grapefruit twist over top of glass to express oils and add twist to drink.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Turmeric Syrup,¼ cup granulated sugar,¾ tsp. ground turmeric,Hot Toddy,1 ½ oz. Amontillado sherry,1 oz. bourbon, aged rum, Scotch, mezcal, or gin,1 oz. Turmeric Syrup,½ oz. fresh lemon juice,Garnish: Dehydrated lemon wheel (optional),For the turmeric syrup, combine½ cup hot water and ¼ cup sugarin a liquid measuring cup or mason jar. Add¾ tsp. ground turmericand stir—or seal and shake—until sugar is completely dissolved. (This makes enough syrup for 4 drinks. Syrup can be used immediately or refrigerated, covered, up to 10 days. Shake or stir before using to reincorporate turmeric.),For the toddy, combine1 ½ oz. Amontillado sherry,1 oz. bourbon (or other spirit of choice),1 oz. Turmeric Syrup, and½ oz. fresh lemon juicein a sturdy pint glass or 16-ounce thermos. Top with8 oz. hot waterand stir gently. Garnish withdehydrated lemon wheelif desired.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Unwind and recharge with a warming turmeric cocktail, a cream cheese–studded cake, or a silky lamb stew.,2020 is the year to move beyond the basic hot toddy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces chinotto soda, such asSan PellegrinoorLurisia,1½ ouncesred verjus,1 ounce soda water,1 orange twist, for garnish,1 green pitted olive, for garnish,Fill a spritz or wine glass with 2 or 3 ice cubes. Add the chinotto, red verjus, and soda water and stir gently. Garnish with the orange twist and olive.,Fill a pitcher with ice. Add 1½ cups chinotto, 1 cup plus 2 tablespoons verjus, and 3⁄4 cup soda water. Gently stir, then divide among 6 wine glasses. Garnish each with an orange slice and an olive.,Excerpted fromGood Drinks: Alcohol-Free Recipes for When You're Not Drinking for Whatever Reasonby Julia Bainbridge, copyright © 2020. Published by Ten Speed Press, an imprint of Penguin Random House. Photography copyright: Alex Lau © 2020.
+Buy the full book fromAmazonorBookshop.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Taking a break from booze? You can still make great drinks.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Two booze-free recipes—and more suggestions—from the author of *Good Drinks: Alcohol-Free Recipes for When You’re Not Drinking for Whatever Reason.*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ½ ounces London dry gin,3⁄4 ounce Punt e Mes,3⁄4 ounce Aperol,Garnish: 1 generous lemon twist,Stir all the ingredients with cracked ice in a mixing glass, then strain into a chilled cocktail glass. Garnish with the lemon twist.,Reprinted with permission fromThe NegroniCopyright 2013, 2015 by Gary Regan. Photographs © 2015 by Kelly Puleio. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,It seems like the sky is a little brighter this week. So enjoy this fresh new weekend with some fun kitchen projects—and delicious meals.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ½ ounces Jägermeister,1 ounce apple brandy,2 dashes apple bitters,Garnish orange twist,Combine the Jägermeister, brandy, and bitters in an ice-filled rocks glass and stir gently. Garnish with an orange twist.,Reprinted with permission fromWinter Drinksby Editors of PUNCH, copyright © 2018. Photography by Lizzie Munro © 2018 Published by Ten Speed Press, animprint of Penguin Random House.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These dishes prove that saying farewell to summer isn't all that bad.,Discover sweet and savory apple recipes that will have you coming back for more.,Making delicious cocktails doesn't have to be fussy.,This cocktail will convince you you need more of the German amaro in your life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 cups pomegranate juice,5 (3") cinnamon sticks,½ teaspoon whole allspice,1 (4") piece peeled fresh ginger, thinly sliced (about ¾ cup), divided,1 (750-ml) bottle red wine,1 Bartlett pear, quartered lengthwise, thinly sliced crosswise,½ cup pomegranate seeds,½ cup spiced rum,1 (750-ml) bottle pear or apple sparkling cider,Bring pomegranate juice, cinnamon, allspice, and one-third of ginger to a simmer in a small saucepan over medium-low heat. Cook 10 minutes, then remove from heat and let steep 10 minutes.,Strain pomegranate mixture through a fine-mesh sieve into a pitcher, reserving cinnamon sticks. Add wine, pear, pomegranate seeds, rum, cinnamon sticks, and remaining ginger and stir to combine. Cover and chill at least 4 hours.,To serve, fill pitcher or punch bowl with ice and pour sangria over. Top with cider.DO AHEAD:Sangria, without ice or cider, can be made 1 day ahead. Cover and chill.,No matter your skill level or available time, these simple recipes will help you pull off the meal of the year.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These little gems can be used for so much more than just juice.,Fall is the time to roast them, poach them, and bake them into a cake.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.,Here, our best cakes, pies, stews, cocktails and more show the many facets of cinnamon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 scant teaspoon simple syrup,2 dashes Angostura Bitters, plus more to taste,1 half dollar–sized slice orange peel, including pith,2 ounces good-quality rye or bourbon,1 maraschino cherry,In old-fashioned glass, combine simple syrup and bitters. Fill glass halfway with ice, then stir about a dozen times. Add enough ice to fill glass. Squeeze orange peel over glass to extract oils, add peel to glass, and add whiskey. Stir just until drink is cold and alcoholic bite has softened, about a dozen times. Garnish with cherry, swizzle stick, and straw.,Can you guess the most popular recipe on Epicurious?,Peek behind the curtain at the dishes that Epicurious readers cooked this year.,We’ll be bookmarking these recipes for next year—but also cooking a few in the weeks to come.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Turns out we were all craving chocolate…,Yes, there was banana bread.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 (750 ml) bottle light rum,2 tablespoons Sichuan peppercorns,25 ounces pomegranate juice,8 1/2 ounces fresh lemon juice,8 1/2 ounces 1:1 simple syrup (see note),4 ounces water,GARNISH: ice block, about 20 lemon wheels, 1/4 cup pomegranate seeds, and 1 tablespoon each black and pink peppercorns (optional),At least 24 hours before you plan to serve the punch, fill a Tupperware or cake pan with water and freeze to make an ice block that will fit in your serving vessel, or make several trays of large ice cubes.,Meanwhile, make the infused rum: Carefully spoon Sichuan peppercorns directly into the bottle of rum, using a funnel if desired. Reseal the bottle and let sit at room temperature for 24 hours, jostling occasionally to move the peppercorns around. Strain the infused rum through a fine-mesh strainer and discard peppercorns. If not serving immediately, return the infused rum to the bottle using a funnel and store in a cool, dark place for up to 3 months.,When ready to serve, combine entire bottle of infused rum with the measured pomegranate juice, lemon juice, simple syrup, and water in a large punch bowl. Stir well to mix and carefully add the ice block. Garnish punch bowl with lemon wheels, pomegranate seeds, and peppercorns if using. Ladle into ice-filled punch glasses and garnish each glass with a lemon wheel.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These little gems can be used for so much more than just juice.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 teaspoon dark brown sugar,1 teaspoon hot water,1 ½ oz. bourbon,½ oz. fresh lemon juice,2 teaspoons apple butter (storeboughtorhomemade),Garnish: orange twist and freshly grated or ground cinnamon,Stir together brown sugar and hot water in a cocktail shaker to dissolve. Let cool, then add bourbon, lemon juice, and apple butter and fill with ice. Shake until well chilled, about 15 seconds. Strain into an ice-filled rocks glass. Garnish with orange twist and cinnamon.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,½ teaspoon loose-leafLapsang Souchongtea,3 ounces just-boiled water,3 ounces tart cherry juice,1 lemon twist, for garnish,In a small heatproof bowl, combine the tea and the water, then cover and let sit for 5 minutes. Stir in the cherry juice, then immediately fine-strain into a snifter. Squeeze the lemon twist over the drink to express its oils, then discard. Serve warm.,In a medium heatproof bowl, combine 1 tablespoon tea and 2 ¼ cups water, then cover and let sit for 5 minutes. Stir in 2¼ cups cherry juice and immediately fine-strain into 6 snifters (or, honestly, whatever glasses you have). Squeeze lemon twists over each drink (2 will do you), then discard. Serve warm.,Excerpted fromGood Drinks: Alcohol-Free Recipes for When You're Not Drinking for Whatever Reasonby Julia Bainbridge, copyright © 2020. Published by Ten Speed Press, an imprint of Penguin Random House. Photography copyright: Alex Lau © 2020.
+Buy the full book fromAmazonorBookshop.,Cozy pastas, meatless tacos, crunchy sandwiches, and a refreshing citrus salad.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Celebrate summer's ruby-red stone fruit with our best recipes for cherry pies, cakes, salads, relishes, and more.,Taking a break from booze? You can still make great drinks.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Two booze-free recipes—and more suggestions—from the author of *Good Drinks: Alcohol-Free Recipes for When You’re Not Drinking for Whatever Reason.*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces mezcal,1 1/2 ounces pomegranate juice (fresh preferred),3/4 ounce lemon juice,3/4 ounce 1:1 simple syrup (recipe follows),1/2 to 1 teaspoon harissa paste (such as Dea), depending on how spicy you want it,3/4 teaspoon rose water,Splash aquafaba or egg white,Pinch each pomegranate seeds, cracked pink peppercorns, and flaky salt (black, smoked, or Maldon), to garnish,Combine mezcal, pomegranate juice, lemon juice, simple syrup, harissa, rose water, and aquafaba in a cocktail shaker and shake vigorously without ice for 20 seconds to emulsify. Add ice, reseal shaker, and shake until chilled and foamy, about 30 seconds. Strain into an ice-filled rocks glass. Garnish with a sprinkle of pomegranate seeds, cracked pink peppercorns, and flaky salt.,For 1:1 simple syrup, add equal parts sugar and hot water in a resealable mason jar. Seal and shake vigorously, until sugar is dissolved. Let cool before using and store for up to several weeks in the fridge.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Here's exactly what to do with egg whites.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These little gems can be used for so much more than just juice.,Make better cocktails at home by cracking open a bottle of mezcal.,Kick back while your oven does most of the work.,We promise you'll never go back to the bottled stuff.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces gin,¾ ounce lemon juice,1 bar spoon raspberry preserves,Combine all the ingredients in a cocktail shaker filled with ice and shake until chilled, about 15 seconds. Strain into a chilled coupe.,Excerpted from3-Ingredient Cocktails: An Opinionated Guide to the Most Enduring Drinks in the Cocktail Canon© 2017 by Robert Simonson. Photography © 2017 by Colin Price. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House LLC. All rights reserved.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ounce Plymouth gin,1⁄4 ounce Campari,1⁄2 ounce fresh lemon juice,1⁄2 ounce simple syrup (1:1 sugar:water),Champagne,Garnish: 1 grapefruit twist,Shake the gin, Campari, lemon juice, and simple syrup with ice, then strain into a chilled champagne flute. Top with champagne. Squeeze the grapefruit twist over the drink, then discard.,Reprinted with permission fromThe NegroniCopyright 2013, 2015 by Gary Regan. Photographs © 2015 by Kelly Puleio. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ ounces Zucca Rabarbaro Amaro,½ ounce gin,1½ ounces freshly squeezed grapefruit juice,½ ounce freshly squeezed lemon juice,½ ounce simple syrup,Soda water,Garnish: grapefruit twist,Combine all the ingredients except the soda water and the garnish in a cocktail shaker filled with ice. Shake until chilled and strain into a highball glass filled with ice. Top off with soda water. Garnish with the grapefruit twist.,Excerpted fromAmaro: The Spirited World of Bittersweet, Herbal Liqueurs with Cocktails, Recipes, and Formulasby Brad Thomas Parsons, copyright © 2016. Photography © 2016 Ed Anderson. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House LLC. All rights reserved.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 large sprig rosemary,¾ ounce simple syrup or winter herb syrup,2 ounces blackstrap rum,1 ounce freshly squeezed lime juice,Soda water, to top,Garnish lime wheel and rosemary sprig,Simple syrup:,1 cup cane sugar,1 cup water,Winter herb syrup:,2 large sprigs rosemary,2 bunches thyme,5 sage leaves,1 cup sugar,1 cup water,Combine the sugar and water in a saucepan over low heat. Stir until the sugar dissolves, about 5 minutes. Remove from the heat and let the mixture cool. Store in a glass jar in the fridge for up to 1 month. Makes 1 1/2 cups.,Wash the herbs and set them aside to dry. Combine the sugar and water in a saucepan over low heat. Add the herbs and stir until the sugar dissolves, about 3 minutes. Remove the pan from the heat and let the mixture cool and macerate for 1 hour. Strain through a cheesecloth into a glass jar and store in the fridge for up to 1 month. Makes 1 1/2 cups.,Remove the stem from the sprig of the rosemary and combine with the simple syrup in a cocktail shaker. Use a muddler to lightly crush the rosemary and let sit for a few minutes. Add the rum and lime juice. Add ice, shake, and pour through a fine-mesh strainer into a collins glass over ice. Top with soda and garnish with a lime wheel and a sprig of rosemary.,Reprinted with permission fromWinter Drinksby Editors of PUNCH, copyright © 2018. Photography by Lizzie Munro © 2018 Published by Ten Speed Press, animprint of Penguin Random House.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Including cakes, cream pies, and drinks both boozy and refreshing.,Minty and punchy with limes, the mojito has it going on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ oz. (45ml) gin,1½ oz. (45ml) sweet vermouth,2 dashes Fernet-Branca,Strip of orange peel, to serve,Stir gin, sweet vermouth, and Fernet-Branca with ice until chilled. Strain into a chilled cocktail glass. Twist a swathe of orange peel over the surface of the drink and add to glass as garnish.,Reprinted with permission fromGin: The Manualby Dave Broom, copyright © 2015. Published by Mitchell Beazley.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 lemon,3 tablespoons (1 ½ ounces) gin,1 ½ tablespoons (3/4 ounce) fresh lemon juice,1 tablespoon (½ ounce)simple syrup,1 cup ice cubes,¼ cup (2 ounces) dry sparkling wine, such as brut Champagne, chilled,Using zester or paring knife, slice peel from lemon in long, thin spiral. Reserve lemon for another use and set peel aside.,In cocktail shaker, combine gin, lemon juice, and simple syrup. Add ice and shake vigorously for 20 seconds. Strain into chilled Champagne flute and top with sparkling wine.,Curl lemon peel around finger to create twist at least 6 inches long. Garnish drink with twist and serve immediately.,Can you guess the most popular recipe on Epicurious?,Peek behind the curtain at the dishes that Epicurious readers cooked this year.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ oz. blackstrap rum,1 ½ oz. freshly squeezed pineapple juice,¾ oz. Campari,½ oz. freshly squeezed lime juice,½ oz. simple syrup (1:1),Garnish: pineapple chunk and/or pineapple leaf,Combine all the ingredients except the garnish in a cocktail shaker filled with ice. Shake until chilled and strain into a double old-fashioned glass over a large ice cube. Garnish with the pineapple chunk or leaf (or both).,Excerpted fromAmaro: The Spirited World of Bittersweet, Herbal Liqueurs with Cocktails, Recipes, and Formulasby Brad Thomas Parsons, copyright © 2016. Photography © 2016 Ed Anderson. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House LLC. All rights reserved.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Yes, you can add it to fruit salad. But there’s more to pineapple than that.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Including cakes, cream pies, and drinks both boozy and refreshing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,March 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces bourbon,1 ounce Campari,1 ounce sweet vermouth (preferably Antica Formula),A lemon twist,Combine 2 ounces bourbon, 1 ounce Campari, and 1 ounce sweet vermouth (preferably Antica Formula) in a large mixing glass filled with ice. Stir until glass is very cold, about 1 minute. Strain into a chilled cocktail glass or coupe or a rocks glass filled with fresh ice. Garnish with a lemon twist.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Making delicious cocktails doesn't have to be fussy.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Old Fashioneds are just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Cranberry-Thyme Syrup:,6 sprigs thyme,1 cup fresh or frozen cranberries,1/4 cup sugar,Assembly:,2 ounces fresh lemon juice,1 ounce Campari,12 ounces Champagne or dry sparkling wine,Fresh cranberries (for serving),Cook thyme, cranberries, sugar, and 1/4 cup water in a small saucepan over low, swirling pan occasionally, just until sugar is dissolved and cranberries have released their color, 12–15 minutes (do not reduce liquid). Strain through a fine-mesh sieve into a heatproof bowl or measuring cup and let cool (you should have 4 oz.).,For each cocktail, combine 1 oz. cranberry-thyme syrup, 1/2 oz. lemon juice, and 1/4 oz. Campari in an ice-filled cocktail shaker. Cover and shake vigorously until the outside of shaker is very cold, about 20 seconds. Strain into a chilled coupe glass and top with 3 oz. Champagne; garnish with 3 cranberries on a skewer.,Syrup can be made 2 weeks ahead. Cover and chill.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,It's time to pop some bottles.,Cranberry sauce is a classic Thanksgiving side dish, but there's more than one way to spotlight those tart little orbs (or cans if that's the way you go) and these recipes for fresh, frozen, and canned cranberries prove it.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,All the cranberry recipes you need to get through the holiday season—and beyond.,It's time to start buying all the apples and squash you can.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,6 ounces chilled hard apple cider, preferably semi-dry,2 ounces cognac,1 (3 x 1/2-inch) strip orange zest,Special equipment:,matches,Pour apple cider and cognac into a Collins glass filled with ice.,Light a match, let it burn 2 seconds to get rid of excess sulfur, and hold it 3" over cocktail and 1" away from peel; the outside of the peel should face down, over the drink. Squeeze peel to release oils into drink.,Rub flamed peel around rim of glass, then place peel in glass.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,First, pick your costume. Then pick your poison.,2015 was the year of drinking and drinking, but never (okay, rarely) having too much.,Buy them now, and you'll avoid the last-minute scramble.,What cocktail should I serve?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,March 2019 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ cups chilled fino or manzanilla sherry,1½ cups Campari,To serve:,1 (750 ml) bottle chilled dry sparkling wine,18 orange wheels,Up to 24 hours before serving, make the batch. Pour sherry and Campari into a 2½- or 3-quart pitcher and stir to mix. Seal well, covering with plastic wrap if needed, and refrigerate if not serving immediately.,To serve, stir 1 cup ice and 6 orange wheels into pitcher mix, then carefully add chilled sparkling wine and stir again gently to mix. Pour into ice-filled wine glasses or rocks glasses and garnish each glass with an orange wheel.,FromBatch Cocktails: Make-Ahead Pitcher Drinks for Every Occasion© 2019 by Maggie Hoffman. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,It's time to pop some bottles.,No matter your skill level or available time, these simple recipes will help you pull off the meal of the year.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 thin slice peeled ginger,2 oz. Lillet,3 oz. cava,Splash of ginger beer,Place ginger slice against the inside of a rocks glass, fill with ice, and add Lillet and cava. Top off with ginger beer and stir gently to combine.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Making delicious cocktails doesn't have to be fussy.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,A weekend that starts with cheese, ends with cheese.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 fennel bulb with fronds,1/4 cup packed arugula leaves,3/4 ounce fresh lime juice,3/4 ounce 1:1 simple syrup (see note),2 ounces gin,GARNISH: lime wheel, arugula leaf, or peppery flower (such as nasturtium; optional),Using a mandoline or vegetable peeler, thinly slice enough of the fennel bulb to yield 1/4 cup (about 1/2 small bulb). Add a pinch of the fennel fronds to a cocktail shaker along with sliced fennel and arugula leaves. Add lime juice and simple syrup and muddle until the fennel is bruised. Add gin and fill with ice. Shake vigorously until chilled, about 12 seconds. Double-strain into a chilled coupe glass and garnish with lime wheel, arugula leaf, or nasturtium if desired.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Spring is in the air...and in this weekend-welcoming cocktail.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Make-ahead dishes for Thanksgiving and a few easy, satisfying meals for the days leading up to it.,When you combine them with a bottle of booze, of course.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces rye whiskey or bourbon,1 teaspoon pure maple syrup,Dash of Angostura bitters,Orange peel (for garnish),Mix whiskey, maple syrup, bitters, and 1 tsp. water in an old-fashioned glass until syrup is dissolved. Add a single large ice cube, then garnish with orange peel.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Making delicious cocktails doesn't have to be fussy.,We're whipping out the sheet-pans and skillets—and using up our summer produce.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 (750 ml) bottle juicy light red wine, such as Beaujolais,4 ounces brandy,2 cups fresh apple cider,2 star anise pods,6 whole cloves,2 cinnamon sticks; plus 6 more for serving (optional),Bring wine, brandy, apple cider, star anise, cloves, and 2 cinnamon sticks to a boil in a medium saucepan. Reduce heat to low and simmer until flavors are infused, about 15 minutes.,Divide among mugs, garnish with 6 cinnamon sticks, if using, and serve.,Mulled wine can be made 2 hours ahead; cover and store at room temperature, or chill up to 3 days. Rewarm over medium-low heat before serving.,No matter your skill level or available time, these simple recipes will help you pull off the meal of the year.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Start your weekend with a cheesy mushroom strata, end it with an incredibly moist apple cake.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.,Here, our best cakes, pies, stews, cocktails and more show the many facets of cinnamon.,When you're feeling the chill, warm up with one of these.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces red wine,¾ ounce ginger syrup (see note),½ ounce lime juice,Soda water,Candied ginger, to garnish,Special equipment:Collins glass,Combine the wine, ginger syrup, and lime juice in a cocktail shaker. Add a small piece of cracked ice and shake until chilled. Strain into a collins glass filled with ice, top with soda water, and garnish with the candied ginger.,To make the ginger syrup:Combine 2 cups sugar and 1 cup fresh ginger juice in a small pot over very low heat. Cook, stirring constantly, until the sugar is dissolved. Remove from the heat and let cool completely. Transfer to a plastic or glass container and store in the refrigerator for up to 1 month.,FromSession Cocktails: Low-Alcohol Drinks for Any Occasion© 2018 by Drew Lazor and the editors of PUNCH. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazonorBookshop.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the ice ring:,1 lemon, thinly sliced,3–4 sprigs sage,For the punch:,8 strips lemon zest (from 1 lemon),1/2 large bunch of sage,1/2 cup sugar,1 1/4 cups fresh lemon juice,2 cups gin,2 cups ginger liqueur, such as Canton,6 cups unflavored sparkling water,2 bottles chilled sparkling wine,Special Equipment,A Bundt or tube pan; a large (about 6-quart) punch bowl or mixing bowl,Make the ice ring: Arrange lemon slices and sage in bottom of Bundt pan and fill with cold water, leaving about 1" of space at the top. Freeze until set, at least 6 hours and up to overnight.,Make the punch: Muddle lemon zest, sage, and sugar in a measuring cup with a pour spout until sugar starts to turn green. Add 2 cups warm water and stir until sugar is dissolved, then let sit 10 minutes to infuse.,Stir in lemon juice, then strain through a fine-mesh sieve into a large punch bowl. Stir in gin and ginger liqueur.,Just before serving, dip bottom of Bundt pan into a bowl of hot water. Place a plate over mold, invert ice ring onto plate, then transfer to punch bowl. Pour in sparkling water and wine and stir gently.,Punch, without sparkling water and wine, can be made 2 days ahead; transfer to an airtight container and chill.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Essential at Thanksgiving, fragrant sage also plays well with cocktails, soups, pork braises, and more.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.,I like cooking with wine. Sometimes I even put it in the food.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces Amaro Nonino,1 1/2 ounces Aperol,1 1/2 ounces bourbon,1 1/2 ounces fresh lemon juice, strained,Combine amaro, Aperol, bourbon, and lemon juice in a cocktail shaker. Fill with ice and shake vigorously until outside of shaker is frosty, about 20 seconds. Strain into 2 coupe glasses.,Celebrate the warmer weather with these refreshing spring drinks.,Peek behind the curtain at the dishes that Epicurious readers cooked this year.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Making delicious cocktails doesn't have to be fussy.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 1/4 cups chilled Punt e Mes,1 cup plus 2 tablespoons dry vermouth (such as Dolin),6 tablespoons maraschino liqueur,3 tablespoons pamplemousse (grapefruit) liqueur (such as Combier or Giffard),4 teaspoons Peychaud’s bitters,TO SERVE: Flaky sea salt,To serve, turn bottle gently end over end to mix. Place a large ice cube in each rocks glass, then pour in cocktail. Give each drink one gentle stir before serving. Garnish with a small pinch of salt.,FromBatch Cocktails: Make-Ahead Pitcher Drinks for Every Occasion© 2019 by Maggie Hoffman. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.,Make dad drinks, not dad jokes.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.,I like cooking with wine. Sometimes I even put it in the food.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. Prosecco or other sparkling wine, chilled,1½ oz. Aperol,1 oz. club soda, chilled,Orange wheel (for serving),Fill a wine glass halfway with ice, then slowly pour in3 oz. Prosecco,1½ oz. Aperol, and1 oz. club soda.Gently stir once and garnish with an orange wheel.,Looking for June recipes? Find our most popular quick dinners, super easy drinks, and all the best main dishes for your barbecue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/4 cup loose Earl Grey tea or 4 bags,1/2 cup honey,4 sprigs thyme,2 sprigs rosemary, plus more for garnish,1 cup fresh lemon juice,1 1/2 cups bourbon,1/2 cup Cognac or brandy,1 teaspoon orange or regular bitters,Ice ring and lemon wheels (for serving),Combine tea and 1 1/4 cups boiling water in a heatproof bowl. Let steep 5 minutes, then strain through a fine-mesh sieve into a measuring glass (you should have 1 cup). Let cool.,Meanwhile, bring honey, thyme, 2 rosemary sprigs, and 1/2 cup water to a gentle simmer over medium heat, stirring to combine. Let cool; discard herbs.,Combine tea, honey syrup, lemon juice, bourbon, Cognac, and bitters in a large pitcher or punch bowl. Add 2 cups ice and stir until ice is melted and punch is very cold.,Serve punch in tumblers filled with ice, garnished with rosemary sprigs and lemon wheels.,Syrup and tea can be made 3 days ahead; cover separately and chill. Punch can be made 1 day ahead; cover and chill.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These classics—and new drinks—will keep you warm all winter.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,It's the trick to reducing your Turkey Day to-do list.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Earthy and pungent, this fragrant herb packs a serious punch.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 cup bourbon,2/3 cup Noilly Prat Rouge vermouth,4 dashes Angostura bitters,4 orange twists,4 fresh cherries,Combine 4 dashes Angostura bitters, 2/3 cup Noilly Prat Rouge vermouth, and 1 cup bourbon in an ice-filled pitcher and stir until well-chilled. Strain into 4 ice-filled rocks glasses. Garnish each drink with an orange twist wrapped around a fresh cherry.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Make dad drinks, not dad jokes.,Have actual fun at your own party by simplifying the snacks.,Creamy mushroom polenta, butternut squash hash, and apple-cranberry crisp for a crowd (or just yourself).,Any of these tipples will provide the right boost of warmth on a chilly evening.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,December 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces gin (preferably Plymouth),1 1/2 ounces Lillet Blanc,1/2 ounce Suze liqueur,Lemon twist (for serving),Combine gin, Lillet, and Suze in an old-fashioned glass filled with ice and stir until very cold, about 30 seconds. Garnish with a lemon twist.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,November 2016 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,4 black tea bags, preferably English Breakfast,1 lemon, thinly sliced,1 orange, thinly sliced,1/4 cup sugar,1 tablespoon cloves,12 sprigs thyme; plus more for serving (optional),1 1/2 cups raspberry liqueur, such as Chambord,1 1/2 cups whiskey, preferably rye,1/4 cup fresh lemon juice,Bring 10 cups water to a boil in a large pot. Reduce heat and bring to a simmer. Add tea bags, lemon and orange slices, sugar, cloves, and 12 thyme sprigs; simmer, covered, 10 minutes. Remove from heat; discard tea bags. Stir in raspberry liqueur, whiskey, and lemon juice. Divide among mugs and garnish with thyme sprigs, if desired.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Fall arrived, and she brought gifts.,Add tart, sweet raspberries to quick breads, cakes, cocktails, and more.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Our favorite ways to use the lemony, earthy herb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces rye or bourbon whiskey,1 ounce fresh lemon juice,1 ounce simple syrup,1/2 ounce fruity red wine (such as Shiraz or Malbec),Combine 2 ounces rye or bourbon whiskey, 1 ounce fresh lemon juice, and 1 ounce simple syrup in a cocktail shaker. Fill with ice, cover, and shake until outside of shaker is frosty, about 30 seconds. Strain into a rocks glass filled with fresh ice. Gently pour 1/2 ounce fruity red wine (such as Shiraz or Malbec) over the back of a spoon held just above the drink's surface so wine floats on top.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Old Fashioneds are just the beginning.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 lime, cut into 3/4-inch pieces,2 teaspoons light brown sugar,1/8 white grapefruit,1 kumquat, halved,2 ounces aged white rum,Muddle lime and brown sugar in a cocktail shaker. Add grapefruit and kumquat and muddle until lightly crushed and juices are released. Fill cocktail shaker with ice, add rum, and shake vigorously until very cold, about 20 seconds. Pour into an old-fashioned glass or tumbler and serve with two straws.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Including cakes, cream pies, and drinks both boozy and refreshing.,Make dad drinks, not dad jokes.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Toss out the OJ and Prosecco. You don't need them anymore.,These refreshing cocktails (and mocktails!) will open your eyes to the wonders of spring—even if it's still too cold outside to enjoy it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 teaspoons cardamom pods, crushed (about 20 pods),2 teaspoons whole coriander seeds,1/4 teaspoon whole black peppercorns,11 (3") cinnamon sticks, divided,1 (2") piece ginger, unpeeled, thinly sliced,2 medium oranges,6 tablespoons honey,3 tablespoons whole leaf black tea or 3 bags black tea,9 ounces dark rum,Toast cardamom, coriander, peppercorns, and 5 cinnamon sticks in a large pot over medium-high heat until fragrant, about 1 minute. Add ginger and 8 cups water.,Using a peeler, peel orange zest into long strips about 3" each. Reserve 6 pieces for garnish, then add remaining zest to pot.,Bring to a boil, then reduce heat, cover, and simmer 15 minutes. Remove from heat and stir in honey and tea. Let steep 5 minutes.,Strain through a fine-mesh sieve into a large bowl or pot. Divide among mugs and top off with rum. Garnish with reserved orange peels and cinnamon sticks.,Tea mixture, without rum, can be made 1 week ahead; cover and chill.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Here, our best cakes, pies, stews, cocktails and more show the many facets of cinnamon.,Toss out the OJ and Prosecco. You don't need them anymore.,When you're feeling the chill, warm up with one of these.,Start freezing that ice ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Campari,3 oz. dry rosé,Splash of lemon soda,1 lemon wheel,Pour Campari and rosé into a rocks glass filled with ice. Top off with soda, stir gently to combine, and add lemon wheel.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Making delicious cocktails doesn't have to be fussy.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Smoked trout flatbread. Grilled chicken. This is June.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,6 mint leaves, plus sprig for serving,3/4 ounce simple syrup,3 ounces Champagne or dry sparkling wine,1/2 ounce cognac,1 dash bitters (such as Angostura),Lemon twist (for serving),Muddle mint leaves and simple syrup in a julep cup or rocks glass. Add Champagne, cognac, and bitters. Fill glass partway with crushed ice and stir gently to combine. Mound more crushed ice on top and garnish with a mint sprig and a lemon twist.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,It wouldn't be a proper party with a Champagne cocktail (or three).,The easy, breezy herb can enhance so many sweet and savory dishes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 cups amber rum (such as Appleton Estate),1 cup Campari,1 cup sweet vermouth,1–2 750 milliliter bottles sparkling wine,12 orange twists, if desired,Combine 1 1/2 cups amber rum (such as Appleton Estate), 1 cup Campari, and 1 cup sweet vermouth in a large pitcher; chill until very cold, at least 2 hours and up to 1 day. For each cocktail, pour 2 ounces into a Collins glass filled with ice and top off with 2–3 ounces chilled sparkling wine. Garnish with an orange twist, if desired.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Light the torches. Lay on the leis. It's tiki time.,It wouldn't be a proper party with a Champagne cocktail (or three).,Start freezing that ice ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. bourbon,¾ oz. fresh lemon juice,¾ oz. simple syrup,½ orange wheel (for serving),Maraschino cherry (for serving),Combine bourbon, lemon juice, and simple syrup in a cocktail shaker. Fill shaker with ice, cover, and shake vigorously until outside of shaker is very cold, about 20 seconds.,Strain cocktail through a Hawthorne strainer or a slotted spoon into an old-fashioned or rocks glass filled with ice. Garnish with orange wheel and cherry.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These classics—and new drinks—will keep you warm all winter.,Make dad drinks, not dad jokes.,Old Fashioneds are just the beginning.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,January 2014 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces rye whiskey,1 ounce fresh red or pink grapefruit juice,1/2 ounce fresh lime juice,1/4 ounce agave syrup (nectar),2 dashes bitters,1 fresh sage leaf,Combine whiskey, grapefruit juice, lime juice, agave, and bitters in a cocktail shaker. Fill shaker with ice and shake until outside is frosty, about 30 seconds; strain into a coupe glass. Slap sage leaf between your palms until fragrant; float on top of cocktail.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Old Fashioneds are just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Pimm’s No. 1,3 oz. Prosecco,Splash ofDr. Brown's Cel-Raysoda,1 sprig celery leaves,Pour Pimm's and Prosecco into a rocks glass filled with ice. Top off with soda, stir gently to combine, and garnish with celery leaves.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make dad drinks, not dad jokes.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,November 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 cup aged rum,1 cup sweet vermouth,1/2 cup fresh lemon juice,1/4 cup simple syrup,4 dashes Angostura bitters,1/2 red apple, very thinly sliced, plus more for serving,3 (3x1") strips orange zest, very thinly sliced, plus more for serving,1 (12-ounce) bottle dry hard apple cider,Combine rum, vermouth, lemon juice, simple syrup, and bitters in a large pitcher. Add 2 cups ice and stir until ice has mostly melted and punch is very cold. Stir in apple slices and orange zest; gently stir in cider.,Divide punch among ice-filled old-fashioned glasses and garnish with more apple slices and orange zest.,Punch (without apple, orange zest, and cider) can be made 1 day ahead. Chill.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Let's just say, we're a little for excited for sweater weather.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Start freezing that ice ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces blended Scotch, such as Famous Grouse,¾ ounce honey-ginger syrup (recipe follows),¾ ounce fresh lemon juice,¼ ounce Islay single-malt Scotch, preferably Laphroaig 10YO,Candied ginger,Combine the blended Scotch with the honey-ginger syrup and lemon juice in a cocktail shaker three-quarters filled with ice. Shake until chilled. Strain into a rocks glass filled with one large cube. Top with the Islay Scotch and garnish with candied ginger.,To make the honey-ginger syrup, combine 1 cup of honey with one 6-inch peeled and sliced piece of ginger root with 1 cup of water in a small pot and bring to a boil. Reduce the heat and simmer for 5 minutes. Refrigerate overnight, then strain, discarding the solids.,Reprinted with permission fromA Proper Drink:The Untold Story of How a Band of Bartenders Saved the Civilized Drinking Worldby Robert Simonson. Copyright ©2016. Published by Ten Speed Press, an Imprint of Penguin Random House.
+Buy the full book fromAmazon,Bookshop, orPenguin Random House,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 tablespoon chopped unpeeled fresh ginger,1/2 teaspoon whole cloves,1 teaspoon loose or 1 bag Darjeeling tea,3/4 ounce Jamaican black rum,3/4 ounce cognac,1 tablespoon honey,2 teaspoons fresh lemon juice,Lemon wedge (for serving),Muddle ginger and cloves in a measuring glass. Add tea and 1 cup boiling water and stir 10 seconds. Let steep 4 minutes.,Meanwhile, fill a mug with hot water to warm it. When tea mixture is ready, pour out hot water, then add rum, cognac, and honey to mug. Strain tea through a fine-mesh sieve into mug and stir to combine. Add lemon juice, then drop lemon wedge into mug. Let sit 1 minute before drinking.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toss out the OJ and Prosecco. You don't need them anymore.,When you're feeling the chill, warm up with one of these.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. bourbon,¾ oz. fresh lemon juice,¾ oz. honey,Combine bourbon, lemon juice, and honey in a cocktail shaker. Fill shaker with ice, cover, and shake very vigorously to help dissolve honey until outside of shaker is very cold, about 20 seconds.,Strain cocktail through a Hawthorne strainer or a slotted spoon into an old-fashioned or rocks glass with 1 large ice cube or several smaller ones.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,Make dad drinks, not dad jokes.,Making delicious cocktails doesn't have to be fussy.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Old Fashioneds are just the beginning.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 qt chilled pomegranate juice,2 Tbsp fresh lime juice,1/4 cup superfine granulated sugar,2 (750ml) bottles chilled Prosecco,2 clementines, thinly sliced crosswise,1 lime, thinly sliced crosswise,Stir together juices and sugar in a large punch bowl until sugar has dissolved. Stir in Prosecco and serve garnished with fruit.,Punch, without Prosecco, can be made 1 day ahead and chilled.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,From appetizers to desserts, we’ve included all our favorite Rosh Hashanah recipes to help you ring in the Jewish new year.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These little gems can be used for so much more than just juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2014 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Honey syrup:,1/4 cup clover honey,2 tablespoon hot water in a small jar,Assembly:,6 tablespoons gin,3 tablespoons fresh lime juice,2 tablespoons Aperol or Capelletti,1 tablespoon honey syrup,2 dashes of Angostura bitters,Ice,Champagne or sparkling wine,Lime wheel for garnish,Combine 1/4 cup clover honey and 2 tablespoon hot water in a small jar; cover and shake to dissolve honey.,Combine 6 tablespoons gin, 3 tablespoons fresh lime juice, 2 tablespoons Aperol or Capelletti, 1 tablespoon honey syrup, and 2 dashes of Angostura bitters in a cocktail shaker; fill shaker with ice. Cover and shake until outside of shaker is frosty, about 30 seconds. Strain into 2 chilled coupe glasses. Top off with Champagne or sparkling wine and garnish each with a lime wheel. Repeat three more times.,Celebrate the warmer weather with these refreshing spring drinks.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,It wouldn't be a proper party with a Champagne cocktail (or three).,When our writer fell in love with honey, she fell in love *hard*—and her cooking life became all the better for it. Now, she shares how you, too, can become a honey addict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 1993 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 tablespoons brandy,2 tablespoons crème de cacao,2 tablespoons heavy cream,Freshly grated nutmeg to taste,In a cocktail shaker combine the brandy, the crème de cacao, the cream, and 1 cup ice cubes, shake the mixture well, and strain it into a stemmed cocktail glass. Sprinkle the Brandy Alexander with the nutmeg.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,No raw egg required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Ginger Syrup:,3" piece ginger peeled, thinly sliced,1/2 cup raw or granulated sugar,Cocktails:,2 750-milliliter bottles chilled Prosecco,8 thin clementine or orange slices,Bring one 3" piece ginger, peeled, thinly sliced, 1/2 cup raw or granulated sugar, and 1/2 cup water to a boil in a small saucepan; reduce heat and simmer 5 minutes. Let cool. Strain syrup through a fine-mesh sieve into a small jar or bowl; discard ginger.,DO AHEAD:Syrup can be made 1 week ahead. Cover and chill.,Pour 1/4 ounces ginger syrup in each coupe glass. Dividing evenly, top off with two 750-milliliter bottles chilled Prosecco (about 5 ounces per glass) and garnish each with a thin clementine or orange slice.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Spice up your meals with the bright flavor of fresh ginger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 1/4 cups London dry gin,1 cup fresh lemon juice,3/4 cup Grand Marnier,4 large egg whites,12 teaspoons orange marmalade,Combine 2 1/4 cups London dry gin, 1 cup fresh lemon juice, and 3/4 cup Grand Marnier in a large pitcher; chill until very cold, at least 2 hours and up to 1 day. Mix 4 large egg whites* in a small jar; chill until cold. For each cocktail, shake 2 1/2 ounces gin mixture, 1/2 ounces egg white, and 1 teaspoon orange marmalade in a cocktail shaker until very frothy, about 1 minute. Fill with ice; shake until outside is frosty, about 30 seconds. Strain into coupe glass.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,12 ounces (1 1/2 cups) Scotch,12 ounces (1 1/2 cups) sweet vermouth (such as Carpano Antica),5 ounces (1/2 cup plus 2 tablespoons) water,2 ounces (1/4 cup) Bénédictine,8 lemon twists for garnish,In a pitcher that holds at least 5 cups, combine the Scotch, vermouth, water, and Bénédictine and stir well. Using a funnel, decant into a 1-liter liquor bottle or two 750-ml liquor bottles. Cap tightly and refrigerate for at least 2 hours, until chilled.,To serve, set out a bowl or wine bucket filled with ice. Shake the bottle to ensure the cocktail is well mixed, then set it in the ice so it stays chilled. Pour into coupe or martini glasses and garnish each drink with a lemon twist.,Reprinted with permission fromCocktails for a Crowd: More than 40 Recipes for Making Popular Drinks in Party-Pleasing Batchesby Kara Newman. Text copyright © 2013 by Kara Newman; photographs copyright © 2013 by Teri Lyn Fisher. Published by Chronicle Books, LLC.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Make dad drinks, not dad jokes.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Old Fashioneds are just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 cube or 1/2 teaspoon sugar,4 dashes Peychaud Bitters,Splash water, about 1/2 teaspoon,2 ounces rye whiskey,Splash Herbsaint (or Pernod), about 1/2 teaspoon,Lemon peel for garnish,Ice,In old-fashioned glass, add ice and set aside. In another, combine sugar, bitters, and water. Muddle until sugar is completely dissolved. Add rye whiskey, fill with ice, and stir well, about 15 seconds. From first glass, discard ice, then add Herbsaint. Holding glass horizontally, turn it so that Herbsaint completely coats the interior. Discard any excess. Strain contents of second glass into chilled glass. Twist lemon peel directly over drink to release essential oils, and serve.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Shoulder seasons are weird. Tomatoes and corn are still here, but colder weather brings cravings of roasted vegetables and rich and warming baked entrées. Here are a few recipes that'll help you bridge the gap.,Throw the best Mardi Gras party of your life with these New Orleans favorites.,Old Fashioneds are just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,December 2011 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 3/4 cups Calvados or other apple brandy,1 cup St-Germain (elderflower liqueur),10 dashes bitters, preferably Fee Brothers Whiskey Barrel Aged Bitters or Angostura,1 750-milliliter bottle Champagne, chilled,Freshly grated nutmeg,Special Equipment,One 12-cup Bundt or tube pan; 1 punch bowl,Make and freezering mold with pears and apples.DO AHEAD:Ring mold can be made 1 week ahead. Cover and keep frozen.,Stir Calvados, St-Germain, bitters, and 1 cup water in a punch bowl. Add ice ring, then Champagne. Ladle punch into glasses and grate nutmeg over.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,It wouldn't be a proper party with a Champagne cocktail (or three).,Start freezing that ice ring.,Because when you need to serve drinks to a crowd, punch is always the best answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2011 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 cups Kentucky rye whiskey (such as Rittenhouse Bottled-in-Bond or Wild Turkey),3 tablespoons Strega (herbal liqueur),3 tablespoons Amontillado Sherry (such as Lustau or González Byass Del Duque),2 tablespoonsNo-Cook Simple Syrup,12 dashes orange bitters,12 orange twists,Combine first 5 ingredients in a large pitcher. Add ice; stir for 15-20 seconds. Strain the mixture into 6 chilled coupe glasses. Pinch an orange twist over each drink, then rub around rims of glasses to release oils from peel; discard peel. Garnish each with a fresh twist.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Sweet, salty, savory Sherry is a wonderful way to balance cocktails, but it can also be the star of the show in it's own right. These 12 drinks show off all of the fortified wine's many facets.,First, pick your costume. Then pick your poison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,December 2007 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 cup water,1/2 cup sugar,2 750-ml bottles chilled brut Champagne,1 1/2 cups white rum,1 1/4 cups pomegranate juice,1 large lemon, thinly sliced,Pomegranate seeds,Fresh mint leaves,1ice block,Bring 1/2 cup water and sugar to boil in small saucepan, stirring until sugar dissolves. Simmer 5 minutes. Cool syrup completely.,Combine Champagne, rum, and pomegranate juice in punch bowl. Add enough syrup to sweeten to taste. Mix in lemon slices, pomegranate seeds, and mint leaves. Add ice block to bowl.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These little gems can be used for so much more than just juice.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,It wouldn't be a proper party with a Champagne cocktail (or three).,Start freezing that ice ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,September 2008 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 cup ice cubes,5 tablespoons Laird's Applejack,3 tablespoons St-Germain (elderflower liqueur),1 tablespoon Bénédictine liqueur,2 dashes of angostura bitters,Place ice cubes in cocktail shaker. Add remaining ingredients and stir 20 to 30 seconds. Strain into 2 chilled small coupe glasses and serve.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 lemon wheel,1 orange wheel,¾ oz. simple syrup (1:1 sugar:water),3 oz. amontillado sherry,Garnish: berries in season, citrus, mint, a Lego minifig—anything, really,In a mixing glass or cocktail shaker, add the lemon, orange, and simple syrup, and muddle. Add the sherry, fill with ice, and shake. Finely strain into a Collins glass over crushed ice. Top up with additional crushed ice and garnish like there’s no tomorrow.,FromSherry: A Modern Guide to the Wine World's Best-Kept Secret, with Cocktails and Recipesby Talia Baiocchi. Copyright © 2014 by Talia Baiocchi. Published by Ten Speed Press, a division of Random House LLC. Photography copyright © 2014 by Ed Anderson.
+Buy the full book fromAmazonorBookshop.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,December 2007 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,4 ounces (1/2 cup) bourbon,1 ounce (2 tablespoons) sweet vermouth,1 ounce (2 tablespoons) dry vermouth,2 dashes Angostura bitters,Garnish: maraschino cherries,Fill a cocktail shaker halfway with cracked ice, then add all ingredients and shake or stir well. Strain into 2 chilled Martini glasses.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Make dad drinks, not dad jokes.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3/4 ounces Irish whiskey,3/4 ounce Chartreuse,3/4 ounce sweet vermouth,3 or 4 ice cubes,Combine all ingredients in a mixing glass and stir well. Strain into a cocktail glass.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Black bottom brownie cookies, lentil and chicken soup, coconut cold brew, and all your favorite Irish classics for St. Paddy's Day, including corned beef like you've never had it before.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Old Fashioneds are just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 ounces whiskey,1 whole egg,1 teaspoon superfine sugar,2 teaspoons heavy cream (optional),1/2 cup crushed ice,Nutmeg,Combine all ingredients except the nutmeg in a cocktail shaker and shake vigorously. Strain into a 5-ounce stemmed glass, and grate a little nutmeg on top.,2 or 3 dashes of rum are sometimes added to the whiskey in this cocktail.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Old Fashioneds are just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,November 2010 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/4 cup Cognac (such as Camus VS),1/4 cup Calvados (apple brandy),2 tablespoons Cointreau or other orange liqueur,2 tablespoons pear liqueur (such as Rothman and Winter or Mathilde),4 1/2 teaspoons fresh lime juice,2 dashes of Angostura bitters,Ice cubes,2 lime slices,Mix first 6 ingredients in cocktail shaker. Add ice. Cover and shake vigorously 20 times. Strain between 2 coupe glasses. Float lime slices on top and serve.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 whole orange, plus 1 orange cut into thin slices for garnish,1 lemon,1 cup sugar,1 cup lemon juice,1 cup pineapple juice,1 (750 milliliter) bottle bourbon, at least 100 proof,1 cup Champagne or sparkling wine,1 cup fresh pineapple chunks,Using a vegetable peeler, remove the peel from 1 orange and the lemon. Transfer to a large punch bowl and add the sugar. Muddle to release the citrus oils, then let stand 1 to 2 hours. Add the lemon and pineapple juices and the bourbon, and stir to combine. Just before serving, stir in 3 to 4 cups of ice, then top with Champagne or sparkling wine and garnish with the orange slices and pineapple chunks.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Bring the taste of Kentucky home with these masterful cocktails.,Whether it's served for dinner, drinks, breakfast, or dessert, pineapple will brighten any meal.,Toss out the OJ and Prosecco. You don't need them anymore.,Start freezing that ice ring.,Time to become a Turkey Day Prepper.,Because when you need to serve drinks to a crowd, punch is always the best answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2011 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3/4 cup sugar,1 cup fresh or frozen cranberries,1 lemon, cut into wedges,1/2 orange, sliced into thin rounds,1 1/2 cups London dry gin (such as Beefeater or Tanqueray),1/2 cup plus 1 tablespoon off-dry Sherry (such as Lustau East India Solera),6 mint sprigs,Bring sugar and 3/4 cup water to a boil in a medium saucepan; stir until sugar is dissolved. Remove from heat. Pour off all but 1 cup simple syrup; refrigerate remaining syrup for another use.,Heat syrup in pan almost to a boil; reduce heat to medium. Add cranberries and simmer until they just begin to burst, 2-3 minutes. Let cool in syrup.,Place 2 tablespoons drained cranberries and 6 tablespoons cranberry syrup in a large pitcher. Add lemon wedges and orange slices. Using a muddler or wooden spoon, vigorously mash fruit. Stir in gin and Sherry. Let steep for 5 minutes.,Strain into a medium pitcher. Fill 3 glasses with crushed ice. Pour half of mixture into a cocktail shaker. Fill with ice; shake vigorously for 10 seconds. Strain into prepared glasses, then mound with more crushed ice. Garnish each with a mint sprig and 3 cranberries. Repeat to make 3 more cocktails.,Cranberry sauce is a classic Thanksgiving side dish, but there's more than one way to spotlight those tart little orbs (or cans if that's the way you go) and these recipes for fresh, frozen, and canned cranberries prove it.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Sweet, salty, savory Sherry is a wonderful way to balance cocktails, but it can also be the star of the show in it's own right. These 12 drinks show off all of the fortified wine's many facets.,Ice cubes aren't the end. They're just the beginning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Honey Árbol Ginger Syrup:,¾ cup orange blossom honey,¼ cup boiling water,2 ounces fresh ginger, peeled and roughly chopped (about ½ cup),½-inch piece chile de árbol, plus more to taste,For the Cocktail:,1½ ounces bourbon,1 ounce fresh grapefruit juice (about ¼ grapefruit, preferably Ruby Red),¾ ounce fresh lemon juice (less than 1 lemon),½ ounce Honey Árbol Ginger Syrup,To make the Honey Árbol Ginger Syrup:Put the honey and water in a blender and stir until the honey dissolves. Add the ginger and chile and blend on high speed until the ginger is pulverized. Strain through a chinois or cheesecloth and discard the solids. Let the syrup cool to room temperature. Transfer to a small jar or bottle and refrigerate for up to 1 month.,To make the cocktail:Combine the cocktail ingredients in a shaker. Fill the shaker with ice cubes, cover, and shake hard for 7 seconds. Use a Hawthorne strainer to strain the cocktail into a coupe glass. Garnish with the chile de árbol slices.,FromBar Chef: Handcrafted Cocktailsby Christiaan Röllich, copyright © 2019. Photography by Ed Anderson. Published by
+W. W. Norton &amp; Company. Reprinted with permission of the publisher. All rights reserved.
+Buy the full book fromAmazonorBookshop.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 bags ginger tea,1 1/2 ounces maple-flavored bourbon (such as Knob Creek Smoked Maple),1 tablespoon plus 1 teaspoon fresh lemon juice,1 teaspoon maple syrup,Lemon peel (for garnish),Pour 3/4 cup boiling water over tea bags in a mug. Let steep 5 minutes, then remove tea bags. Stir in bourbon, lemon juice, and maple syrup. Garnish with lemon peel.,Tea can be steeped 5 days ahead. Cover and chill. Reheat before serving.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,It's the first official weekend of winter. Make a cup of hot chocolate and get comfy on the couch.,Bacon-y cauliflower soup, red pesto rigatoni, and our all-time favorite cinnamon rolls.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Bring the taste of Kentucky home with these masterful cocktails.,Our favorite ways to cook with maple syrup, from cocktails and glazed vegetables to baked goods and—of course—pancakes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 whole nutmeg pods,3 tablespoons whole allspice berries,3 (3-inch) cinnamon sticks, broken into pieces,2 quarts orange juice,2 quarts pineapple juice,12 (750 ml) bottles Spanish red wine,1 (750 ml) bottle VSOP Cognac,1 (750 ml) bottle Myers dark rum,1 to 5 cups simple syrup to taste,10 oranges, sliced into wedges,PLACE the nutmeg pods in a cloth napkin and break them into pieces with a hammer or other blunt object. Combine the nutmeg, allspice, and cinnamon in a large stainless steel saucepan over medium heat. Follow the instructions on page 20 to toast the spices until aromatic, about 5 minutes. Add the juices and bring the mixture to a boil. Reduce the heat to low and simmer until the mixture is reduced by one-third, about 30 minutes. Remove the pot from the heat and strain the liquid through a fine-mesh strainer or chinois into a container large enough to hold all of the punch. Discard the spices.,Add the wine, Cognac, and rum, and stir well. Add the simple syrup 1 cup at a time until the tannins are tamed. Add the orange slices, cover the container, and place in the refrigerator to chill. To serve, transfer the mixture to a large glass punch bowl with a ladle. Serve the ice on the side.,Reprinted with permission fromArtisanal Cocktails: Drinks Inspired by the Seasons from the Bar at Cyrusby Scott Beattie, (C) © 2008 Ten Speed Press
+A native of San Francisco, Scott Beattie tended bar at Postrio, Azie, and Napa Valley's Martini House before being handpicked to shape the cocktail program at Cyrus Restaurant in Healdsburg, California, deep in Sonoma wine country. He has been profiled inGourmet,GQFood &amp; Wine,San Francisco Chronicle, andBon Appétit, among other publications. Scott lives in Healdsburg.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Including cakes, cream pies, and drinks both boozy and refreshing.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Whether it's served for dinner, drinks, breakfast, or dessert, pineapple will brighten any meal.,First, pick your costume. Then pick your poison.,Tips and recipes for tasty eggnogs and punches from mixologist Dale DeGroff.,Because when you need to serve drinks to a crowd, punch is always the best answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,7 to 10 fresh mint leaves, plus 1 leaf for garnish,1/2 oz/15 ml Simple Syrup,Juice of 1/4 lime, plus 1 lime wedge for garnish,1 oz/30 ml rum,Ice cubes,1 oz/30 ml chilled sparkling wine,In a cocktail shaker, combine the mint leaves with the Simple Syrup and lime juice. Using a muddler or the handle of a long wooden spoon, crush the mint. Add the rum and fill the cocktail shaker about two-thirds full with ice cubes. Cover and shake vigorously for 5-10 seconds. Strain through a strainer or fine-mesh sieve into a rocks glass filled with ice. Top with the sparkling wine. Garnish with the reserved mint leaf and a wedge of lime. Serve at once.,FromDomaine Chandon Cookbookby Jeff Morgan. Text copyright © 2010 by Domaine Chandon; photography © 2010 by France Ruffenach. Published by Chronicle Books LLC.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Including cakes, cream pies, and drinks both boozy and refreshing.,It wouldn't be a proper party with a Champagne cocktail (or three).,Minty and punchy with limes, the mojito has it going on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Banks 5-Island rum,0.75 oz. Lustau East India Solera sherry,0.75 oz. Campari,Garnish: 1 orange twist,Stir with ice, then strain into a chilled rocks glass filled with one large ice cube. Garnish with the orange twist.,Reprinted with permission fromMeehan’s Bartender Manualby Jim Meehan, copyright © 2017 by Mixography Inc. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Including cakes, cream pies, and drinks both boozy and refreshing.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 (½-inch-thick) slice fresh ginger, peeled,½ oz. agave nectar,¾ oz. lime juice,2 oz. amontillado sherry,1 oz. mezcal,Garnish: nutmeg, lime wheel,Add ginger to a mixing glass with the agave and lime juice and muddle. Add sherry and mezcal, and fill with ice. Shake, and finely strain over a large cube of ice into a rocks glass. Grate nutmeg over the top and garnish with the lime wheel.,FromSherry: A Modern Guide to the Wine World's Best-Kept Secret, with Cocktails and Recipesby Talia Baiocchi. Copyright © 2014 by Talia Baiocchi. Published by Ten Speed Press, a division of Random House LLC. Photography copyright © 2014 by Ed Anderson.
+Buy the full book fromAmazonorBookshop.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Three 1/4-inch-thick slices Granny Smith apple,1/4 ounce Simple Syrup,2 fresh mint leaves,2 ounces Heart of the Hudson apple vodka,1 ounce junmai saké,Ice cubes,Tools:,muddler, mixing glass, barspoon, fine-mesh strainer,,,,Glass:,coupe,Garnish:,4 thin slices Granny Smith apple,Muddle the apple slices and simple syrup in a mixing glass. Add the mint leaves and press lightly with the muddler. Add the vodka, saké, and ice, and stir until chilled. Double strain into a chilled coupe and garnish with the fanned apple slices.,FromThe American Cocktail: 50 Recipes that Celebrate the Craft of Mixing Drinks from Coast to Coastby the Editors ofImbibeMagazine. Text copyright © 2011 byImbibemagazine; photographs copyright © 2011 by Sheri Giblin. Published by Chronicle Books.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Discover sweet and savory apple recipes that will have you coming back for more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,November 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1.5 oz. Averna amaro,6 oz. Basque-style dry hard cider (such as Isastegi Sagardo),Orange twist (for serving),Pour amaro and cider into a glass filled with ice and stir to combine; garnish with orange twist.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,December 2011 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 tablespoons honey,6 tablespoons bourbon (or better yet, Apple Bourbon, in which case you'll use 1 tablespoon honey),3x1/2" strip of lemon peel,1 cinnamon stick,Stir 2 tablespoons honey and 1 cup hot water in a 2-cup measuring cup until honey dissolves. Add 6 tablespoons bourbon (or better yet, Apple Bourbon, in which case you'll use 1 tablespoon honey; for recipe, see below). Divide between 2 Toddy glasses. Twist a 3x1/2" strip of lemon peel over each drink, then add to glass. Stir each with a cinnamon stick and serve.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Any of these tipples will provide the right boost of warmth on a chilly evening.,Bring the taste of Kentucky home with these masterful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 cup dried hibiscus flowers,1/2 cup sugar,3 cups cilantro leaves with tender stems, divided,1/2 cup mezcal,1/4 cup fresh lime juice,Cilantro flowers or sprigs (for serving),Bring 3 cups water to a simmer in a medium saucepan. Remove from heat and add hibiscus; let steep 10 minutes. Strain hibiscus tea into a medium bowl; let cool.,Bring 1 cup water to a simmer in a small saucepan. Add sugar and cook, stirring, until dissolved. Remove from heat; add 2 cups cilantro. Let steep 20 minutes. Strain syrup into a small bowl; let cool.,To make cocktail, muddle remaining 1 cup cilantro in a large pitcher. Add mezcal, lime juice, hibiscus tea, and 1¼ cups cilantro syrup and stir to combine. Taste and add more syrup if desired, keeping in mind that the flavor will be diluted once you add ice.,Divide cocktail among ice-filled glasses. Garnish with cilantro flowers.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make better cocktails at home by cracking open a bottle of mezcal.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,This refreshing, citrusy herb improves just about everything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces Tanqueray gin,1 ounce vodka,1/2 ounce Lillet Blanc,1 lemon,Stir 1/2 ounce Lillet Blanc, 1 ounce vodka, and 1 1/2 ounces Tanqueray gin in an ice-filled mixing glass until very cold, about 30 seconds. Strain cocktail through a Hawthorne strainer or a slotted spoon into a martini glass.,Using a small serrated knife, remove a 1" strip of peel from a lemon (some white pith is okay); it should be stiff enough to provide some resistance when bent. Twist over drink to express oils; discard. Garnish with a lemon twist.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,There's no cocktail more classic than a gin martini. But even a perfect drink—usually made with gin, dry vermouth, and lemon—can get boring. First master the original and then switch up your martini game with any of these riffs on the classic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ oz. vodka,¾ oz. Kahlúa,¾ oz. heavy cream,Combine all the ingredients in a cocktail shaker filled with ice and shake until chilled and well integrated, about 15 seconds. Strain into a chilled Old-Fashioned glass.,Excerpted from3-Ingredient Cocktails: An Opinionated Guide to the Most Enduring Drinks in the Cocktail Canon© 2017 by Robert Simonson. Photography © 2017 by Colin Price. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House LLC. All rights reserved.
+Buy the full book fromAmazon.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,September 2015 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the pickled onions:,1/2 cup apple cider vinegar,1/4 cup red wine vinegar,1/4 cup unseasoned rice vinegar,1/4 cup white wine vinegar,1/4 cup sugar,4 teaspoons kosher salt,1 tablespoon black peppercorns,1 tablespoon coriander seeds,1 tablespoon juniper berries,1/8 teaspoon crushed red pepper flakes,1 halved garlic clove,1 bay leaf,1 pound small pearl onions, peeled, trimmed,For the martini:,2 ounces gin,1/2 ounce blanc vermouth,1/2 ounce dry vermouth,1/4 ounce onion pickling liquid,4 cups ice,Pickled onion for garnish,Whisk 1/2 cup apple cider vinegar, 1/4 cup red wine vinegar, 1/4 cup unseasoned rice vinegar, 1/4 cup white wine vinegar, 1/4 cup sugar, 4 teaspoons kosher salt, 1 tablespoon black peppercorns, 1 tablespoon coriander seeds, 1 tablespoon juniper berries, 1/8 teaspoon crushed red pepper flakes, 1 halved garlic clove, 1 bay leaf, and 1 1/4 cups water in a nonreactive container until salt and sugar dissolve. Add 1 pound small pearl onions, peeled, trimmed. Cover; chill at least 1 week and up to 3 months. Flavors will deepen with time.,Stir 2 ounces gin, 1/2 ounce blanc vermouth, 1/2 ounce dry vermouth, 1/4 ounce onion pickling liquid, and 4 cups ice in a large stirring or measuring glass 1 minute (this is key to rounding out the flavors). Strain into a martini glass; garnish with a pickled onion.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.,Make dad drinks, not dad jokes.,There's no cocktail more classic than a gin martini. But even a perfect drink—usually made with gin, dry vermouth, and lemon—can get boring. First master the original and then switch up your martini game with any of these riffs on the classic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 sugar cube,Angostura bitters,Champagne or sparkling wine, chilled,Lemon or orange twist, for garnish,Soak the sugar cube in Angostura bitters and drop into a Champagne flute. Top with Champagne or a sparkling wine. Garnish with a lemon or orange twist.,Reprinted with permission from101 Champagne Cocktailsby Kim Haasarud, © 2008 John Wiley &amp; Sons, Inc.,It's time to pop some bottles.,Classic holiday tipples for the 12 days of Christmas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,¾ ounce Aperol,¾ ounce Martini &amp; Rossi Sweet Vermouth,1 ounce fresh orange juice,2 ounces Prosecco, such as Mionetto Prosecco Brut Valdobbiadene,Half orange wheel, for garnish,Build the Aperol, vermouth, and orange juice in a highball glass filled three-quarters full with ice cubes. Stir and top with the prosecco. Garnish with the half orange wheel.,Reprinted fromThe New Craft of the Cocktail: Everything You Need to Know to Think Like a Master Mixologist, with 500 Recipesby Dale DeGroff. Copyright © 2020. Photographs by Daniel Krieger. Published by Clarkson Potter, a division of Penguin Random House, LLC. Buy the full book fromAmazon.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,November 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Thyme syrup:,1/3 cup sugar,8 sprigs thyme,Assembly:,2 cups apple cider,1 1/2 cups dark rum,3/4 cup fresh lime juice,1 teaspoon Angostura bitters,Club soda,8 sprigs thyme,8 lime slices,Bring sugar and 1/3 cup water to a boil in a small saucepan, stirring to dissolve sugar. Remove from heat, add thyme sprigs, and cover. Let stand 10 minutes, then strain into a small jar. Let cool.,DO AHEAD:Syrup can be made 1 month ahead. Cover and chill.,Mix thyme syrup, cider, rum, lime juice, and bitters in a pitcher. Divide among rocks glasses filled with ice; top off with club soda. Garnish with thyme sprigs and lime slices.,DO AHEAD:Thyme syrup, cider, rum, lime juice, and bitters can be mixed 4 hours ahead. Cover and chill.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Including cakes, cream pies, and drinks both boozy and refreshing.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,From roasted turkey and creamy mashed potatoes to buttery dinner rolls and rich pecan pie, these recipes are sure to make you thankful indeed.,Our favorite ways to use the lemony, earthy herb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 oz. [30 ml] rye,½ oz. [15 ml] mezcal,½ oz. [15 ml] Averna Amaro,¼ oz [7.5 ml] simple syrup (below),2 dashes Angostura bitters,Orange peel, for garnish,In a mixing glass, stir together the rye, mezcal, amaro, simple syrup, and bitters with ice. Strain into a rocks glass over a large ice cube. Twist the orange peel over the top of the drink to express the oils, then use the peel to garnish.,Stir one part sugar into one part boiling water until the sugar dissolves. Remove from the heat and let cool. Decant into a mason jar (or other small container with a lid) and store in the refrigerator tightly covered for up to 10 days.,FromNightcap: More than 40 Cocktails to Close Out Any Eveningby Kara Newman. Copyright © 2018 by Kara Newman. Excerpted by permission of Chronicle Books. All rights reserved.
+Buy the full book fromAmazonorBookshop.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 scant oz.Mint Simple Syrup,2 cups crushed ice,2 oz. bourbon,Fresh mint sprig, for garnish,To highball glass or silver Julep cup, add minted simple syrup, then 1 cup crushed ice, bourbon, and splash of water. Add enough of remaining ice to almost fill glass. Stir well and garnish with mint sprig.Read more:The Best Whiskeys for Cocktails and Sipping,Celebrate the warmer weather with these refreshing spring drinks.,There are many, many ways to enjoy whiskey season.,These classics—and new drinks—will keep you warm all winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ½ oz. London Dry gin,½ oz. fresh lemon juice,½ oz. maraschino liqueur,2 dashes orange bitters,Garnish: Luxardo cherry,Add all ingredients to a cocktail shaker and shake until well chilled. Strain into a Nick and Nora glass and add cherry.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/4 fennel bulb, untrimmed, coarsely chopped,1 (375-ml) bottle dry vermouth (preferably Dolin),1 large rhubarb stalk, thinly sliced, plus more, shaved, for serving,1/2 cup sugar,3/4 cup fresh lemon juice,3/4 cup gin (preferably Fords),Combine fennel and vermouth in a glass container (save vermouth bottle). Cover and chill 2 days. Strain through a fine-mesh sieve back into bottle.,Bring rhubarb, sugar, and 1/2 cup water to a gentle simmer in a small saucepan over medium heat and cook until mixture is pink and slightly syrupy, 14–16 minutes. Let cool, then transfer to a blender and purée until smooth (you should have about 1/2 cup rhubarb purée).,Combine 12 oz. fennel-infused vermouth, rhubarb purée, lemon juice, gin, and 2 cups ice in a large pitcher. Stir until cold. Pour cocktail into ice-filled old-fashioned glasses and garnish with shaved rhubarb.,Vermouth can be infused and rhubarb purée can be made 1 week ahead; cover and chill separately.,These magenta stalks are only around for a short time in spring. Cook ’em while you can.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.,Lean into spring with a rhubarb cocktail and recipes that feature asparagus and sugar snap peas, then take some time for a date night in with a decadent pork chop dinner and classic crème brûlée.,Crisp and sharp when raw; mellow and sweet when caramelized: here are our absolute favorite ways to cook with fresh fennel.,Toss out the OJ and Prosecco. You don't need them anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 strawberries, hulled,½ oz. (15 ml) 1:1 simple syrup (see headnote),2 oz (60 ml) bourbon,¾ oz (22 ml) fresh lemon juice,2 dashes Angostura bitters,3 oz (90 ml) ginger beer,Strawberry, to garnish,Gently muddle the strawberries with the Simple Syrup in a cocktail shaker. Add the bourbon, lemon juice, and Angostura bitters, then fill with ice and shake vigorously for 10–15 seconds. Double strain into a highball glass filled with fresh ice and top with the ginger beer. Garnish with a fresh strawberry.,Reprinted fromSpirited: Cocktails from Around the World, by Adrienne Stillman. © 2020 Phaidon Press
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,There are many, many ways to enjoy whiskey season.,Cool off—and get a little tipsy—with these refreshing summer favorites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ½ oz. reposado tequila (El Tesoro preferred),½ oz. mezcal (Del Maguey San Luis del Rio preferred),1 bar spoon agave nectar,2 dashes Angostura bitters,Flamed orange twist, for garnish,Mix the tequila, mezcal, agave nectar, and bitters in a mixing glass with ice. Strain over a fresh rock in an Old Fashioned glass. Flame an orange peel over the top of the drink, and rest the twist in the glass as a garnish.,Excerpted fromMezcal© 2017 by Emma Janzen. Reprinted with permission of Voyageur Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Make better cocktails at home by cracking open a bottle of mezcal.,Make dad drinks, not dad jokes.,37 tequila drinks to make at home.,Making delicious cocktails doesn't have to be fussy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2017 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Chamomile syrup:,3 cups water,2½ cups sugar,8 chamomile tea bags,Punch:,4 cups fresh grapefruit juice,1 pint fresh strawberries, hulled and sliced,3 cups bourbon,A few good dashes of bitters,Ice cubes or an ice mold, for serving,Fresh chamomile flowers, for garnish (optional),Combine the water and sugar in a small saucepan set over medium heat. Bring to a simmer, stirring until the sugar is dissolved. Remove the pan from the heat, add the tea bags, and stir. Cover and let steep for 15 minutes. Remove the tea bags and discard. Refrigerate until room temperature or chilled, at least 1 hour.,In a blender, combine the grapefruit juice and half of the strawberries. Blend until smooth. Pour the mixture into a large punch bowl. Add the chamomile syrup, bourbon, and bitters. Add the remaining strawberry slices and ice.,To serve, put a few ice cubes into serving cups, garnish with fresh flowers, if available, and ladle the punch into glasses.,Celebrate the warmer weather with these refreshing spring drinks.,Packed with fresh herbs and bright flavors, these Easter brunch recipes include our favorite egg dishes, sweet buns, and cheeky brunch cocktails.,There are many, many ways to enjoy whiskey season.,Cool off—and get a little tipsy—with these refreshing summer favorites.,These classics—and new drinks—will keep you warm all winter.,Take those berries and pickle them, salad them, shortcake them, and more.,Bring the taste of Kentucky home with these masterful cocktails.,Toss out the OJ and Prosecco. You don't need them anymore.,Start freezing that ice ring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,3 oz. Prosecco or other sparkling wine, chilled,1½ oz. Aperol,1 oz. club soda, chilled,Orange wheel (for serving),Fill a wine glass halfway with ice, then slowly pour in3 oz. Prosecco,1½ oz. Aperol, and1 oz. club soda.Gently stir once and garnish with an orange wheel.,Looking for June recipes? Find our most popular quick dinners, super easy drinks, and all the best main dishes for your barbecue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 large or 2 small ripe strawberries, halved,3/4 ounce fresh lemon juice,1/2 ounce undiluted honey,2 ounces gin,1 heaping teaspoon plain Greek yogurt,GARNISH: freshly ground black pepper and a vertical slice of strawberry,Combine strawberries, lemon juice, and honey in a cocktail shaker and muddle until well broken up. Add gin and Greek yogurt and fill shaker with ice. Shake until well chilled, about 15 seconds. Fill a rocks glass with crushed ice, then double-strain cocktail into it. Grind black pepper on top and garnish with the strawberry slice.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Tangy yogurt goes savory and sweet—here are our favorite recipes to use up the rest of that tub in your fridge.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Take those berries and pickle them, salad them, shortcake them, and more.,Make dad drinks, not dad jokes.,Making delicious cocktails doesn't have to be fussy.,Easy appetizers that transition to full meals, strawberries two ways, and an iced-tea take on a hot toddy.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 oz. (30 ml) aged rum,½ oz. (15 ml) fresh lime juice,½ oz. (1:1) simple syrup,2 dashes Angostura bitters,8–10 mint leaves,1–2 oz. (30–60 ml) brut-style Champagne or dry sparkling wine,Mint leaf, to garnish,Combine rum, lime juice, simple syrup, bitters, and mint leaves in a cocktail shaker filled with ice. Shake vigorously for 15–20 seconds, or until the shaker is frosted on the outside. Double strain into a coupe and top with sparkling wine. Garnish with a mint leaf.,Reprinted fromSpirited: Cocktails from Around the World, by Adrienne Stillman. © 2020 Phaidon Press
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Minty and punchy with limes, the mojito has it going on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 strawberries, hulled,4 oz. rosé wine, chilled,1 oz. Aperol,½ oz. fresh lemon juice,Soda water, chilled,Muddle the strawberries in a mixing glass or cocktail shaker. Add the rosé, Aperol, and lemon juice, and stir to incorporate. Pour into a wineglass, add a handful of ice cubes, and top with a splash of soda water.,FromDay Drinking: 50 Cocktails for a Mellow Buzz, © 2017 by Kat Odell. Reprinted by permission of Workman Publishing Company.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Fresh spring cocktails that are easy to make at home.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ oz (45 ml) Campari,1½ oz (45 ml) sweet vermouth,Soda water to top,Lemon twist for garnish,In an ice-filled rocks glass or highball glass, combine the Campari and vermouth. Stir well, top with soda water, and garnish with the lemon twist before serving.,Reprinted fromShake. Stir. Sip.by Kara Newman with permission from Chronicle Books, 2016. Photographs © John Lee and Luke Abiol. Buy the full book fromChronicle BooksorAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces chinotto soda, such asSan PellegrinoorLurisia,1½ ouncesred verjus,1 ounce soda water,1 orange twist, for garnish,1 green pitted olive, for garnish,Fill a spritz or wine glass with 2 or 3 ice cubes. Add the chinotto, red verjus, and soda water and stir gently. Garnish with the orange twist and olive.,Fill a pitcher with ice. Add 1½ cups chinotto, 1 cup plus 2 tablespoons verjus, and 3⁄4 cup soda water. Gently stir, then divide among 6 wine glasses. Garnish each with an orange slice and an olive.,Excerpted fromGood Drinks: Alcohol-Free Recipes for When You're Not Drinking for Whatever Reasonby Julia Bainbridge, copyright © 2020. Published by Ten Speed Press, an imprint of Penguin Random House. Photography copyright: Alex Lau © 2020.
+Buy the full book fromAmazonorBookshop.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Taking a break from booze? You can still make great drinks.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Two booze-free recipes—and more suggestions—from the author of *Good Drinks: Alcohol-Free Recipes for When You’re Not Drinking for Whatever Reason.*</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ounce gin,1/2 ounce Cointreau,1/2 ounce Lillet Blonde,3/4 ounce fresh lemon juice,Dash Absinthe,Garnish: orange or lemon twist (optional),Combine gin, Cointreau, Lillet, lemon juice, and absinthe in a cocktail shaker. Shake with ice until well chilled. Strain into a chilled cocktail glass and garnish with twist if desired.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,First, pick your costume. Then pick your poison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 fennel bulb with fronds,1/4 cup packed arugula leaves,3/4 ounce fresh lime juice,3/4 ounce 1:1 simple syrup (see note),2 ounces gin,GARNISH: lime wheel, arugula leaf, or peppery flower (such as nasturtium; optional),Using a mandoline or vegetable peeler, thinly slice enough of the fennel bulb to yield 1/4 cup (about 1/2 small bulb). Add a pinch of the fennel fronds to a cocktail shaker along with sliced fennel and arugula leaves. Add lime juice and simple syrup and muddle until the fennel is bruised. Add gin and fill with ice. Shake vigorously until chilled, about 12 seconds. Double-strain into a chilled coupe glass and garnish with lime wheel, arugula leaf, or nasturtium if desired.,FromThe One-Bottle Cocktail© 2018 by Maggie Hoffman. Published by Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Spring is in the air...and in this weekend-welcoming cocktail.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Make-ahead dishes for Thanksgiving and a few easy, satisfying meals for the days leading up to it.,When you combine them with a bottle of booze, of course.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 approximately 7-oz. bottle tonic water (such as Fever Tree or Q), chilled,2 oz. gin, preferably chilled,Grapefruit slice, lime wedge, cucumber slice, or fresh herbs (for serving; optional),Fill a highball or Collins glass about two-thirds full with ice, then addabout 2 oz. tonic, followed by2 oz. ginand the remaining tonic. Garnish with agrapefruit slice, lime wedge, cucumber slice, or fresh herbsif desired.,Natasha David’s low-ABV pitcher cocktail is just the thing to sip when it's hot out. Learn how to make the easy pitcher drink for summer.,A few rules to remember: Make it cold. And forget the lime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,November 2011 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/4 cup gin,2 tablespoons Chartreuse liqueur,2 tablespoons fresh lime juice,2 tablespoons maraschino liqueur (such as Luxardo),2 lime twists,Ingredient info:Luxardo maraschino liqueur is sold at well-stocked liquor stores and bevmo.com.,Pour gin, Chartreuse, lime juice, and maraschino liqueur into a cocktail shaker. Add ice; cover and shake vigorously 10 times. Strain into 2 chilled coupe or Martini glasses. Garnish each with a lime twist.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 tsp. Diamond Crystal or ½ tsp. Morton kosher salt,½ tsp. cumin seeds,1½ oz. tequila blanco,1 oz. fresh lime juice,½ oz. agave nectar,½ oz. triple sec,½ tsp. ground turmeric,Lime wedge and mint sprig (for serving),Special equipment,A spice mill or mortar and pestle,Coarsely grind salt and cumin seeds in a spice mill or with a mortar and pestle. Transfer to a small plate.,Fill a shallow bowl with water. Dip rim of a rocks glass or margarita glass in water, then dip in cumin salt. Fill glass with ice and set aside.,Combine tequila, lime juice, agave, triple sec, and turmeric in a cocktail shaker. Fill shaker with ice and shake until outside of shaker is frosty, about 20 seconds. Strain into reserved glass. Garnish cocktail with a lime wedge and mint sprigs.,Celebrate the warmer weather with these refreshing spring drinks.,Snack your way through this list.,Whether you're looking for the classics—such as gulab jamun, carrot halwa, and jalebi—or you're interested in finding some new dishes to add to your Diwali feast, these recipes will satisfy your sweet tooth *and* ensure you get something savory to eat, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,March 2019 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ cups chilled fino or manzanilla sherry,1½ cups Campari,To serve:,1 (750 ml) bottle chilled dry sparkling wine,18 orange wheels,Up to 24 hours before serving, make the batch. Pour sherry and Campari into a 2½- or 3-quart pitcher and stir to mix. Seal well, covering with plastic wrap if needed, and refrigerate if not serving immediately.,To serve, stir 1 cup ice and 6 orange wheels into pitcher mix, then carefully add chilled sparkling wine and stir again gently to mix. Pour into ice-filled wine glasses or rocks glasses and garnish each glass with an orange wheel.,FromBatch Cocktails: Make-Ahead Pitcher Drinks for Every Occasion© 2019 by Maggie Hoffman. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,It's time to pop some bottles.,No matter your skill level or available time, these simple recipes will help you pull off the meal of the year.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,Make dad drinks, not dad jokes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1⁄2 ounces honey,2 ounces mezcal, such as Del Maguey Vida brand,1 1⁄2 ounces freshly squeezed lemon juice (from 1 lemon),To make a honey syrup, in a small bowl or jar, combine the honey with 1 1⁄2 ounces water.,In a cocktail shaker, combine the mezcal, lemon juice, and 3⁄4 ounce of the honey syrup
+(save the remaining honey syrup for another cocktail). Fill the shaker three-quarters of the
+way with ice and shake vigorously for 10 seconds if serving on the rocks or 15 seconds if
+serving “up.” Strain into an ice-filled double old-fashioned glass or bucket glass, or serve
+up with no ice.,FromNopalito: A Mexican Kitchenby Gonzalo Guzmán with Stacy Adimando, copyright © 2017. Reprinted with permission by Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Make better cocktails at home by cracking open a bottle of mezcal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces Amaro Nonino,1 1/2 ounces Aperol,1 1/2 ounces bourbon,1 1/2 ounces fresh lemon juice, strained,Combine amaro, Aperol, bourbon, and lemon juice in a cocktail shaker. Fill with ice and shake vigorously until outside of shaker is frosty, about 20 seconds. Strain into 2 coupe glasses.,Celebrate the warmer weather with these refreshing spring drinks.,Peek behind the curtain at the dishes that Epicurious readers cooked this year.,There are many, many ways to enjoy whiskey season.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,These recipes for spiked hot chocolate, crowd-pleasing punches, festive Champagne cocktails, and more will bring the holiday spirit.,These classics—and new drinks—will keep you warm all winter.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Making delicious cocktails doesn't have to be fussy.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 English hothouse cucumber,5 makrut lime leaves or four 2-inch strips lime zest,2 teaspoons raw sugar,4 lemon wheels, divided,4 ounces gin,1 ounce fresh lime juice,Club soda (for serving),Using a vegetable peeler, shave 4 long, thin ribbons from cucumber; set aside. Cut a 4" piece from remaining cucumber and coarsely chop. Muddle with makrut lime leaves, sugar, and 2 lemon slices in a cocktail shaker. Add gin and lime juice and fill shaker with ice. Cover and shake until outside of shaker is frosty, about 20 seconds.,Strain into 2 ice-filled Collins glasses. Top off each with club soda. Gently stir to combine; garnish each with 2 reserved cucumber ribbons and remaining lemon slices.Editor’s note: As a part ofour archive repair project, this recipe has been updated to remove an offensive term for makrut lime.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Nothing's cooler than a cucumber.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toss out the OJ and Prosecco. You don't need them anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces gin,¾ ounce lemon juice,1 bar spoon raspberry preserves,Combine all the ingredients in a cocktail shaker filled with ice and shake until chilled, about 15 seconds. Strain into a chilled coupe.,Excerpted from3-Ingredient Cocktails: An Opinionated Guide to the Most Enduring Drinks in the Cocktail Canon© 2017 by Robert Simonson. Photography © 2017 by Colin Price. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House LLC. All rights reserved.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1⅓ cups chilled mezcal,1⅓ cups chilled Lillet blanc,⅔ cup chilled 1:1 simple syrup (see Note),2¼ teaspoons celery bitters,¾ cup plus 2 tablespoons water,1⅓ cups fresh celery juice (from about 12 celery stalks),1 cup fresh lemon juice,Garnish: Smoked sea salt and thinly sliced lemon wheels,Up to 1 day before serving, make the batch. Pour chilled mezcal, chilled Lillet blanc, chilled simple syrup, celery bitters, and water into a 2-quart pitcher and stir to mix. Seal well, covering with plastic wrap if needed, and refrigerate.,Up to 2 hours before serving, prepare celery and lemon juices and stir into pitcher mix. Reseal and return to refrigerator if not serving immediately.,To serve, stir mixture well. Place a large ice cube in each rocks glass, then pour in cocktail and garnish with a small pinch of smoked salt and a lemon wheel, if desired.,FromBatch Cocktails: Make-Ahead Pitcher Drinks for Every Occasion© 2019 by Maggie Hoffman. Reprinted by permission of Ten Speed Press.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Not that there's anything wrong with a simple snack.,Make better cocktails at home by cracking open a bottle of mezcal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,July 2005 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1/2 cup sugar,1 cup water,1/4 cup crème de cassis,1 1/2 cups assorted berries such as blackberries, blueberries, and raspberries,1 (750-ml) bottle chilled dry rosé wine,2 teaspoons fresh lemon juice, or to taste,Put berries into a heatproof pitcher. Bring sugar, water, and crème de cassis just to a simmer in a small saucepan, stirring until sugar is dissolved. Pour syrup into heatproof pitcher and let stand 5 minutes. Add wine and lemon juice and stir mixture well. Chill, covered, until ready to serve. Serve over ice.,Celebrate the warmer weather with these refreshing spring drinks.,The reason for the season is berries. Boozy berries.,This entire Memorial Day menu can be prepped at least a day in advance, and doesn't require a grill.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 1⁄2 ounces Dassai 50 sake,1 ounce Plymouth gin,1⁄2 teaspoon Maraska maraschino liqueur,Cherry blossom,Combine the liquid ingredients in a mixing glass filled with ice and stir until chilled, about 30 seconds. Strain into a chilled coupe. Garnish with a cherry blossom.,Excerpted fromThe Martini Cocktail: A Meditation on the World's Greatest Drink, with Recipes© 2019 by Robert Simonson. Photography by Lizzie Munro. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House. All rights reserved.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,For a simple drink, a martini involves a lot of choices. We're here to help.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,October 2014 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Honey syrup:,1/4 cup clover honey,2 tablespoon hot water in a small jar,Assembly:,6 tablespoons gin,3 tablespoons fresh lime juice,2 tablespoons Aperol or Capelletti,1 tablespoon honey syrup,2 dashes of Angostura bitters,Ice,Champagne or sparkling wine,Lime wheel for garnish,Combine 1/4 cup clover honey and 2 tablespoon hot water in a small jar; cover and shake to dissolve honey.,Combine 6 tablespoons gin, 3 tablespoons fresh lime juice, 2 tablespoons Aperol or Capelletti, 1 tablespoon honey syrup, and 2 dashes of Angostura bitters in a cocktail shaker; fill shaker with ice. Cover and shake until outside of shaker is frosty, about 30 seconds. Strain into 2 chilled coupe glasses. Top off with Champagne or sparkling wine and garnish each with a lime wheel. Repeat three more times.,Celebrate the warmer weather with these refreshing spring drinks.,It's time to pop some bottles.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bittersweet, citrusy Italian liqueur, sometimes called Campari's gentler sibling, can be used in a wide array of drink recipes.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,It wouldn't be a proper party with a Champagne cocktail (or three).,When our writer fell in love with honey, she fell in love *hard*—and her cooking life became all the better for it. Now, she shares how you, too, can become a honey addict.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 ½ oz. reposado tequila (such as Partida),½ oz. Martini Rosso vermouth,½ oz. Dolin dry vermouth,½ oz. Campari,1 dash Angostura bitters,Garnish: 1 orange twist,Stir with ice, then strain into a chilled coupe. Garnish with the orange twist.,Reprinted with permission fromMeehan’s Bartender Manualby Jim Meehan, copyright © 2017 by Mixography Inc. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.,37 tequila drinks to make at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 part dry vermouth,1 part amontillado sherry,Orange bitters,For individual drinks, stir vermouth, sherry, and a dash or two of orange bitters together with ice, then strain into a coupe glass. Alternately, build in a rocks glass with ice and stir until chilled.,Alternatively, to mix a batch of Bamboo cocktails, combine half a bottle (375 ml) each of vermouth and sherry and a teaspoon or thereabouts of orange bitters in a bottle or resealable jar. Add 1 teaspoon orange bitters. Keep in the fridge to be served when and however you fancy it.,Reprinted with permission fromAperitif: A Spirited Guide to the
+Drinks, History and Culture of the Aperitif, copyright © 2018 by Kate Hawkings. Published by Quadrille Publishing.
+Buy the full book fromAmazonorBookshop.,Celebrate the warmer weather with these refreshing spring drinks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. (60 ml) gin,1 oz. (30 ml) fresh lime juice,¾ oz. (22 ml) simple syrup (1:1, see headnote),8–10 fresh mint leaves,2 dashes Angostura bitters (optional),Mint leaf, to garnish,Combine all the ingredients in a cocktail shaker filled with ice and shake vigorously for 15–20 seconds, or until frosted on the outside. Double strain into a coupe. Garnish with a mint leaf.,For an East Side, muddle a few cucumber slices with the mint and garnish with a fresh cucumber slice.,Substitute vodka or tequila for the gin.,Serve in a highball glass over fresh ice and top with club soda.,Add 1–2 dashes of absinthe to make the French Pearl cocktail.,Reprinted fromSpirited: Cocktails from Around the World, by Adrienne Stillman. © 2020 Phaidon Press
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1½ oz. mezcal, such as Ilegal Mezcal Joven,¾ oz. Lillet Blanc,½ oz. Dolin Dry Vermouth,¼ oz. Yellow Chartreuse,½ tsp. Luxardo Maraschino Liqueur,2 dashes Peychaud’s Bitters,Grapefruit twist for garnish,Add all the ingredients, except the grapefruit twist, to a mixing glass with ice and stir. Strain over a large ice cube in a rocks glass. Express the grapefruit twist over the drink and then rest the twist on the cube in the glass.,FromSpirits of Latin America: A Celebration of Culture &amp; Cocktails, with 100 Recipes from Leyenda &amp; Beyondby Ivy Mix, copyright © 2020. Photographs by Shannon Sturgis. Published by Ten Speed Press, a division of Penguin Random House, Inc.
+Pre-order the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.,Make better cocktails at home by cracking open a bottle of mezcal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 1/2 ounces Cocchi Americano Bianco,1 ounce elderflower liqueur, such as St-Germain,2 ounces club soda,1 grapefruit twist,Fill a 10-ounce Collins glass with ice. Add Cocchi and elderflower liqueur. Top with club soda, stir briefly with a long cocktail spoon, and garnish with a grapefruit twist.,Celebrate the warmer weather with these refreshing spring drinks.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Want a cocktail without quite as much booze? Good news: You don't have to go light on flavor or personality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 ounces gin,¼ ounce dry vermouth,¼ ounce absinthe,Combine all the ingredients except the lemon twist in a mixing glass filled with ice and stir until chilled, about 30 seconds. Strain into a chilled coupe. Express a lemon twist over the drink and drop into the glass.,Excerpted from3-Ingredient Cocktails: An Opinionated Guide to the Most Enduring Drinks in the Cocktail Canon© 2017 by Robert Simonson. Photography © 2017 by Colin Price. Reproduced by permission of Ten Speed Press, an imprint of Penguin Random House LLC. All rights reserved.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The bottle's not going to drink itself. But you don't have to commit to a dozen martinis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the simple syrup:,1 cup Demerara sugar,1 cup water,For the cocktail:,2 ounces gin (such as Beefeater),1 ounce fresh lemon juice,⅔ ounce simple syrup,Small bunch basil leaves (about 10),Basil sprig, for garnish,Heat the sugar and water in a saucepan over medium heat. Do not boil. Stir until sugar dissolves, about 3 to 5 minutes, then remove the pan from the stove. Cool. Transfer the syrup to a clean bottle or jar. Cover and refrigerate.,Muddle basil leaves with lemon juice and simple syrup. Add ice and gin and shake. Double-strain into a chilled cocktail glass with ice. Garnish with a basil sprig.,Text excerpted from THE NEW COCKTAIL HOUR © 2016 by André Darlington and Tenaya Darlington. Reproduced by permission of Running Press. All rights reserved.,Celebrate the warmer weather with these refreshing spring drinks.,Grills on, ovens off—unless you're baking dessert.,Aromatic, bright, and bursting with flavor, basil isn't just a garnish—it makes the dish.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,Make dad drinks, not dad jokes.,Toss out the OJ and Prosecco. You don't need them anymore.,Most cookbooks just feature a chapter on making cocktails. We philosophize on the five best cocktail books for spring and summer entertaining.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Tanqueray gin,0.75 oz. lemon juice,0.5 oz. Luxardo maraschino liqueur,0.25 oz. Rothman &amp; Winter crème de violette,Garnish: None,Shake with ice, then fine-strain into a chilled coupe.,Reprinted with permission fromMeehan’s Bartender Manualby Jim Meehan, copyright © 2017 by Mixography Inc. Published by Ten Speed Press, an imprint of Penguin Random House LLC.
+Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2018 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 oz. Campari,3 oz. dry rosé,Splash of lemon soda,1 lemon wheel,Pour Campari and rosé into a rocks glass filled with ice. Top off with soda, stir gently to combine, and add lemon wheel.,Got a bottle of Campari and not sure how to use it? You've come to the right place.,Celebrate the warmer weather with these refreshing spring drinks.,Whether served with hors d’oeuvres or sipped post-pie, these seasonal cocktail recipes make for a more festive holiday.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Making delicious cocktails doesn't have to be fussy.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.,Toast to the season with spiced cider, hot chocolate, eggnog, and plenty of sparkling wine.,Smoked trout flatbread. Grilled chicken. This is June.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the cocktail:,1 1/2 cups fresh or frozen red berries,3/4 cup sugar,1 1/4 cups vodka,3/4 cup fresh lemon juice,1 teaspoon rose water,For the ice cube garnish (optional):,Fresh or frozen red berries,Small roses or rose petals,Bring berries, sugar, and 1/2 cup water to a simmer in a small saucepan over medium-low heat. Remove from heat and let steep 15 minutes.,Strain syrup through a fine-mesh sieve into a pitcher. Add vodka, lemon juice, rose water, and 5 cups water and stir to combine.,Divide cocktail among ice-filled glasses.,If using, fill 2 ice cube trays one-quarter full with water. Add berries and roses to your liking. Freeze until beginning to set, about 1 hour. Fill ice cube trays the rest of the way with water and freeze until solid, 3–4 hours.,Berry syrup can be made 3 days ahead. Cover and chill. Ice cubes can be made 1 month ahead. Keep frozen.,Celebrate the warmer weather with these refreshing spring drinks.,Packed with fresh herbs and bright flavors, these Easter brunch recipes include our favorite egg dishes, sweet buns, and cheeky brunch cocktails.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Pucker up—these recipes put lemon front and center.,Turn up the festivity factor at any holiday party with these Champagne punches, boozy riffs on hot chocolate, non-alcoholic sippers, and more.,Waited until the last minute to plan your cookout menu? Don't panic. Labor Day is all about casual, grillable eats that you can throw together easily.,Embrace the height of summer with tomato salad, grilled steak with citrus, coconut lime pops, and more.,Love yourself? Love someone else? Either way, toast to Valentine's Day with these bright and beautiful cocktails.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,May 2010 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,10 green grapes, halved,4 fresh strawberries, hulled and sliced,1 peach, pitted and sliced,1 bottle (750 milliliters) Cava (or dry sparkling wine),1 1/2 cups white grape juice,1/2 cup Licor 43 (found at liquor stores),2 sprigs fresh mint,Fill a large glass pitcher halfway with ice; add fruit. Tilt pitcher and pour Cava very slowly down side (to preserve bubbles). Add juice and liquor; stir gently. Stir in mint.,Per serving: 167 calories,0.1 g fat,(0 g saturated),18.1 g carbohydrates,0.5 g fiber,0.3 g protein. Nutritional analysis provided by Self,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,The reason for the season is berries. Boozy berries.,Making cocktails for a group can be a tall order, but only if you overcomplicate things. Do yourself a favor and skip the fancy, 10-ingredient cocktails. Instead, master a few punches and drinks that scale up to pitcher size easily.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,June 2012 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,1 tablespoon raw sugar,3/4 cup berry preserves, preferably lingonberry,4 cups soda water (32 ounces),2 cups aquavit or vodka,8 lemon twists,Combine sugar and 1 tablespoon hot water in a pitcher. Stir to dissolve. Add preserves. Using a wooden spoon, stir to loosen preserves and mix with simple syrup. Gently stir in soda water and aquavit.,Fill tumblers with ice. Divide aquavit spritzer equally among glasses and garnish each with a lemon twist.,Celebrate the warmer weather with these refreshing spring drinks.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Toss out the OJ and Prosecco. You don't need them anymore.,Want a cocktail without quite as much booze? Good news: You don't have to go light on flavor or personality.,The reason for the season is berries. Boozy berries.,Toast? Great. PB&amp;J? No complaints. But those jars of fruit in your pantry can be put to a more decadent use, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,April 2013 Issue,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,2 tablespoons fresh (or frozen, thawed) peas,1 lemon wedge,1 teaspoon sugar,2 ounces vodka,1 pea tendril (optional),Muddle 2 tablespoons fresh (or frozen, thawed) peas, 1 lemon wedge, and 1 teaspoon sugar in a cocktail shaker until peas are completely mashed. Add 2 ounces vodka; fill shaker with ice. Cover and shake until outside of shaker is frosty, about 30 seconds. Pour through a fine-mesh strainer into a chilled coupe glass. Garnish with a pea tendril (optional).,Celebrate the warmer weather with these refreshing spring drinks.,Variations on the Bloody Mary and the Martini? Yes. But lots more, too.,Shelling peas, sugar snap peas, snow peas, pea shoots… We love them all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,For the ginger-rhubarb shrub:,2 pounds rhubarb, cut into 1/4" pieces (about 6 cups),1 (7-inch) piece ginger, unpeeled, cut into 1/4" coins (about 1/4 cup),3/4 cup apple cider vinegar,1 1/4 cups sugar,For each cocktail:,2 ounces gin,1/2 ounce fresh lime juice,Club soda (for serving),Combine rhubarb, ginger, vinegar, and sugar in a medium saucepan over medium-high heat. Cover and bring to a boil, then reduce heat to low. Cook, stirring occasionally, until rhubarb is completely broken down and strands are visible, 10–15 minutes.,Using a fine-mesh sieve or a colander lined with cheesecloth, strain mixture into a glass container. Let cool to room temperature, then chill.,Combine gin, lime juice, and 1 1/2 ounces reserved ginger-rhubarb shrub in a cocktail shaker. Fill shaker with ice and shake until outside of shaker is frosty, about 30 seconds. Strain into an ice-filled Collins-style glass, filling three-quarters full. Top off with club soda.,These magenta stalks are only around for a short time in spring. Cook ’em while you can.,Celebrate the warmer weather with these refreshing spring drinks.,Whether you like your gin drinks bracing and boozy or light and refreshing, stirred or shaken, frozen or fizzy, there’s a recipe here for you.,The cocktail equivalent of a cool breeze on a warm spring day, spritzes are usually low in alcohol—great for an afternoon of whiling the hours away.,Get on the road to recovery with grilled vegetables, low- (or no-!) alcohol cocktails, and restorative broths.,This was the year we finally did all the things we're supposed to do with our pantries—making our own vinegars, our own salts, even our own pastas. And what do you know? It really did make us better cooks.,2015 was the year of drinking and drinking, but never (okay, rarely) having too much.,There are so many great vegetables available right now. Let's put them on a pizza!!,Making cocktails for a group can be a tall order, but only if you overcomplicate things. Do yourself a favor and skip the fancy, 10-ingredient cocktails. Instead, master a few punches and drinks that scale up to pitcher size easily.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,To revisit this recipe, visit My Account, thenView saved recipes.,Wheel of English cucumber,½ oz. Cynar,1½ oz. Pimm’s No. 1,4 oz. tonic water, such as Fever-Tree,Garnish: long English cucumber spear and lemon wedge,Muddle the cucumber wheel and Cynar in the bottom of a highball glass. Add ice cubes, Pimm's, and tonic water. Stir gently, then add the cucumber spear and the lemon wedge.,Reprinted fromThe New Craft of the Cocktail: Everything You Need to Know to Think Like a Master Mixologist, with 500 Recipesby Dale DeGroff. Copyright © 2020. Photographs by Daniel Krieger. Published by Clarkson Potter, a division of Penguin Random House, LLC. Buy the full book fromAmazon.,Celebrate the warmer weather with these refreshing spring drinks.,Cool off—and get a little tipsy—with these refreshing summer favorites.,Fresh spring cocktails that are easy to make at home.,Get a head start on spring cooking, even if you don’t have spring produce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>i’ll never get tired of refreshing summer cocktail recipes. this strawberry gin rickey cocktail is a sweet and fruity cocktail with gin. you need to make a strawberry basil simple syrup and then combine it with the other ingredients. this is a tasty variation on a classic gin rickey to try this summer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>my blueberry lemon and cucumber gin mojitos combine sweet blueberries with refreshing lemon, cucumber and mint. a healthy dose of gin unites the flavour profiles of these late summer sippers and a splash of soda water adds just the right amount of sparkle. my gin mojitos are free of refined sugars and made with all natural ingredients — so the next time you’re craving a cooling summer cocktail, indulge yourself with a fresh twist on the classic mojito!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>a french gimlet is a sophisticated st germain cocktail with a spin on the classic! three ingredients (st germain, lime and gin) combine make this refreshing and chic drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>hawaiian mimosas - this easy cocktail recipe has just three ingredients and will make you think you're on a beach in paradise. pineapple, rum, and champagne is all it takes to make this delicious cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>i have a yummy winter cocktail recipe for you today. the presentation of it is so cute too, perfect for a winter gathering with friends! it’s a creamy drink that tastes like smores complete with a roasted marshmallow on top! i like to serve with molasses gingersnap cookies! yield: 1author: my sweet savannahprint recipe campfire cocktail ingredients: mix ... read more about campfire cocktail recipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>a magical color-changing galaxy lemonade recipe inspired by the new book, sanity &amp; tallulah by molly brooks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>fact: a little bit of sparkling prosecco will make any drink a lot more festive. whip up one of these simple, bubbly cocktail recipes the next time you need to impress your girlfriends. or your in-laws. or heck, yourself. whether you need a crowd-pleasing punch for a new year’s eve bash or a...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>this lychee mojito is an exotic, floral take on the every day mojito. filled with lychees, strawberries, a splash of rose water and white rum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>a frozen gin and tonic recipe to cool you down during the hot summer months!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>looking for a strawberry mojito recipe for cachaça or dark rum? this classic cocktail is a drink with strawberries, mint and lime. while a mojito has always been an easy summer cocktail recipe, adding strawberries dials up the flavour. you can make also this cocktail with white rum or cachaça.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>elderflower and gin make the perfect pairing for spring cocktails! light, floral, elegant - these three simple cocktail recipes are ideal for spring sipping.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>this easy cranberry moscow mule is the perfect holiday cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>a festive fall cocktail that boasts all fresh flavors of autumn with a little apple, maple, and bourbon!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>how to make the best old fashioned cocktail at home with bourbon like a professional mixologist at a fancy restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>this summery strawberry lime vodka smash is the perfect vodka cocktail to sip on a hot day! sweet, tart, refreshing and easy to make!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>visit entertaining blog the sweetest occasion for the best summer cocktail recipes including this mango sunrise piña colada recipe perfect for summer parties!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>the sex in the driveway cocktail recipe is a variation on the sex on the beach cocktail. it replaces the cranberry juice with blue curacao, so you get a drink that's blue in color and more orange in flavor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>mint strawberry moscow mule is the perfect summer cocktail. made with vodka and ginger beer, its super easy and our go to drink these days!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>frozen peach bellini cocktail – light, refreshing and super easy to make! this elegant cocktail slush will be a hit for any summer party. all you need is 3 ingredients and 5 minutes – s…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>elderflower and gin make the perfect pairing for spring cocktails! light, floral, elegant - these three simple cocktail recipes are ideal for spring sipping.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>wine lovers, this moscow mule is for you!! sangria mexican mule is a tequila based version of the classic moscow mule along with red wine and berries. making it fruity, zingy and a guaranteed win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>from prickly pear margaritas to lavender gin and tonics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>add the punch you need to your drink, and treat yourself to the pineapple mango rum punch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>it’s time to put away the rosé (see you next june) and retire those spritzy spiked seltzers you’ve been drinking all summer. fall is here, and with it, a new set of libations to warm you up from the inside out. think maple new york sours, cider spiked with bourbon and pumpkin...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>this raspberry gin fizz is the perfect spring or summer cocktail. it's not only beautiful, it's super tasty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>love a delicious 3 ingredient drink recipe? this creamy root beer rum cocktail tastes like an adult version of a root beer float.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>“i think this has all the flavours of spring, plus my favourite new ingredient to experiment with: blueberries!”</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>for spring, i’m loving this rosemary grapefruit refresher. it’s so yummy and light, and it works for brunch or dinner time sipping. i just love how the...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>wine lovers, this moscow mule is for you!! sangria mexican mule is a tequila based version of the classic moscow mule along with red wine and berries. making it fruity, zingy and a guaranteed win.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>this peach rosé sangria is an easy to make summer cocktail that's perfect for a party or sipping on the patio on a hot day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>these two creamy cocktails have been inspired by bahlsen choco leibniz with a taste baileys, which we sent to our members in their october 2020 gin of the month boxes. each of these easy cocktail recipes combines chocolate, baileys and gin in the most delectable ways!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>when you want a refreshing caribbean beverage, enjoy a tall glass of my pink pirate rum punch. a hammock on a white sand beach is one of my favorite places</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>this raspberry limoncello prosecco is the perfect sparkling summer cocktail to enjoy year round, made with fresh muddled raspberries, lemon, and your favorite wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>this 7-ingredient blackberry basil mojito is refreshing, simple to make, and a lovely balance of tart and sweet. perfect for happy hours, entertaining, and making the most of all that beautiful summer produce.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>it might be time for a vacation. lately i've been dreaming of a small island, someplace warm and tropical, where i can sit back and run my toes through the perfect white sand while sipping delicious cocktails. this colada sunrise is just the thing. to riff on a traditional piña colada, i added some mango juice and grenadine, giving it lots of fruity flavor and beautiful colors. best of all, it’s low-proof enough that you can probably enjoy more than one before moving onto your typical daiquiri, margarita, or other warm-weather drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>fact: a little bit of sparkling prosecco will make any drink a lot more festive. whip up one of these simple, bubbly cocktail recipes the next time you need to impress your girlfriends. or your in-laws. or heck, yourself. whether you need a crowd-pleasing punch for a new year’s eve bash or a...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>with only 4 ingredients, this delicious blueberry margarita recipe comes together in a matter of minutes. simple, smooth, and sweet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>this christmas punch is the perfect drink to serve at any holiday gathering! make it with sparkling wine or alcohol-free!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>a black magic/galaxy cocktail that is shimmering and black. a mix between a lime daiquiri and lime martini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>this lemon drop martini with limoncello is one of the best lemon drop martini recipes! plus, i love a good limoncello cocktail recipe, you can never go wrong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>several weeks ago i was contacted by a pr firm asking if bourbon &amp; banter would be interested in having one of the mixologists that represented create</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>apple cider sangria the perfect fall cocktail recipe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>a fresh, summer-friendly grapefruit cocktail perfect for outdoor parties</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>a peanut butter white russian is a delicious twist on a classic cocktail. it’s smooth and creamy and quite possibly the perfect after dinner treat.   while a cl…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>hawaiian mimosas - this easy cocktail recipe has just three ingredients and will make you think you're on a beach in paradise. pineapple, rum, and champagne is all it takes to make this delicious cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>the dirty shirley temple is made with ginger ale, grenadine, maraschino cherries and vodka to turn a favorite childhood beverage into an adult one!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>this martini made from fresh blood orange juice, vodka and triple sec tastes just as delicious as it looks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>this delicious salty dog cocktail is my favorite beach cocktail. the mix of grapefruit and vodka with a hint of lime and salt is so refreshing and tasty!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>transport yourself somewhere sunny and relaxing with this tropical fruit and coconut rum caribbean punch cocktail/</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>we compiled 20 of the best two-ingredient cocktails, featuring gin, tequila, vodka, whiskey, bourbon, scotch, rum &amp; liqueur. get the recipes!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>adapted from the berry bible. the simple syrup recipe in the notes is for a larger batch of simple syrup to keep on hand. it keeps for months in the fridge if you store it in a clean container. if you don't want to make the simple syrup (although it always great to have on hand) you can muddle in about 1 tablespoon (or to taste) of sugar instead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>this light and refreshing gin cocktail is sweetened with pomegranate juice and spicy ginger beer. the ultimate crowd-pleasing cocktail recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>the long beach iced tea is like a long island iced tea, except you swap the cola for cranberry juice. it's a tart, refreshing drink. it's also madly strong, so if you want to make it more of a standard drink, just use an ounce and a half of one of the white liquors and leave the rest out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>this blackberry tequila spritzer is earthy, zesty and full of texture. it’s focused on the flavor of quality tequila, blackberries and a red wine float.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>one sip of this and you won't want any other warm winter cocktail ever again. it's rich, creamy and loaded with bailey's. the perfect winter cocktail for snuggling up with on christmas eve while watching a christmas film.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>what better way to celebrate bourbon heritage month than with a dozen classic cocktails. we start out with two favorites, neat and on the rocks. stop here?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>the best fresh raspberry mojito recipe - made with agave, fresh lime, mint and raspberries. minty refreshing mojitos with a touch of fresh raspberry make the perfect party cocktail. cheers!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>mix up this easy adult pink lemonade recipe for your summer parties and barbecues and turn your favorite childhood drink into a summer cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>this pineapple mango rum punch is a special recipe that will make you feel like you’re in the caribbean. this recipe is super easy to make, and perfect for parties and entertaining.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>this strawberry basil margarita is a fun twist on the classic margarita. it's a sweet, tart and refreshing cocktail, perfect for celebrating.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>this christmas martini is easy to make and perfect for holiday festivities! it's a cranberry cocktail that's sweet tart and drinkable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>blending with ice makes this mango daiquiri the perfect summer cocktail. sweet and brimming with mango flavour, this colourful drink is also very easy to make.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>the painkiller was first made in the british virgin islands with pusser’s navy rum. you may notice it on menus with the numbers #2, #3, and #4 after its name; that indicates how many ounces of rum are used. it’s essentially a boozier piña colada, and is sure to drown any and all sorrows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>electric lemonade is an easy party punch recipe! this lemonade pitcher cocktail has lemonade, blue curaçao, vodka and a natural sweetener syrup to make it as sweet as you want it. this is the perfect summer cocktail recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>this earl grey blackberry bourbon cocktail is rich, warm and fruity. it’s the perfect cocktail to drink as summer turns into fall. get the recipe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>today i’ve listed out some delicious, natural, low sugar tequila recipes to help you celebrate cinco de mayo the right way!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>this icy peach bourbon cocktail is the perfect refreshing sip on a hot summer night! inspired by my trip to wiggly bridge distillery in york, maine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>it’s time to put away the rosé (see you next june) and retire those spritzy spiked seltzers you’ve been drinking all summer. fall is here, and with it, a new set of libations to warm you up from the inside out. think maple new york sours, cider spiked with bourbon and pumpkin...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>thanksgiving bourbon pecan pie in a glass!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>the paloma is a mexican favorite cocktail. made with fresh grapefruit juice and silver tequila it's is arguably more refreshing than a margarita.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>celebrate fall weather and flavors by mixing up a apple pie moscow mule! apple cider serves as the base of this cocktail. mix with ginger beer, vodka, a squeeze of lime and cinnamon simple syrup. sweet, but not too sweet, this autumnal twist on a classic moscow mule tastes like a slice of apple pie. whether you're serving yourself or a crowd, these apple pie moscow mules are flavor-filled, balanced, unique cocktail to serve at any gathering!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>this classic gin cocktail is perfectly balance with just the right amount of sweetness plus citrus.  with only 3 ingredients, it's also so easy to make!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>fresh raspberries and sweet raspberry jam, smashed together with rosemary, lemon, apple cider vinegar, vodka, and fizzy sparkling water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>this raspberry mojito recipe is an easy refreshing summer drink that combines sweet raspberries, rum, and mint for the perfect sit-back-and-relax drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>this cranberry thyme spritz is this year's party punch. not only is it extra festive and pretty, but it's sweet, hinted lightly with flavors of thyme, spiked with a little vodka, and made with my very favorite, elderflower liquor. it's basically the perfect sweet holiday drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>these grapefruit margaritas are a healthy spin on the classic cocktail that use just 4 ingredients. they're light, refreshing and have no added sugar!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>this party worthy appletini is a four ingredient delicious sour apple cocktail that is made in less than two minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>strawberry lime vodka tonic is made with vodka, tonic water, freshly squeezed lime juice, fresh strawberries and just a pinch of sugar with a sugar rim and a lime slice garnish.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>cranberry orange gin fizz is a festive cocktail filled with holiday flavor! this easy drink recipe uses a naturally sweetened homemade cranberry sauce for a big punch of flavor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>blackberry bourbon smash is a blackberry cocktail created for those who love bourbon whiskey. a refreshing, fruity, twist on a timeless classic. mix up one tonight.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>gin and tonic with grapefruit &amp; rosemary summer cocktail recipe - great for brunch, parties, weekends and happy hour! click through to get the easy recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>day 98 bahama mama 5 shots out of 5 i have had this cocktail on one of my boards on pinterest for a while now. all i was missing was my captain morgans spiced rum. made a grocery shopping run today and picked it up so that i could make a bahama mama, and boy am i glad i did!! i gave tonight's cocktail 5 shots out of 5. i found this cocktail on pinterest where it was linked to ecurry blog. thank you for sharing the scrumptious bahama mama with us all! this cocktail is all kinds of amazing. i can smell the banana liqueur when i take a sip, which as we know, makes me happy. the 2 rums together with the juices......mmmmmm, what a great blend! even my husband likes it! i gave him the glass after i took a sip, went to put away my bottles then came back to drink it and write my blog.......and........it was almost half gone! if it wasn't so late, i would definitely make another one when this one is gone. this cocktail is a must try! here is a photo of the end result: here is a photo of the ingredients: here is the recipe for a bahama mama: 3/4 ounce coconut rum 3/4 ounce banana liqueur 1 ounce spiced rum 1 1/2 ounces orange juice 2 1/2 ounces pineapple juice 1 tablespoon grenadine in a shaker add ice and all of the ingredients. shake it up real good to mix everything up well. in a hurricane glass, fill 1/2 way with crushed ice and then strain in your cocktail. since we had to watch the american idol finale (not commenting on who won), tonight's cocktail was made later. since tonight's cocktail was made later............i only get 1.......boo. cheers!! the cocktail lady</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>for spring, i’m loving this rosemary grapefruit refresher. it’s so yummy and light, and it works for brunch or dinner time sipping. i just love how the...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>this raspberry limoncello prosecco is the perfect sparkling summer cocktail to enjoy year round, made with fresh muddled raspberries, lemon, and your favorite wine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>a cosmopolitan cocktail is a simple four-ingredient vodka drink that is so easy to make at home. it’s pink, a little tart and a little sweet and a perfect cocktail for happy hour!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>this strawberry mojito is made with fresh muddled strawberries and mint and as always, a generous helping of rum</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>sip on this pretty blue devil cocktail as you are chilling out by the pool. made with rum, blue curacao and orange juice it is a cocktail perfect for the summer with its tropical flavors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>i promised over the summer when i shared my grapefruit moscow mule recipe that i was going hard on moscow mules from basically now until eternity. i'm making good on my word today, with your</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>this key lime cocktail with coconut rum and fresh key limes is a delicious summer slushie for the grown-ups! this will cool you off all summer long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>it's no secret we love margaritas, but there is so much more to do with tequila! from fruity drinks to coffees and spiced drinks, these tequila drinks that aren't margaritas are sure to be a favorite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>entertaining season is upon us and you know what that means...time to drink champagne and dance on tables! no, but seriously...we are all eagerly awaiting summer and the festive gatherings that come along with it. we</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>whiskey lemonade made with homemade lemonade from freshly squeezed lemons, sweetened with honey rather than sugar, and mixed with a shot of whiskey.  it's easy, refreshing and made in a pitcher so its easy to share with friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>this national vodka day cocktail is a sparkling fig and vanilla bean vodka libation called the "no fig deal," made with pau maui vodka!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>it’s time to put away the rosé (see you next june) and retire those spritzy spiked seltzers you’ve been drinking all summer. fall is here, and with it, a new set of libations to warm you up from the inside out. think maple new york sours, cider spiked with bourbon and pumpkin...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>it’s time to put away the rosé (see you next june) and retire those spritzy spiked seltzers you’ve been drinking all summer. fall is here, and with it, a new set of libations to warm you up from the inside out. think maple new york sours, cider spiked with bourbon and pumpkin...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>a spicy margarita that's so good it will change your life and have everyone begging for more!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>the sex on the beach cocktail is a classic drink recipe. it features vodka, peach schnapps, grapefruit juice (or orange juice) and cranberry juice. the taste is fruity with just enough tartness to keep it from being too sweet. the alcohol flavor isn't very noticeable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>spicy salty dog - freshly squeezed grapefruit juice, vodka, and jalapenos! so refreshing and delicious, the perfect spicy cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>not too sweet or too tart, this cosmopolitan cocktail recipe is perfect to serve one or many. we like to use unflavored or citrus flavored vodka in this. if you can, since there is quite a lot of vodka in the recipe, choose vodka that is medium priced or that’s even top-shelf. we like to use stolichnaya. we love adding a little orange peel to this. sure, it may look like an unnecessary garnish, but if you do it right, it’s adds a little sweetness and as you go into to take a sip of the cosmopolitan cocktail, you’ll get orange essence, which hides the strength and scent of the vodka. when you add the orange peel, peel it over the drink. this way, any oils that spray out from the orange, fall into the drink. rubbing the edges of the glass doesn’t hurt either.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>easy to make paloma cocktail recipe using grapefruit and tequila as main ingredients. perfect party drinks with fewer efforts!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>spruce up your brunch cocktail by swapping out your orange juice with pink lemonade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>sour spicy green apple margarita • for your st. patrick's day party • hpnotiq breeze • mad hatter • the shamrock-arita • more ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>a vintage 1920's cocktail made from a refreshing mix of fresh lime juice, sparkling water and gin. this modern gin rickey with rosemary honey simple syrup. fresh rosemary is steeped in hot water and blended with honey to lightly sweeten the drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>a perfectly refreshing summer cocktail awaits you! muddled raspberries and mint combine with delicious ginger beer &amp; a little rosé wine - a winning combination!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>a bourbon smash made with fresh lime, fresh mint leaves, blackberries, and simple sugar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>last year, by request, we created a nine mocktail recipes. we were shocked by just how popular these original mocktails were, so we went back to the kitchen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>an epic grapefruit salty dog cocktail that'll be the envy of summer! this refreshing salty dog drink is a mix of fresh grapefruit juice, vodka, sparkling water with a hint of lime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>tropical rum punch is a delicious cocktail recipe to make for a party or sip by the pool. a mix of juices, peach schnapps and coconut rum layered with fruit. with just one taste and you'll be transported to the beach!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>the gin gimlet cocktail is one of those classics that have been around forever, and with good reason. the original gin gimlet was 2-parts gin to 1-part rose's lime juice. rose's lime juice is lime juice that is preserved with sugar, making it not only sweet but also shelf-stable. this gave the gin gimlet a tart and sweet flavor beloved by so many of us and as well as a prominent place in cocktail history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>lavender gin and tonic punch is light and refreshing! it's naturally flavored and the beautiful purple color is from butterfly pea tea. absolutely perfect party punch for spring and summer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>the apple cider mule is a mix of kinky vodka, limes, apples, apple cider, ginger beer, and spiced bitters to create a fusion of fall flavors for the perfect seasonal drink!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>this is the best frozen strawberry daiquiri recipe ever! what really makes it so special is the splash of lime juice and how simple it is. just 4 simple ingredients in barely 5 minutes!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>nothing says summer like a freshly cut slice of watermelon. this recipe from our friends at the national watermelon promotion board does the sweet fruit justice in the form of a boozy, colorful cocktail on the rocks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>indulge in an aperol aranciata cocktail during blood orange season on house - design, food and travel by house &amp; garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>talk about a holiday spirit! cranberry moscow mules are a perfectly sweet-tart, festively-hued seasonal drink. this classic cocktail with a twist will be a hit with merry-makers at all of your parties. craft individually, or create a large batch base so guests can make their own at a self-serve mule station.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>these creamsicle prosecco floats are reminiscent of a childhood favorite treat, and only require 3 ingredients! they are perfect for brunch with friends, dessert on a warm night, or whenever you want to treat yourself!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>a tropical marriage of orange and cranberry juices, vodka with a hint of peach and vanilla float over ice, your ultimate sexy cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>the moscow mule, in addition to being delicious, is the perfect cocktail to make at home. it’s simple and fresh, and will impress your friends, especially during the holiday season. i like to add some fruity variation to the classic recipe, usually in the form of a simple syrup. simple syrups are great to use in cocktails, as they add a lot of flavor without diluting the drink substantially. they’re also very easy to prepare: mix together 1 cup of sugar and 1 cup of water, then add a specific spice, fruit, or flavor. the mixture is then poured into a saucepan and heated until the sugar is dissolved. afterwards, strain the mixture and chill for your next cocktail concoction. as it happens, cranberries are currently in season and perfect for a simple syrup, as they add both bitter flavor and sweetness. to make it, add ½ cup of fresh cranberries to the standard simple syrup recipe. after the sugar is dissolved into the water the mixture is then strained into a container and can be used in all your holiday cocktails for up to two weeks. in addition to the cranberry simple syrup, the ginger beer adds a spicy festive flavor. so if you’re planning any holiday parties this year, consider making the fun and spirited cranberry moscow mule!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>a fruity and refreshing summer vodka cocktail made with muddled fresh strawberries and raspberries, fresh rosemary, blackberry jam, honey syrup, and lemon juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>a white christmas margarita pitcher recipe that will not disappoint. this creamy coconut margarita with lime juice, tequila, coconut water and cranberries tastes like summer and looks like christmas in a cup.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>these beautiful cocktail recipes are inspired by the gorgeous meringue bars from flower &amp; white that can be found in our april 2021 gin of the month box. give our dessert-inspired lemon meringue martini gin cocktail a go along with our raspberry &amp; white chocolate cocktail and the rest of the</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>you can make a strawberry daiquiri with either fresh fruit or frozen. this recipe is for frozen strawberries since you can get quality ones all year round. you can make with fresh strawberries if you have them. hull &amp; slice the strawberries. add an extra 1/2 - 1 cup of ice (1 1/2 - 2 cups total), depending on the warmth of your other ingredients.this recipe is written for 2-3 cocktails (depending on how full you want to fill the glasses). it feels like a waste to pull out the blender for just one cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>blue hawaiian party punch is a simple vodka punch recipe that is perfect for a summer bbq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>this classic lemon drop martini recipe is a lemontini everyone will love. lemon drops are made with vodka, lemon, triple sec and simple syrup and are so refreshing. this is a delicious and easy cocktail recipe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>[i]a refreshing twist on a classic margarita with fresh blood orange juice, triple sec and fresh squeezed lime juice! [/i]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>the refreshing elderflower gin cocktail gets a pop of color and flavor from the addition of blood orange juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>the classic paloma is an easy-to-make cooler that combines tequila, lime juice and grapefruit soda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>hot buttered rum is so comforting and easy to prepare. this recipe uses simple everyday ingredients you probably already have on-hand!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>the blue hawaiian is a fun, refreshing cocktail made with rum, cream of coconut, pineapple juice, and curacao liqueur to create its signature blue color. invented in hawaii in the 1950s, this tiki cocktail will have you crooning like elvis!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>this pineapple kiwi mojito is made with fresh fruit and no added sugars or other juices. it looks like a fancy cocktail, but you'll be surprised by how simple it is to prepare and enjoy on a hot summer day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>hawaiian mimosas - this easy cocktail recipe has just three ingredients and will make you think you're on a beach in paradise. pineapple, rum, and champagne is all it takes to make this delicious cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>nothing says summer like a freshly cut slice of watermelon. this recipe from our friends at the national watermelon promotion board does the sweet fruit justice in the form of a boozy, colorful cocktail on the rocks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>hawaiian champagne punch is an easy mimosa recipe full of pineapple and orange juice and rum! it's the perfect party punch recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>peaches are a delicious summer staple in our home, and we also love our kentucky bourbon. put the two together, and you get this amazing bourbon peach smash cocktail, one of the most refreshing bourbon drinks we've ever had!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>the painkiller is a rich and fruity tropical drink that is a specialty of the british virgin islands. ease your pain with this vacation in a glass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>a fresh, summer-friendly grapefruit cocktail perfect for outdoor parties</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>pineapple rum punch - the perfect mix of tropical flavors in one amazing and easy to make party drink!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>cherry bomb recipe, a fresh cocktail or mocktail made with fresh (or frozen) cherries muddled with bourbon, vanilla, maple syrup, lemon and club soda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>this limoncello gin collins is fizzy and refreshing, with a prominent lemon flavor. minty simple syrup helps to balance out the tartness of the lemon juice and limoncello.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>honey isn’t just for your crumpets, you know.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>a minty fresh mojito no longer seems appropriate at this time of year and yet glass after glass of mulled wine can be a bit much. this winter-spiced pear cocktail bridges that gap perfectly, it’s light but the warming spices of star anise and cinnamon and the silky texture you get from the egg white make it a great seasonal alternative</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>prepare yourself for the weekend with a refreshing blackberry dark and stormy. light and fruity, and just boozy enough to make the perfect summer drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>this whisky cherry coke smash, made with crown royal, has a rather remarkable flavor profile that must be tasted to be believed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>the tequila honey bee is a refreshing cocktail from nick korbee, the executive chef and beverage director at egg shop in new york city</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>this blueberry cocktail is made with fresh blueberries, lemon juice, jam, thyme and gin that is topped off with some ginger ale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>elevate your holiday with a sparkling purple gin cocktail! empress gin &amp; elderflower liqueur make this champagne cocktail a party favorite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>the paper plane-a straightforward box-step of a recipe made with precisely equal proportion of four ingredients-may be the best bourbon cocktail that ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>summer in a cup! this refreshing grapefruit paloma cocktail is the perfect sipper for those hot sunny days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>this blackberry whiskey sour turns a classic whiskey sour into a fun and fruity cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>rudolph’s tipsy spritzer features the perfect balance of flavors that goes beyond a simple mix of vodka and cran. this easy holiday spritzer makes a party-perfect punch that can easily be made kid-friendly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>a magic color changing butterfly pea tea mojito cocktail to wow your friends and family with the power of food magic - and science!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>your favorite sour watermelon candies just got an adult twist in this slushy recipe from delish.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>three fruit juices and clear rum make this easy tropical rum punch cocktail recipe perfect! single serve and pitcher instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>a delicious mix of vodka, st. germain (elderflower liquor), and fresh squeezed winter citrus juice, topped off with bubbly ginger beer and extra festive pomegranates. simple and refreshing, serve this festive cocktail pitcher style at your christmas gathering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>a twist on a classic smash cocktail.  delicious tequila cocktail made with smashed blackberries and a little mint, fresh lemon, and of course anejo tequila</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>this is such a delicious cocktail and looks hella pro, the best thing is you can make it well in advance leaving you plenty of time to lap up all the compliments from your guests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>bourbon, light of my life, fire of my tongue. my sin, my soul. bo-ur-bon. these refreshing recipes have stood the test of time, just like jim beam® bourbon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>cool down from the summer heat wave with this fresh cucumber apricot gin fizz that has fresh, juicy apricots and cooling cucumbers all muddled with a spike of botanical gin!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>this lime in the coconut cocktail recipe combines fresh lime juice, coconut milk and crushed ice for a refreshing summer daiquiri! the non-alcoholic version is just as good and resembles a brazilian lemonade!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>a lightened up skinny paloma made with freshly juiced grapefruit, tequila, lime juice and sparkling water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>gorgeous dragon fruit juice muddled together with mint, vanilla and lime in a fruity sparkling mojito cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>combining southern comfort, amaretto, sloe gin and orange juice, the alabama slammer cocktail is an old favorite that packs a boozy punch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>a magical purple hued spanish style gin &amp; tonic featuring empress gin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>sweet lychee, tangy raspberry and a topping of bubbles are the star ingredients in @cooking_with_wine's raspberry lychee spritz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>this strawberry-basil moscow mule is a fruity twist on the classic! mixed with vodka and spicy ginger beer, it's a perfect cocktail for a hot summer afternoon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>make the most of the season’s plump, ripe figs in this pretty twist on a gin and tonic. it's a beautifully tasty gin and tonic recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>this strawberry gin and tonic is an easy, refreshing cocktail that's a fun twist on your favorite g&amp;t!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>this simple bramble cocktail is made in a cocktail shaker, then poured over crushed ice for a cool and refreshing sip. the layering looks complicated, but it's so simple it's almost criminal. you'll pour black raspberry liqueur over the gin sour; since it's heavier than gin, it will naturally sink to the bottom, creating a ridiculously fancy looking cocktail with almost zero effort.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>an earl grey old fashioned is an elevated version of the classic cocktail, with the rich and warm flavor of tea-infused bourbon. it’s made with home-made earl grey simple syrup. easy to make, silky smooth, and delicious as a summer night-cap!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>this delightful frosty the snowman cocktail will bring back childhood memories of the classic christmas special! loaded with peppermint flavor, it's sure to put a smile on just about anyone's face this season.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>if you decorate your home well, you may feel like something is still missing. in your apartment, there is a lot of bare wall space, and you do not want to cover it up with tacky posters.  go with the cool cocktail tin signs , choose from 24 designs that will make any room inviting. perfect for your home kitchen bar, coffee shop, pub or any coffee corner. our signs are made out of tin so they’ll hold up much better than any flimsy poster ever will. you can add our  cocktail tin signs to any wall decor to make it unique.   the tin signs come with four pre-punched holes, so they can be mounted easily on walls or fences. no need for adhesive or special equipment! both edges and rounded corners are rolled and hemmed. it is great as wall pediments for home, kitchen, cafe, pub, restaurant, store and so on. the signs would make a great gift for friends, dads, and moms on their birthdays, holidays, new year's, and mother &amp; father's day. specification  size: 15x30cm (5.9x11.8 inch) weight: 0.18kg (0.39lbs)  24 different designs  made from durable metal printed with two-color finish on tin, which can be displayed for many years easy to hang, equipped with four screws holes and can be installed with double tape. retro-artificial bronze and rust give it the perfect look of retro feeling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>everyone needs a few delicious homemade beverages up their sleeve for upcoming summer parties, and nothing is more refreshing on a hot day than one of these 25 cold, fruity, summer drink recipes. this list is packed with sweet sippers you’ll love—from classics like strawberry lemonade and strawberry smoothies, to fresh new favorites like pomegranate [...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>this amazing cranberry margarita is packed with sweet tart flavor and a brilliant bright red color! a delicious spin on the classic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>this recipe for pink gin prosecco cocktails will get the party started! also be sure to check out our julep inspired empress gin dri...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>these are the fast, easy, and refreshing tequila drinks of your dreams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>put a fruity summer twist on the classic moscow mule with this grapefruit moscow mule recipe! visit for hundreds of cocktail recipes, party ideas and more!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>get transported to southern italy with this refreshingly delicious limoncello gin martini, a cocktail that features the zesty liqueur along with gin, lemon juice and simple syrup. salute!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>we’re officially in apple-picking, cozy-sweater season and we’re not complaining one bit. the flavors of this season are always our favorite, so we’re combining a few for a special cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>what better way to welcome summer than with this summer citrus white sangria! this refreshing cocktail is so delicious and made with fresh ingredients!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>this lime in the coconut cocktail recipe combines fresh lime juice, coconut milk and crushed ice for a refreshing summer daiquiri! the non-alcoholic version is just as good and resembles a brazilian lemonade!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>a lightened up skinny paloma made with freshly juiced grapefruit, tequila, lime juice and sparkling water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>prosecco margarita, a big-batch recipe perfect for entertaining and celebrating! if you've ever wondered how to make a pitcher of margaritas, this sparkling drink is super fun and delicious!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>if you love pina coladas, you're going to love this sparkling pina colada rum punch.  this delicious cocktail combines sparkling wine with pineapple juice and coconut rum making it the perfect summer cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>zingy and refreshing, this watermelon mint moscow mule is sure to cool you off in the summer heat! so easy to make at home with fresh ingredients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>this key lime cocktail with coconut rum and fresh key limes is a delicious summer slushie for the grown-ups! this will cool you off all summer long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>if you love mango and mezcal, this is the perfect margarita recipe for you! all you need is five minutes and a few simple ingredients that should be easy to find at the grocery store. if you make this margarita, make sure to tag us on instagram stories @mexicoinymypocket and #mexicoinmypocket !</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>this blackberry champagne mule takes just seven simple ingredients to make. the fresh blueberries and mint sprig make this extra special.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>looking for a cocktail recipe? try this delicious and refreshing tequila based mexican cocktail called the paloma cocktail. view the recipe here at drizzle and dip.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>this limoncello gin collins is fizzy and refreshing, with a prominent lemon flavor. minty simple syrup helps to balance out the tartness of the lemon juice and limoncello.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>make this limited ingredient summer cocktail with pineapple juice and a couple other ingredients. it's the perfect summer cocktail and tastes delicious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>can you believe there are only a few weeks of summer left? that means now is the time to squeeze in as many of your favorite summer activities before fall is officially here. i still have a pretty long list of things that i want to do this summer, but to be honest i just want to eat as many peaches</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>bikini martini is the perfect drink to sip poolside. vodka, coconut rum, lemonade, fresh pineapple juice, and grenadine make a tropical sweet treat. serve up- or my style- on the rocks! #nationalmartiniday #bikinimartini #summerdrinks</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>this floral sangria recipe is made with white wine and elderflower liqueur. it’s refreshing, light, fruity with the most beautiful floral notes throughout. it’s refreshing and perfect for spring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>love a delicious 3 ingredient drink recipe? this creamy root beer rum cocktail tastes like an adult version of a root beer float.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>this 5-ingredient lavender lemonade cocktail is a fun twist on the classic lemonade. all you need to do is whip up some lemon peel lemonade, make an easy lavender simple syrup, and splash in some vodka. take your lemonade game to the next level with this sweet and zesty sip of summer!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>this raspberry vodka mojito recipe is lightly sweet and very refreshing!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>summer rosé sangria from barefoot contessa. combine the rosé, pomegranate juice, lemon juice, sugar, grand marnier, cognac, 1 cup of water, and 1 cup of ice in a large glass pitcher. stir in the raspberries, strawberries, and plums, cover, and refrigerate for at least 2 hours but preferably…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>summer cocktails! here's a drink that will make you feel like you're on vacation without the hit to your wallet. the tart grapefruit paired with chilling cucumber should probably come with a pair of sunglasses,</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>our limoncello cocktaill keeps it sweet and simple: just three ingredients are all you need to create this pucker-worthy refreshment. to make things even easier, this light and lemony cocktail recipe is perfectly portioned to top off two champagne flutes, making it the just right for toasting your togetherness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>winter wonderland and halloween in a glass! a perfect all seasons mimosa-sip on this delicious frosted winter prosecco cocktail</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>a light and lovely warm weather cocktails, this raspberry , limoncello, and prosecco cooler is delicious!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>a lightened up skinny paloma made with freshly juiced grapefruit, tequila, lime juice and sparkling water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>these watermelon &amp; cucumber mojitos are going to become your next refreshing go-to summer drink - serve them in an ice cold pitcher!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>strawberry lemonade vodka slush is a fruity, refreshing frozen cocktail. sweet strawberries, lemonade, and vodka, make a perfect boozy summer drink!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>a festive margarita for christmas with cranberry and pomegranate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>vodka, pineapple juice, spicy ginger beer and lime juice come together in this refreshing tropical variation of the classic mule cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>this easy moscato sangria is filled with fresh strawberries, peaches, citrus, orange liquor and mint for one epic refreshing sip! a sweet and crisp sangria recipe that's the perfect cocktail to serve all summer long!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>this is a refreshing summer drink with lively and sweet italian cantaloupe melons and the right twist of silver tequila and lime!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>whether using st. germain, another elderflower liqueur, or a homemade cordial, explore fascinating elderflower cocktail recipes to mix up at home.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>looking for a light, refreshing cocktail that's perfect for summer sipping? this raspberry mojito cocktail totally fits the bill! loads of raspberry flavor, with hints of mint and lime. perfect for you next patio get together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>frozen peach bellini cocktail – light, refreshing and super easy to make! this elegant cocktail slush will be a hit for any summer party. all you need is 3 ingredients and 5 minutes – s…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>this moscow mule is the perfect fall cocktail that puts a unique twist on the traditional moscow mule by adding fresh apple cider.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>this lava flow drink is a cross between a piña colada and a strawberry daiquiri. the perfect colorful tropical frozen cocktail to make you dream of white sandy beaches and clear blue water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>this bee’s knees cocktail recipe is a timeless favorite! crisp gin is softened by smooth honey, shaken to perfection. keep reading to get the easy recipe and add this cocktail drink idea to your cocktail shaking repertoire. cheers! why is it called the bee's knees? it’s all about the honey, friend! the bee’s knees is a classic prohibition cocktail. even the name evokes the era. "bathtub gin" was found in many speakeasies. it was really quite bitter honey was added to sweeten and lemon adds th...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>put a cherry kick in your vodka cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>are you looking for a fun summer drink that reminds you of the beach? then this ocean breeze cocktail recipe is exactly what you are looking for it. it is fun and refreshing on these hot summer days. the perfect summer drink. all you will need is 7-up, blue curacao liqueur, and coconut rum. we …</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>if you're looking for a romantic cocktail, look no further! it doesn't get more romantic than this unique and delicious, rose water gin cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>a salted butterscotch white russian is a tasty fall cocktail using butterscotch schnapps and coffee liqueur. for me, a kahlúa white russian is the best autumn cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>this jalapeno watermelon margarita is your new favorite margarita. the perfect balance of sweet and spicy and made with fresh pureed watermelon and spiked with jalapenos and just a splash of tequila, lime juice and orange liqueur. this is the spicy cocktail of your dreams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>"a thing of austere beauty: a lump of sugar, dissolved with a little water and two dashes of bitters, whiskey, a bit of ice and a lemon peel garnish.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>a refreshing watermelon punch made with tequila! it's perfect for an outdoor summer party.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>this delicious two-ingredient cocktail is sure to win your heart! garnish with a lemon wheel and rose petals for an elevated look.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>coconut rosewater blackberry smash. need i say more? this simple spring recipe is perfect for porch sipping, party throwing, shower hosting, or any old day that calls for a drink as beautiful as it is delicious. what do you do when the calendar (and, god-willing, the weather) heralds the beginning of spring, but no seasonal...read more »</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>the venetian sunrise is deceptively complex, combining tropical flavors with bright, bracing notes from italian amaro. fresh vanilla and pineapple juice are layered on a rum base to make you feel like you’re sitting on a beach in the caribbean. a kiss of aperol and orange bitters brings italy into the mix and adds complexity to the otherwise light drink, while rosé simple syrup keeps the drink from getting lopsided. a few bold, definable flavors, one radiant cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>this refreshing watermelon vodka soda is the perfect summer cocktail! fruity, perfectly sweet, and easy to make!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>tis the season for fresh berries, and adding them to cocktails is the perfect way to enjoy them! grab your favorite bourbon and some berries, and make this amazing blackberry bourbon smash cocktail...you'll thank me later!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>this raspberry lime vodka cocktail is so refreshing and super easy to make. all the raspberry fans are guaranteed to fall in love with the raspberry infusion. the cocktail requires only a few ingredients and doesn't contain a lot of alcohol at all. perfect for lightweight drinkers and any get-together or a friday or date night in!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>bursting with flavors of the season, and tequila, these white christmas margaritas, made with white cranberry juice and ginger beer, are going to be your new favorite holiday cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>tangy pineapple shaken with sweet coconut milk makes a summery twist on a classic cocktail. perfect for poolside sipping, this pineapple coconut margarita is the best of both a pina colada and a margarita with only one hand needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>lightly sweetened, this flavorful margarita is a thai-inspired take on the classic tequila cocktail. flavored with fresh ginger, lemongrass and cilantro (or thai basil), this marg is easy to make and fun to serve!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>a frozen peach bellini recipe blended with frozen peaches and peach liqueur then topped with sweet raspberry liqueur and a little tart red wine.  it's the perfect summertime adult slush!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>summer produce used simply. this gin basil smash is a fresh, clean drink with the aroma of fresh basil and sweet raspberries. muddle, shake, drink. ﻿</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>cool off with a frozen mermaid rum punch. an ocean blue tropical drink recipe with lemonade, coconut, white rum, banana and blue curacao that’s absolute magic!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>this japanese inspired cocktail is energetic and full of sweet and citrus flavors! it features sake, vodka, yuzu juice, soda water, peach syrup, and butterfly pea flower tea!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>fun, fruity, refreshing, delicious....this strawberry mojito has it all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>spicy pineapple mint margaritas combines freshly muddled pineapple chunks with mint and jalapeños shaken up with a mint syrup, tequila, and a touch of orange liquor. the perfect cocktail to sip on for a refreshing tropical twist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>a festive margarita for christmas with white cranberry  juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>the rhubarb paloma is a tart and refreshing tequila cocktail paired with citrus and rhubarb simple syrup, served over ice. cheers!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>photo by @rachelgurjar my dad is not like the other dads, he’s a cool dad! and you know what cool dads do? make frozen margaritas, that’s what. ever since i’ve been of the drinking age (of course…), my dad’s go-to house cocktail is a good ol’ frozen marg. any guest knows that they can expect a blended tequila drink if they’re coming to our house. what can i say? he’s a tequila-loving dude that can get down with a frozen cocktail–i am definitely my father’s daughter. apple (or passionfruit?) doesn’t fall far, you could say. because he is also a man that loves a discount, he does a majority of his grocery shopping in the aisles of costco. one of his staples is an enormous bag of frozen mango (if you haven’t gotten your hands on one of these guys, i’d highly recommend it). he’s been blending margaritas for a long time now, but it wasn’t until recently that he had the epiphany to toss in a couple cubes of frozen mango to the party. the result? absolute mango madness! frozen mango has the most luscious, silky smooth texture that lends itself beautifully to frozen cocktails. given that my ultimate goal in this life of sin is to one up my dad in every possible way, i wanted to develop an epic frozen margarita that is ever-so-slightly more delicious than his classic frozen mango margs. guess what? i did! dad, you can pack your knives and go. jk, but you can go to costco and buy these ingredients for me.  the key addition to my next level margs? passionfruit! a couple weeks ago in the feedfeedbrooklyn test kitchen, we had a variety of tropical fruits on set for a shoot, and i was reminded just how delicious fresh passion fruit tastes. it’s the perfect balance of tart, sweet, and fruity–i’m salivating just thinking about it. what better way to use such a unique, mouthwatering flavor than in a frozen cocktail? not to mention, the salty spice from the tajin rim cuts the sweetness of the margaritas, making them the ultimate, lip-puckering cocktail. watch out dad, you’ve got some serious competition!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>an easy and refreshing watermelon cucumber lemonade drink recipe that will cool you down on those hot summer days. this recipe is less than 10 ingredients and only 5 steps and has a refined sugar-free option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>can you believe there are only a few weeks of summer left? that means now is the time to squeeze in as many of your favorite summer activities before fall is officially here. i still have a pretty long list of things that i want to do this summer, but to be honest i just want to eat as many peaches</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>a vibrant tasty halloween cocktail with sparkling prosecco and rum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>this strawberry jalapeno margarita will spice up your next cinco de mayo celebration!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>this pineapple kiwi mojito is made with fresh fruit and no added sugars or other juices. it looks like a fancy cocktail, but you'll be surprised by how simple it is to prepare and enjoy on a hot summer day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>a light, crisp sangria full of refreshing flavors - strawberries, mint, and lemon meld together for the perfect summer cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>you're gonna love our mashup on a classic gin fizz cocktail...the pomegranate gin fizz cocktail dressed for the holiday season. lite and refreshing - cheers!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>a refreshing, summery cocktail made with blueberries, lemons, simple syrup, vodka, and club soda. this is my most popular recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>with only a few ingredients this easy peach sangria is one of the best sangria recipes for a party anytime of the year. such an easy drink bursting with flavor!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>a tropical mojito with a little more "island" feel. we put the lime in the coconut. added a little pineapple juice and sparkling water and shook it all up. it's an easy, cool &amp; refreshing cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>these are amazing with fresh pineapple juice, if you can make/get it. cream of coconut is different from coconut cream. cream of coconut is syrupy thick and sweetened. it is usally sold in the alcohol section of grocers or at liquor stores. coconut cream is usually unsweetened and basically thicker coconut milk. if needed, you can use coconut cream (or even coconut milk) for pina coladas, just make sure to add sugar or simple syrup to taste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>this vodka, grapefruit and rosemary cocktail is tarted up with st germain elderflower liqueur and has a refreshing herbal taste perfect for cocktail hour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>this cocktail recipe features flavours in full bloom. features empress 1908 gin and a balance of citrus and sweet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>made with spiced caramel sauce, vodka and baileys irish cream liqueur, and topped with gingerbread men, this fun christmas cocktail is just what the adults ordered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>this delicious summer drink, with the added flavor of raspberries, puts a fun and fruity spin on your traditional mojito.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>make a heavily concentrated chai tea, sweeten with honey, and add vanilla. mix with vodka, coffee liquor (i always use kahlua), and cream and you have a vanilla chai white russian...the perfect holiday drink for both thanksgiving and christmas!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>make the most of the season’s juicy, plump pears in this mellow, subtly spiced and gently warming autumn cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>if you decorate your home well, you may feel like something is still missing. in your apartment, there is a lot of bare wall space, and you do not want to cover it up with tacky posters.  go with the cool cocktail tin signs , choose from 24 designs that will make any room inviting. perfect for your home kitchen bar, coffee shop, pub or any coffee corner. our signs are made out of tin so they’ll hold up much better than any flimsy poster ever will. you can add our  cocktail tin signs to any wall decor to make it unique.   the tin signs come with four pre-punched holes, so they can be mounted easily on walls or fences. no need for adhesive or special equipment! both edges and rounded corners are rolled and hemmed. it is great as wall pediments for home, kitchen, cafe, pub, restaurant, store and so on. the signs would make a great gift for friends, dads, and moms on their birthdays, holidays, new year's, and mother &amp; father's day. specification  size: 15x30cm (5.9x11.8 inch) weight: 0.18kg (0.39lbs)  24 different designs  made from durable metal printed with two-color finish on tin, which can be displayed for many years easy to hang, equipped with four screws holes and can be installed with double tape. retro-artificial bronze and rust give it the perfect look of retro feeling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>this is a holiday drink for the ages with vodka, lemon juice, and a special and insanely easy simple syrup that ties the whole drink together. large batch recipe is included below for your holiday parties!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>calling all champagne lovers!? this is a perfect crisp and refreshing spritz for the holidays! filled with freshly squeezed orange juice and pomegranate juice!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>looking for a light, refreshing cocktail that's perfect for summer sipping? this raspberry mojito cocktail totally fits the bill! loads of raspberry flavor, with hints of mint and lime. perfect for you next patio get together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>this cucumber melon splash pairs cucumber vodka with fresh cantaloupe, cucumber slices, and refreshing bubbles! the perfect cocktail for spring!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>for a deliciously exciting twist on your usual g&amp;t, try some of these beautiful gin and tonic combinations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>blanco tequila is a pure form of the agave-based alcohol; unlike resposado and añejo tequila, it isn’t aged in wood. in this coconut and lime margarita recipe, the lightest tequila gets a rich and creamy texture from coconut cream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>this frozen aperol spritz cocktail, with a vibrant sunset-orange hue, is filled with aperol, orange juice, strawberries and prosecco, then blended up into a frozen frothy cocktail. it's a refreshing summer cocktail recipe that's easy to prep ahead and will make you feel like your backyard is an italian courtyard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>a festive pink drink is what every party needs! these delightfully sweet pomegranate margaritas are guaranteed to please!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>suite à mon dernier billet sur mes dessins culinaires, je réalise tardivement que je n'avais pas montré quelques affiches créées sur le thème des cocktails. illustrations à l'encre et aquarelle réalisées sur du papier canson a3 avec les recettes de la sangria, la pina colada, le spritz, le mojito et l'irish coffee. c'était un petit</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>this sweet and spicy bourbon-laced lemonade is made with just a handful of simple ingredients and is perfect for summer sipping.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>a delicious, fruity christmas cocktail recipe in all the festive colours. this gin smash has layers of strawberries, lychee and mint with gin, of course!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>take the work out of hosting by laying out all the plates, cutlery and condiments in advance. by encouraging a self-serve atmosphere, you can spend time with your guests instead of serving all night. complete the meal offer a cool and colourful blender drink perfect for a summer’s eve.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>for a great local source of gin check out the eau claire distillery in turner valley! gin, the unsung hero, is a linchpin in any bartender’s arsenal. from crafting a classic martini to concocting t…</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>a fun, refreshing summer twist on the classic cocktail with fresh blueberries and thyme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>homemade spiced chai simple syrup, mixed with warming bourbon, winter citrus, a touch of vanilla, and fizzy sparkling water. make the syrup ahead of time and keep in the fridge to mix up a quick drink in a moment's notice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>this watermelon cucumber basil lemonade recipe is a perfectly refreshing summer drink recipe.  made with simple ingredients and no added sugar!  add vodka, tequila or gin to make it a watermelon cucumber cocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>make this limited ingredient summer cocktail with pineapple juice and a couple other ingredients. it's the perfect summer cocktail and tastes delicious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>this pear bourbon cocktail smashes together overripe pears with maple syrup, allspice, and bourbon to make a great fall cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>60 second video tutorial: a cosmopolitan, or informally a cosmo, is a cocktail made with vodka, triple sec, cranberry juice, and freshly squeezed or sweetened lime juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>the perfect paloma cocktail recipe! refreshingly sweet and tangy, fresh grapefruit juice is the key to the perfect paloma. cheers! serving size: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>traditionally made with red or white wine, this spanish staple is updated with rosé wine, fresh grapefruit juice and fresh raspberries. to mix things up, you can try any of your favorite fruits in this summery rose sangria recipe. sliced stone fruits and fresh blackberries work particularly well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>creamy yet refreshing...the perfect tropical mojito!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>this grapefruit jalapeño margarita is a refreshing cocktail made with fresh ingredients and just the right amount of spicy kick!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>your new favourite cocktail. empress 1908 muddled with basil, thyme, rosemary, and mint. served over ice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>the tequila honey bee is a refreshing cocktail from nick korbee, the executive chef and beverage director at egg shop in new york city</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>a homemade thyme-infused fig syrup is combined with champagne and apple cider to make this sparkling fig &amp; honey cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>lavender oil has infinite uses and yet lavender buds are underutilized in the kitchen. thanks to the kale &amp; caramel cookbook ($13) by lily diamond, here's</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>classic mojitos get a tropical twist in these delicious pineapple coconut mojitos!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>one of my favorites for the holiday season; this pomegranate and rosemary gin fizz is so crisp and refreshing, not to mention perfectly beautiful!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>sneak some good-for-you ginger, honey, rosemary, and apple cider vinegar into your cocktail for a guilt-free happy hour. spring ginger honey switchel from healthfully ever after</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>this rosé lemonade elderflower sangria is the most refreshing summer cocktail! it's super easy to make, only 5 ingredients, and is easily multiplied to serve a crowd! all you need is dry rosé, freshly squeezed lemon juice, a touch of simple syrup for sweetness, elderflower liquer, and a splash of seltzer. absolutely delicious and dangerously good!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>pineapple jalapeno margaritas are the best blend of sweet and spicy. if you love margaritas and are looking for a new, fun way to make them, this is it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>mango mojito mocktail is an easy-to-make refreshing drink that comes together in under 5 minutes and is perfect for summers,</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>these raspberry gin fizz cocktails are so delicious and fresh that you'll leave they leave gin and tonic in the dust!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>buy empress 1908 gin online and have it delivered to you. new retailers are always being added so please come back often for more options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>peach strawberry white wine sangria - enjoy the taste of summer any time of year with this 6 ingredient sangria, made in less than 5 minutes!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>this strawberry gin smash has fresh basil, elderflower liqueur, and lime juice for a refreshing, delicious summer cocktail. make it in a pitcher or as a single drink!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>enjoy a little bit of mexico with this simple, citrus non alcoholic paloma</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>celebrate world gin day this spring/summer with these four tanqueray &amp; tonics with a twist. there’s a g&amp;t for everyone!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>this peach sangria is the perfect pitcher drink to serve for entertaining. made with white wine this party punch is light and delicious for summer parties or girls night in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>the tequila sunrise cocktail is a 1970s classic combining tequila, orange juice and grenadine. it was popularized in part by the rolling stones.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>irish whiskey, honey liqueur, orange juice and bitters combine in this unconventional cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>a refreshing and crisp tequila cocktail made with three ingredients: tequila, soda, and lime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>these oh-so-pretty rum punch cocktails are the perfect cocktail for the spring and summer months. they look cute, taste amazing, and are super easy to make - which means they're the perfect cocktail for parties and entertaining. this recipe is a pineapple mango rum punch with some really beautiful (completely edible) garnishes... orchids and orange zest anyone?!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>ginger syrup is sweet, fragrant with a bit of heat to spice up any drinks you add it to. the syrup requires only three ingredients, and you can easily make a large batch and store it in the refrigerator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>the gin paloma takes gin in a new direction. the salty rim and tartness of grapefruit makes a great combination. finish with soda for bubbles!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>sweet and boozy limoncello and gin are a match made in heaven in this lightly sparkling summer cocktail! try our quick and easy recipe today - no shaker needed!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>you only need a few ingredients to enjoy fresh pineapple mojitos at home! you can make the pineapple simple syrup ahead of time and refrigerate it until ready to use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>this paleo blueberry lime mocktail is a refreshing and delicious drink that anyone can enjoy. the sweet blueberries go so well with the tangy lime, just add your favorite sparkling water for the perfect bubbly drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>are you a speedy sipper or do you nurse your drinks? it depends for me (but i always end up with cold coffee somehow). if you’re s...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>the drink to enjoy all summer long! malibu rum, pineapple juice, and cranberry juice over ice with a slice of lime</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>my blueberry mojito pitcher is a fun and easy summer cocktail full of fresh blueberries, mint, lime juice, rum, and simple syrup. great for a party or a crowd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>today we have some tasty drink ideas for you thanks to one of our readers, michelle who came up with 4 signature drinks for your wedding or shower. the choice of wedding drinks can be color coordinated to match the rest of the event. a non-alcoholic cranberry or peach iced tea is an invigorating delight that gives an ample opportunity for customization. when it comes to alcoholic drinks, quick and easy cocktails can be made using fruit garnishes, miniature umbrellas and even colored sugar. no matter what, personalization and mood-building is the key to dazzling guests with the perfect wedding. by the end of the event, guests should have a distinct sense of the character possessed by the bride and groom and get the sense of being special when they’re treated to signature cocktails designed for the big day. recently, i stumbled upon a great cocktail recipe while attending a syracuse wedding at the turning stone resort. known for their extravagant amenities, the experts at the resort have an exclusive signature drink menu for large events. the o-cosmo martini, as it is called, features a sweet, citrusy flavor and made a great treat for guests. this signature cocktail gives a twist on the traditional cosmopolitan. the event will be a bigger hit with more of these unique elements. if signature cocktails are […]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>cranberry and orange juice are mixed with aperol liquor, prosecco, and a splash of sparkling water to make for a refreshing winter cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>an autumnal gin cocktail shaken up with blackberry jam and rosemary, and topped with a sweet foam of egg white.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>from bright citrus to warm spices, these infused waters will be your new go-to beverages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>lychee lime fizz is a light and refreshing sparkling cocktail made with lychee, lime and mint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>our top selling 24"x36" drink poster now updated with our best drinks featuring our masterpiece collection of gourgeous cocktails. there's something in here for everyone; mixologist or beginner, and each drink image contain a high resolution photograph, recipe and ingredients. so stock up your bar and get ready to go on a cocktail adventure. put our cocktails in your pocket. now this poster also includes our companion ebook features 300 of our top cocktails and a great bartending guide. prepare dazzling cocktails for your company over the holidays. over 250,000 followers on social media enjoy our pop cocktails drink recipes. we highly recommend you print the poster on glossy/metallic/pearl photographic paper wherever you print your photos, i.e. walmart, shutterfly etc this poster looks gorgeous when done this way! this high resolution poster can also be printed at 20"x30" or 12"x18" so any space you've got is covered, and will be sure to be the new centerpiece wherever it's featured. please note these are digital files you can immediately download, these are not physical items that are shipped. please feel free to contact us if you have any questions about our posters or guides //// copyright © 2020 pop cocktails and rob maran please drink responsibly. don't drink and drive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>fresh peach and lavender flavours make this summer gin &amp; tonic recipe by @bitesizedstudio impossible to resist!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>digital printable wedding signature drinks sign, wedding signature cocktail sign, chalkboard bar menu, wedding cocktails bar signs, chalkboard sign, wedding bar menu sign, wedding bar sign, wedding cocktails bar sign, open bar sign, wedding signage, wedding reception signs, wedding sign, watercolor drinks illustration, watercolor cocktails illustration idm2 ♥♡♥ this listing is for digital printable files for following : ▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔▔ one-sided bar menu available size: 8" x 10" / 8.5" x 11" / 11" x 14" / 12" x 15" / 12" x 18" / 16" x 20" / 18" x 24" / 22" x 28" / 24" x 30" / 24" x 36" ♥♡♥ please choose what you would like from the drop-down options ♥♡♥ ♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥ you will receive : ▔▔▔▔▔▔▔▔▔▔ ♥ you will receive the customized digital printable files in jpeg and pdf with your information on it. ♥ i will do unlimited changes on wording for you. you will not be able to edit file yourself. ♥ then you get them printed yourself. ♥ first proof will be provided in 3 days after your purchase. ♥ high resolution files will be provided in 24 hrs after you approved final proof. ⛔⛔ please note ⛔⛔ ♥ by selecting "original drink image" option, you can switch to use any other signature drinks images available in "bar menu signature drink" section in my shop. please visit: www.etsy.com/shop/weddingsundaestudio?section_id=18360166 ♥ if you need new signature drink images that are not available in my shop, please select option "new (#) drink images". ♥ fonts and font colors can be customized. i will change fonts and font colors only for the first proof. ♥ please choose "custom fontsorcolors" option if you would like the unlimited changes for fonts or colors. ♥ wording can be customized for any other events. wording can be in german, french, greek, spanish etc. ♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥ ★★★ how it works ★★★ ▔▔▔▔▔▔▔▔▔▔▔▔▔ ♥ purchase • purchase the listing by selecting drop-down options for what you would like. ♥ send wording • put your wording and any required customization in "note to seller" while checking out. ♥ proofing • i'll send you the digital proof within 3 days after your payment. i'll make unlimited changes until you're happy with it. ♥ get high resolution files • i will send you the link to download high resolution files within 24 hrs after you approved the final proof. ♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥ ★★★ rush order ★★★ ▔▔▔▔▔▔▔▔▔▔▔▔ if you need them rush, please let me know the due date you need it before placing order so i can manage it properly. if you have any question or any concern, please feel free to send me a message. i'm happy to help 😊 💕 💕💕 thank you for stopping by and enjoy shopping 💕💕 ♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥∞◉∞♥ this file is for personal use only and may not be shared, forwarded, sold or distributed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>magical colour changing cocktails!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>easy to make, this homemade rhubarb syrup has so many uses! rhubarb simple syrup can be poured over pancakes, made into cocktails and drinks, served over ice cream, added to pound cake, and more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>enjoy a tasty, fresh non alcoholic peach bellini mocktail!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>the test pilot is a classic tiki cocktail created by don the beachcomber back in the 1940s. it combines two types of rum with angostura bitters, pernod, cointreau, falernum, and fresh lime. i decided to riff on this drink by incorporating tropical fruits and the flavors of one of my favorite contemporary cocktails, the paloma. the result is a very balanced, delicious reinterpretation that i think is perfect for summertime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>sweet pink grapefruit juice, fragrant rosemary, and elderflower liqueur are added to gin and tonic to make a fresh, refreshing, and fun elderflower grapefruit gin and tonic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>a festive margarita for christmas with white cranberry  juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>we’ve all been there: you buy a large quantity of an ingredient for one recipe, and then you’re stuck not knowing what to do with the rest of it. a common culprit? amaretto liqueur, which is often used in almond-flavored butter cookies. but after you’ve added one tablespoon to the batter, you’re left with a bottle full of almond-flavored liqueur. well, now’s the time to try your hand at a new cocktail: a deliciously refreshing amaretto sour. the “sour” element comes from two types of citrus, freshly-squeezed lemon juice and a slice of orange. garnish with a cherry for a pretty presentation.watch the video above to find out how to make an amaretto sour, and read on for the easy recipe instructions and five ingredients.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>cool, refreshing and loaded with alcohol, this lemon vodka slush is going to be your favourite summer cocktail of all time after you've had just one delicious sip!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>as the warmer summer days start to make way for fall, i am making the best of what i have left with delicious, fruit-filled mojitos. this pink strawberry version gets its color from grenadine syrup, which i use in lieu of sugar. it features all the usual suspects like rum, lime, and mint, and i added some strawberries to give it a little more flavor. the berries also provide additional natural sugars to complement the grenadine and balance the final cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>looking for an alternative to the margarita? the doralto is a tequila cocktail that hits a similar sweet and sour note while being light and bubbly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>a dirty chai martini naturally sweetened with maple and balanced with a pinch of pink himalayan salt. made creamy with almond milk for a vegan cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>this super easy vodka slushy recipe is made with a handful of ingredients in a matter of minutes.  with plenty of frozen raspberries and orange juice, it's refreshing, delicious and sure to be on rotation all summer long!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>ruby red grapefruit sparkler, perfect for summer!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>tropical sangria with coconut rum is an easy cocktail recipe made with white wine and pineapple! we love this sangria recipe all year long, but especially in summer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>make the most of the season’s juicy, plump pears in this mellow, subtly spiced and gently warming autumn cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>late summer, sitting by the pool, the sun beating down.. wouldn't a raspberry wine slushy be perfect right about now? try this recipe - and if you have friends over you can double or triple</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>a frozen guava margarita is a fruity and refreshing tropical take on a classic favorite. made with guava nectar and tequila, these margaritas pack a punch and are so quick and easy to make!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>a thirst-quenching rhubarb mint mojito made with rhubarb syrup, fresh mint, and lime. yum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>a refreshing, summery cocktail made with blueberries, lemons, simple syrup, vodka, and club soda. this is my most popular recipe!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>this beautiful poinsettia mimosas is the perfect cocktail for the holidays! this drink is the christmas version of a regular orange juice mimosas!  i love these poinsettia mimosas. if you love champagne and cranberry juice, you'll love these poinsettia mimosas! the perfect holiday drink!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>sparkling hound recipe | grapefruit mimosa spring is here and that means baby and wedding showers, get-togethers around brunch and sparkling...</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>wishing you were on a tropical island? this strawberry coconut daiquiri is an easy-to-make rum-based frozen cocktail that will have you feeling like you're on a beach vacation!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>this strawberry smash is made with fresh strawberries, lemon juice, mint, honey and gin that is topped off with ginger beer, making it a great summer drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>rum &amp; orgeat cocktail with burnt rosemary</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>i couldn't wait to try this tropical frozen blue hawaiian cocktail recipe. it is the perfect combination of white rum, blue curacao, pineapple juice, and coconut cream blended with ice. this is the ultimate summer pool side cocktail to sip on in the hot summer heat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>this sparkling cocktail features gin, a floral lavender simple syrup, and fruity blueberry juice. both delicious and beautiful to look at!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>yanni kehagiaras riffs on the negroni with campari, gin, sweet vermouth, and an ounce of pineapple. he shakes the drink and pours it over ice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>jazz up your party with a light, fresh and subtly spicy margarita. made with fresh grapefruit juice and jalapeno, this is a fast and fresh recipe with a fun spin on a classic margarita.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>peach sangria is a top-notch celebratory drink for summer events! loaded with cherries, strawberries, and peaches this refreshing recipe is one that can never go wrong to beat the heat!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>if you’re after a cocktail that tastes as good as it looks, you’re going to love this sparkling rosé recipe! combining fresh grapefruit juice, egg white and brown brothers sparkling moscato rosa, this cocktail is equal parts beautiful and delicious! we adorned ours with beautiful florals and custom-made drink tags by the oh-so-talented sketch and etch -</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>ginger beer is not traditional in palomas, but it's so much better than using club soda and adds a killer ginger flavor, which just screams the holidays!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>this peach rosé sangria is an easy to make summer cocktail that's perfect for a party or sipping on the patio on a hot day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>honey lavender gin lemonade with empress 1908 gin is the perfect cocktail for spring and summer. it is made with a honey lavender lemonade and then topped with a bit of gin. this cocktail is lightly sweet, a bit florally and earthy, and is an all around delicious drink.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>day 339 cherry crepe 3.5 shots out of 5 oh my goodness it's saturday! party time........and i'm loosing steam. time to finish up my cocktail and get into the par-tay mood! it's been a long day and i'm ready to relax and have fun. i'm looking forward to making my happy birthday tini for the birthday girl tonight, i'm sure she'll love it! i gave tonight's cocktail 3.5 shots out of 5. this recipe is on a pdf from pinnacle. i have had their cherry vodka (i had totally went shopping for the cherry whip vodka and wasn't paying enough attention and got the regular cherry) for some time now and just never made a cocktail with it......until tonight! it's funny because with the little tiny amount of amaretto that i put in this cocktail, i can still really taste it. these three ingredients are a great combo together and i am enjoying this cocktail. here is a photo of the end result: here is a photo of the ingredients: here is the recipe for a cherry crepe: 1 1/2 oz cherry vodka 1/2 oz amaretto 4 oz cranberry juice cherry for garnish in a tall cocktail glass filled with ice, add all of the ingredients above, except for the cherry. stir them up well and garnish with a cherry. happy birthday to my very good friend veronica! looking forward to celebrating you tonight!! cheers!! the cocktail lady</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>you'll love serving a yummy amaretto eggnog with spiced rum and rumchata over the holidays! this delicious spiked eggnog recipe is the perfect wintertime drink that's perfect to enjoy all season long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>dive into a whimsical gin cocktail that is as pretty as it is delicious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>our blueberry basil mojito is an easy and refreshing twist on the standard version of this popular cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>sweet, refreshing guava mojito made with limes, guava nectar, rum and mint leaves. the perfect poolside summer tropical cocktail to enjoy with friends.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>a delicious mix of pretty blood oranges, sweet pomegranate juice, spicy ginger, fresh mint, a touch of warming honey, a splash of tequila, and of course, some sparkles too. it’s so simple, refreshing, wintry, and packed full of ingredients to help ward off the worst of winter's colds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>this grapefruit cucumber gin cocktail is so fresh and flavorful and perfect for spring! it's made with fresh grapefruit juice and cucumber seltzer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>limoncello moscow mules are a fun twist on the classic mule. substitute fresh lemons for limes, and add some limoncello. so refreshing for warm summer nights!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>frozen gin and tonic made with fresh watermelon is the perfect cocktail on hot summer days. it's also great for serving a crowd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>a delicious take on the classic gin and tonic, these grapefruit elderflower spanish gin &amp; tonics are perfect for summer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>mention a negroni to me, and i’ll try to get out of whatever i’m doing and meet you for one. i’m not alone on this obsession; there’s even an entire week dedicated to this italian classic cocktail. equal parts gin, campari, and sweet vermouth, the negroni is a serious cocktail that carefully balances slightly sweet with boldly bitter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>a creamy, watermelon piña colada recipe served in beautiful watermelon bowls! this recipe is easy to make and perfect for summer party!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>this vodka, grapefruit and rosemary cocktail is tarted up with st germain elderflower liqueur and has a refreshing herbal taste perfect for cocktail hour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>refreshing blueberry and raspberry cocktail made with vodka and sparkling lemonade inspired by justin timberlake's "braspberry". recipe for ages 21+.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>sweet fig preserves, a generous shot of rum, a squeeze of lemon, and a splash of spicy ginger beer. this fig dark and stormy is the simplest cocktail to make, but so delicious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>a delicious mix of vodka, st. germain (elderflower liquor), and fresh squeezed winter citrus juice, topped off with bubbly ginger beer and extra festive pomegranates. simple and refreshing, serve this festive cocktail pitcher style at your christmas gathering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>prosecco margarita, a big-batch recipe perfect for entertaining and celebrating! if you've ever wondered how to make a pitcher of margaritas, this sparkling drink is super fun and delicious!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>skip the sugar and let me show you how to make homemade lemonade with honey. check out this easy homemade lemonade recipe plus 4 flavorful and fruit lemonade variations!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>a homemade thyme-infused fig syrup is combined with champagne and apple cider to make this sparkling fig &amp; honey cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>this coconut mojito is the perfect blend of coconut rum, mint, and freshly squeezed lime juice and only takes minutes to prepare.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>the clean taste of cucumber partnered with the burst of cool flavor from fresh mint in this cucumber mint vodka refresher will certainly cool you off! perfect for happy hour on a warm summer evening or beach or poolside!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>a sweet and flavorsome prosecco cocktail</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>this naughty elf cocktail is a delicious fruity adult beverage made with spiced rum and a delicious assortment of fruit juices and liquors. this is a super fun and adorable name that fits the drink. you and your guests will love this delicious combination of flavors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>cool off from the summer heat with one of these non-alcoholic frozen drink recipes. you can use fresh or frozen fruit, but we prefer frozen to make the drink even cooler. drinks like whipped frozen pink lemonade and strawberry-lime cooler are tasty, refreshing and perfect for the whole family to enjoy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>try a cool and refreshing guava lime cocktail! squeeze some limes, add tequila and guava juice and a sprig of mint! simple and delicious!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>these elderflower margaritas are made almost like a classic margarita but with an added twist - elderflower liqueur! they're just the right amount of sweet, a little floral, and super citrusy. such a refreshing margarita for spring and summer!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>cucumber lime mocktail is a refreshing non-alcoholic summer mocktail made with cucumbers, lime, and carbonated mineral water.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>boozy frozen lemonade is made with vodka or rum for the best summer cocktail recipe!! lemonade vodka slush is a good and refreshing cocktail for parties!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>figetmenot 🌸 pink gin served with homemade lower sugar fig syrup and sugar free tonic water. 🌸 garnish with fresh figs and australian thyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>a cold grapefruit-lime cocktail with ginger and rosemary to take you to your favourite beach!</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>i couldn’t let this holiday season pass without crafting a fun and seasonal cocktail! i’m taking advantage of all the gorgeous winter citrus starting to pop up at the markets and combining it with one of my favorite botanical flavors: juniper. if you’ve not yet tried juniper berries: they are a be</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>this quick and simple rosé summer sangria is perfect for cooling off in the summer heat. wow your guests by serving rosé sangria made with fresh berries, rosé wine, and kicked up with white rum at your next party or bbq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>i’m gearing up to celebrate cinco de mayo with one of my favorite mexican spirits, mezcal. i’ve used this smokey agave spirit in a bright and refreshing cara cara mezcal sour that is perfect for the occasion. if you’re not familiar with mezcal or how it differs from traditional tequilas — i’m giving you the...read more</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>this spicy watermelon margarita poptail (code for popsicle cocktail) is just the kind of afternoon treat we like to enjoy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>a sweet, savory and spicy margarita with pineapple and jalapeno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>i’m taking my cocktail (and wordplay) skills to a whole new level with my latest drink recipe: earl grey’s royal gin fizz. if the cocktail looks classy enough, can we just forget the part where i’m drinking it in my pjs on the couch watching tiger king? just... #cocktail #cocktailrecipe #cocktails</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>what’s better than sitting on your balcony, in your backyard or on your porch with an ice cold beverage? with warmer weather coming, here are 8 super refreshing drinks you should try this summer. 1 – pineapple ginger iced tea if you’re new to the juice-making world, this recipe is fairly simple and uses just… continue reading 8 super refreshing drinks to try this summer</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>this coconut lime frozen margarita is just what your summer ordered! packed full of sweet coconut flavor and jazzed up with zippy lime juice. instead of salt, i opted to rim the cocktail with lime sugar and top it with toasted coconut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>made with fresh lime + grapefruit juice, these easy pitcher palomas are a refreshing and fizzy cocktail that are perfect for any party or summer gathering!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
